--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAC14E4-059F-484F-A5C9-E11B5E02B61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D792919-4DC8-44B6-B4D2-650ACBEB79C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1979">
   <si>
     <t>undefined</t>
   </si>
@@ -7319,7 +7319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -7444,83 +7444,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7806,28 +7736,34 @@
     <xf numFmtId="179" fontId="24" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7839,37 +7775,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7916,12 +7828,6 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8284,15 +8190,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="103"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31873,10 +31779,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -31889,750 +31795,869 @@
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="80" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="106" t="s">
+    <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="108" t="s">
         <v>1975</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
-    </row>
-    <row r="2" spans="1:6" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+    </row>
+    <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="95" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="110" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="95" t="s">
         <v>1786</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="95" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="98">
+    <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="96">
         <v>1966</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>1947</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="98" t="s">
         <v>1948</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="99">
         <v>-55.6</v>
       </c>
-      <c r="E3" s="101">
+      <c r="E3" s="100">
         <v>24467</v>
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="98">
+    <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="96">
         <v>1969</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="98" t="s">
         <v>1869</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="99">
         <v>-53</v>
       </c>
-      <c r="E4" s="101">
+      <c r="E4" s="100">
         <v>25234</v>
       </c>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="98">
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="96">
         <v>1976</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="97" t="s">
         <v>1947</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="98" t="s">
         <v>1948</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="99">
         <v>-55.3</v>
       </c>
-      <c r="E5" s="101">
+      <c r="E5" s="100">
         <v>28125</v>
       </c>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="98">
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="96">
         <v>2000</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="97" t="s">
         <v>1976</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="98" t="s">
         <v>1865</v>
       </c>
-      <c r="D6" s="97">
+      <c r="D6" s="99">
         <v>-50.4</v>
       </c>
-      <c r="E6" s="101">
+      <c r="E6" s="100">
         <v>36531</v>
       </c>
       <c r="F6" s="24"/>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="98">
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="96">
         <v>2001</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>1869</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="99">
         <v>-50</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="100">
         <v>36899</v>
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="114">
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="96">
         <v>2006</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="99">
         <v>-53.8</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="100">
         <v>38721</v>
       </c>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="115"/>
-      <c r="B9" s="96" t="s">
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="96">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="99">
         <v>-54</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="100">
         <v>38722</v>
       </c>
       <c r="F9" s="24"/>
     </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="116"/>
-      <c r="B10" s="96" t="s">
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="96">
+        <v>2006</v>
+      </c>
+      <c r="B10" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="99">
         <v>-52.1</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="100">
         <v>38723</v>
       </c>
       <c r="F10" s="24"/>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="114">
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="96">
+        <v>2011</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D11" s="99">
+        <v>-50.2</v>
+      </c>
+      <c r="E11" s="100">
+        <v>40563</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="96">
         <v>2016</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B12" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C12" s="98" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D12" s="99">
+        <v>-50.3</v>
+      </c>
+      <c r="E12" s="100">
+        <v>42387</v>
+      </c>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C13" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D13" s="99">
         <v>-50</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E13" s="100">
         <v>42394</v>
       </c>
-      <c r="F11" s="24"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="115"/>
-      <c r="B12" s="96" t="s">
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C14" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D14" s="99">
         <v>-51.9</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E14" s="100">
         <v>42398</v>
       </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="115"/>
-      <c r="B13" s="96" t="s">
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C15" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D15" s="99">
         <v>-55.3</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E15" s="100" t="s">
         <v>1977</v>
       </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="115"/>
-      <c r="B14" s="96" t="s">
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C16" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D16" s="99">
         <v>-52.8</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E16" s="100">
         <v>42399</v>
       </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="115"/>
-      <c r="B15" s="96" t="s">
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C17" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D17" s="99">
         <v>-51.5</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E17" s="100">
         <v>42400</v>
       </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="115"/>
-      <c r="B16" s="96" t="s">
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C18" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D18" s="99">
         <v>-50</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="100">
         <v>42404</v>
       </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="115"/>
-      <c r="B17" s="96" t="s">
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C19" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D19" s="99">
         <v>-52.3</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E19" s="100">
         <v>42405</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="115"/>
-      <c r="B18" s="96" t="s">
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C18" s="95" t="s">
+      <c r="C20" s="98" t="s">
         <v>1868</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D20" s="99">
         <v>-52</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E20" s="100">
         <v>42406</v>
       </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="115"/>
-      <c r="B19" s="96" t="s">
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C19" s="95" t="s">
+      <c r="C21" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D19" s="97">
+      <c r="D21" s="99">
         <v>-54.7</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E21" s="100">
         <v>42412</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="115"/>
-      <c r="B20" s="96" t="s">
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C20" s="95" t="s">
+      <c r="C22" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D20" s="97">
+      <c r="D22" s="99">
         <v>-50.3</v>
       </c>
-      <c r="E20" s="101">
+      <c r="E22" s="100">
         <v>42437</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="115"/>
-      <c r="B21" s="96" t="s">
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C23" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D23" s="99">
         <v>-54</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E23" s="100">
         <v>42438</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="116"/>
-      <c r="B22" s="96" t="s">
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="96">
+        <v>2016</v>
+      </c>
+      <c r="B24" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C22" s="95" t="s">
+      <c r="C24" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D24" s="99">
         <v>-53</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E24" s="100">
         <v>42439</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="99">
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="96">
         <v>2017</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B25" s="97" t="s">
         <v>1789</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C25" s="98" t="s">
         <v>1791</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D25" s="99">
         <v>-45.4</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E25" s="100">
         <v>42763</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="114">
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="96">
         <v>2018</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B26" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C24" s="95" t="s">
+      <c r="C26" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D26" s="99">
         <v>-51.6</v>
       </c>
-      <c r="E24" s="101">
+      <c r="E26" s="100">
         <v>43123</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="115"/>
-      <c r="B25" s="96" t="s">
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C27" s="98" t="s">
         <v>1867</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D27" s="99">
         <v>-51.3</v>
       </c>
-      <c r="E25" s="101">
+      <c r="E27" s="100">
         <v>43123</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="115"/>
-      <c r="B26" s="96" t="s">
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B28" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C28" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D28" s="99">
         <v>-53.2</v>
       </c>
-      <c r="E26" s="101">
+      <c r="E28" s="100">
         <v>43124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="115"/>
-      <c r="B27" s="96" t="s">
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B29" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C29" s="98" t="s">
         <v>1867</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D29" s="99">
         <v>-51.7</v>
       </c>
-      <c r="E27" s="101">
+      <c r="E29" s="100">
         <v>43124</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="115"/>
-      <c r="B28" s="96" t="s">
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B30" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C28" s="95" t="s">
+      <c r="C30" s="98" t="s">
         <v>1790</v>
       </c>
-      <c r="D28" s="97">
+      <c r="D30" s="99">
         <v>-50.1</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E30" s="100">
         <v>43125</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="115"/>
-      <c r="B29" s="96" t="s">
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C29" s="95" t="s">
+      <c r="C31" s="98" t="s">
         <v>1869</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D31" s="99">
         <v>-50</v>
       </c>
-      <c r="E29" s="101">
+      <c r="E31" s="100">
         <v>43125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="115"/>
-      <c r="B30" s="96" t="s">
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B32" s="97" t="s">
         <v>1947</v>
       </c>
-      <c r="C30" s="95" t="s">
+      <c r="C32" s="98" t="s">
         <v>1794</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D32" s="99">
         <v>-50</v>
       </c>
-      <c r="E30" s="101" t="s">
+      <c r="E32" s="100" t="s">
         <v>1978</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="115"/>
-      <c r="B31" s="96" t="s">
+    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B33" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C31" s="95" t="s">
+      <c r="C33" s="98" t="s">
         <v>1792</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D33" s="99">
         <v>-51.8</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E33" s="100">
         <v>43127</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="115"/>
-      <c r="B32" s="96" t="s">
+    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B34" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C32" s="95" t="s">
+      <c r="C34" s="98" t="s">
         <v>1794</v>
       </c>
-      <c r="D32" s="97">
+      <c r="D34" s="99">
         <v>-50</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E34" s="100" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="115"/>
-      <c r="B33" s="96" t="s">
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B35" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C35" s="98" t="s">
         <v>1971</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D35" s="99">
         <v>-50</v>
       </c>
-      <c r="E33" s="101" t="s">
+      <c r="E35" s="100" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="116"/>
-      <c r="B34" s="96" t="s">
+    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="96">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C34" s="95" t="s">
+      <c r="C36" s="98" t="s">
         <v>1972</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D36" s="99">
         <v>-50</v>
       </c>
-      <c r="E34" s="101" t="s">
+      <c r="E36" s="100" t="s">
         <v>1973</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="99">
+    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="96">
         <v>2019</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B37" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="C37" s="98" t="s">
         <v>1792</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D37" s="99">
         <v>-48.4</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E37" s="100">
         <v>43828</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="99">
+    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="96">
         <v>2020</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B38" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C36" s="95" t="s">
+      <c r="C38" s="98" t="s">
         <v>1784</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D38" s="99">
         <v>-49.6</v>
       </c>
-      <c r="E36" s="101">
+      <c r="E38" s="100">
         <v>44194</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="99">
+    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="96">
         <v>2021</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B39" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C37" s="95" t="s">
+      <c r="C39" s="98" t="s">
         <v>1784</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D39" s="99">
         <v>-47.2</v>
       </c>
-      <c r="E37" s="101">
+      <c r="E39" s="100">
         <v>44200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="99">
+    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="96">
         <v>2022</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B40" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C40" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D38" s="97">
+      <c r="D40" s="99">
         <v>-46.8</v>
       </c>
-      <c r="E38" s="101"/>
-    </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="114">
+      <c r="E40" s="100"/>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="96">
         <v>2023</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B41" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C41" s="98" t="s">
         <v>1867</v>
       </c>
-      <c r="D39" s="97">
+      <c r="D41" s="99">
         <v>-50</v>
       </c>
-      <c r="E39" s="101">
+      <c r="E41" s="100">
         <v>44949</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="115"/>
-      <c r="B40" s="96" t="s">
+    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="96">
+        <v>2023</v>
+      </c>
+      <c r="B42" s="97" t="s">
         <v>1947</v>
       </c>
-      <c r="C40" s="95" t="s">
+      <c r="C42" s="98" t="s">
         <v>1948</v>
       </c>
-      <c r="D40" s="97">
+      <c r="D42" s="99">
         <v>-49.4</v>
       </c>
-      <c r="E40" s="101">
+      <c r="E42" s="100">
         <v>45279</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="116"/>
-      <c r="B41" s="96" t="s">
+    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="96">
+        <v>2023</v>
+      </c>
+      <c r="B43" s="97" t="s">
         <v>1947</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C43" s="98" t="s">
         <v>1948</v>
       </c>
-      <c r="D41" s="100">
+      <c r="D43" s="101">
         <v>-50</v>
       </c>
-      <c r="E41" s="101">
+      <c r="E43" s="100">
         <v>45280</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="99">
+    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="96">
         <v>2024</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B44" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C42" s="95" t="s">
+      <c r="C44" s="98" t="s">
         <v>1784</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D44" s="99">
         <v>-48.8</v>
       </c>
-      <c r="E42" s="101">
+      <c r="E44" s="100">
         <v>45312</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="109">
+    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="103">
         <v>2025</v>
       </c>
-      <c r="B43" s="96" t="s">
+      <c r="B45" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C43" s="95" t="s">
+      <c r="C45" s="98" t="s">
         <v>1785</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D45" s="99">
         <v>-45.6</v>
       </c>
-      <c r="E43" s="101">
+      <c r="E45" s="100">
         <v>45659</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="110"/>
-      <c r="B44" s="96" t="s">
+    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="103">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="97" t="s">
         <v>1788</v>
       </c>
-      <c r="C44" s="95" t="s">
+      <c r="C46" s="98" t="s">
         <v>1794</v>
       </c>
-      <c r="D44" s="97">
+      <c r="D46" s="99">
         <v>-45.6</v>
       </c>
-      <c r="E44" s="101">
+      <c r="E46" s="100">
         <v>45673</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="111"/>
-      <c r="B45" s="96" t="s">
+    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="103">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="97" t="s">
         <v>1789</v>
       </c>
-      <c r="C45" s="95" t="s">
+      <c r="C47" s="98" t="s">
         <v>1793</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D47" s="99">
         <v>-44.2</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E47" s="102" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="132">
+    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="103">
         <v>2026</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B48" s="97" t="s">
         <v>1970</v>
       </c>
-      <c r="C46" s="95" t="s">
+      <c r="C48" s="98" t="s">
         <v>1794</v>
       </c>
-      <c r="D46" s="97">
+      <c r="D48" s="99">
         <v>-51.2</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E48" s="104">
         <v>46039</v>
       </c>
     </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="103">
+        <v>2026</v>
+      </c>
+      <c r="B49" s="97" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D49" s="99">
+        <v>-52</v>
+      </c>
+      <c r="E49" s="104">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="103">
+        <v>2026</v>
+      </c>
+      <c r="B50" s="97" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C50" s="98" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D50" s="99">
+        <v>-51.1</v>
+      </c>
+      <c r="E50" s="104">
+        <v>46040</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A43:A45"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D46">
+  <conditionalFormatting sqref="D3:D50">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -32666,12 +32691,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="111" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:4" s="29" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52" t="s">
@@ -32972,29 +32997,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="112" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:11" s="29" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="117" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="113" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>1943</v>
       </c>
-      <c r="F2" s="122"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="53" t="s">
         <v>1945</v>
       </c>
@@ -34081,32 +34106,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="119" t="s">
         <v>1968</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
     </row>
     <row r="2" spans="1:11" s="29" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="121" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="121"/>
       <c r="C2" s="86" t="s">
         <v>1964</v>
       </c>
-      <c r="D2" s="128" t="s">
+      <c r="D2" s="122" t="s">
         <v>1969</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="124" t="s">
         <v>1967</v>
       </c>
-      <c r="G2" s="131"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="59" t="s">

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D792919-4DC8-44B6-B4D2-650ACBEB79C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7943D44-2994-41C7-A7FE-1F551B6541B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -6633,6 +6633,14 @@
     <t>2018-01-26(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>昼温 -40.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昼温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6646,7 +6654,7 @@
     <numFmt numFmtId="180" formatCode="#\ ???/???"/>
     <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="61" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7184,6 +7192,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -7450,7 +7467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7521,9 +7538,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7828,6 +7842,18 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="61" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8190,15 +8216,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="105"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107"/>
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31779,7 +31805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31787,869 +31813,923 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="23" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="127" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="107" t="s">
         <v>1975</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="128" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="109" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="95" t="s">
+      <c r="C2" s="109"/>
+      <c r="D2" s="94" t="s">
         <v>1786</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="94" t="s">
         <v>1787</v>
       </c>
+      <c r="F2" s="125"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96">
+      <c r="A3" s="95">
         <v>1966</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="96" t="s">
         <v>1947</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D3" s="99">
+      <c r="D3" s="98">
         <v>-55.6</v>
       </c>
-      <c r="E3" s="100">
+      <c r="E3" s="99">
         <v>24467</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="126"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="96">
+      <c r="A4" s="95">
         <v>1969</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>1869</v>
       </c>
-      <c r="D4" s="99">
+      <c r="D4" s="98">
         <v>-53</v>
       </c>
-      <c r="E4" s="100">
+      <c r="E4" s="99">
         <v>25234</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="126"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="96">
+      <c r="A5" s="95">
         <v>1976</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="96" t="s">
         <v>1947</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D5" s="99">
+      <c r="D5" s="98">
         <v>-55.3</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="99">
         <v>28125</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="96">
+      <c r="A6" s="95">
         <v>2000</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="96" t="s">
         <v>1976</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>1865</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="98">
         <v>-50.4</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="99">
         <v>36531</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="96">
+      <c r="A7" s="95">
         <v>2001</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="97" t="s">
         <v>1869</v>
       </c>
-      <c r="D7" s="99">
+      <c r="D7" s="98">
         <v>-50</v>
       </c>
-      <c r="E7" s="100">
+      <c r="E7" s="99">
         <v>36899</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="96">
+      <c r="A8" s="95">
         <v>2006</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C8" s="98" t="s">
+      <c r="C8" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D8" s="99">
+      <c r="D8" s="98">
         <v>-53.8</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="99">
         <v>38721</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="96">
+      <c r="A9" s="95">
         <v>2006</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D9" s="99">
+      <c r="D9" s="98">
         <v>-54</v>
       </c>
-      <c r="E9" s="100">
+      <c r="E9" s="99">
         <v>38722</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="126"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="96">
+      <c r="A10" s="95">
         <v>2006</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D10" s="99">
+      <c r="D10" s="98">
         <v>-52.1</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="99">
         <v>38723</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="126"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="96">
+      <c r="A11" s="95">
         <v>2011</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D11" s="99">
+      <c r="D11" s="98">
         <v>-50.2</v>
       </c>
-      <c r="E11" s="100">
+      <c r="E11" s="99">
         <v>40563</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="126"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="96">
+      <c r="A12" s="95">
         <v>2016</v>
       </c>
-      <c r="B12" s="97" t="s">
+      <c r="B12" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D12" s="99">
+      <c r="D12" s="98">
         <v>-50.3</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="99">
         <v>42387</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="96">
+      <c r="A13" s="95">
         <v>2016</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="97" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D13" s="98">
+        <v>-50.4</v>
+      </c>
+      <c r="E13" s="99">
+        <v>42392</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="95">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C14" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D13" s="99">
+      <c r="D14" s="98">
         <v>-50</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E14" s="99">
         <v>42394</v>
       </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="96">
+      <c r="F14" s="126"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="95">
         <v>2016</v>
       </c>
-      <c r="B14" s="97" t="s">
+      <c r="B15" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C15" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D14" s="99">
+      <c r="D15" s="98">
         <v>-51.9</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E15" s="99">
         <v>42398</v>
       </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="96">
+      <c r="F15" s="126"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="95">
         <v>2016</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B16" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C16" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D15" s="99">
+      <c r="D16" s="98">
         <v>-55.3</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E16" s="99" t="s">
         <v>1977</v>
       </c>
-      <c r="F15" s="24"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="96">
+      <c r="F16" s="126"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="95">
         <v>2016</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B17" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C16" s="98" t="s">
+      <c r="C17" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D16" s="99">
+      <c r="D17" s="98">
         <v>-52.8</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E17" s="99">
         <v>42399</v>
       </c>
-      <c r="F16" s="24"/>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="96">
+      <c r="F17" s="126"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="95">
         <v>2016</v>
       </c>
-      <c r="B17" s="97" t="s">
+      <c r="B18" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C18" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D17" s="99">
+      <c r="D18" s="98">
         <v>-51.5</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E18" s="99">
         <v>42400</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="96">
+      <c r="F18" s="126"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="95">
         <v>2016</v>
       </c>
-      <c r="B18" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D19" s="98">
         <v>-50</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E19" s="99">
         <v>42404</v>
       </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="96">
+      <c r="F19" s="126"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="95">
         <v>2016</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B20" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C19" s="98" t="s">
+      <c r="C20" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D19" s="99">
+      <c r="D20" s="98">
         <v>-52.3</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E20" s="99">
         <v>42405</v>
       </c>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="96">
+      <c r="F20" s="126"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="95">
         <v>2016</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>1868</v>
       </c>
-      <c r="D20" s="99">
+      <c r="D21" s="98">
         <v>-52</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E21" s="99">
         <v>42406</v>
       </c>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="96">
+      <c r="F21" s="126"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="95">
         <v>2016</v>
       </c>
-      <c r="B21" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C22" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D21" s="99">
+      <c r="D22" s="98">
         <v>-54.7</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E22" s="99">
         <v>42412</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="96">
+      <c r="F22" s="125"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="95">
         <v>2016</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D23" s="98">
         <v>-50.3</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E23" s="99">
         <v>42437</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="96">
+      <c r="F23" s="125"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="95">
         <v>2016</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B24" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C24" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D24" s="98">
         <v>-54</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E24" s="99">
         <v>42438</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="96">
+      <c r="F24" s="125"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="95">
         <v>2016</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C25" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D24" s="99">
+      <c r="D25" s="98">
         <v>-53</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E25" s="99">
         <v>42439</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="96">
+      <c r="F25" s="125"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="95">
         <v>2017</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C26" s="97" t="s">
         <v>1791</v>
       </c>
-      <c r="D25" s="99">
+      <c r="D26" s="98">
         <v>-45.4</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E26" s="99">
         <v>42763</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="96">
+      <c r="F26" s="125"/>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="95">
         <v>2018</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C27" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D26" s="99">
+      <c r="D27" s="98">
         <v>-51.6</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E27" s="99">
         <v>43123</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="96">
+      <c r="F27" s="125"/>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="95">
         <v>2018</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B28" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C28" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D28" s="98">
         <v>-51.3</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E28" s="99">
         <v>43123</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="96">
+      <c r="F28" s="125"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="95">
         <v>2018</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B29" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D28" s="99">
+      <c r="D29" s="98">
         <v>-53.2</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E29" s="99">
         <v>43124</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="96">
+      <c r="F29" s="125"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="95">
         <v>2018</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C30" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D30" s="98">
         <v>-51.7</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E30" s="99">
         <v>43124</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="96">
+      <c r="F30" s="125"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="95">
         <v>2018</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B31" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C31" s="97" t="s">
         <v>1790</v>
       </c>
-      <c r="D30" s="99">
+      <c r="D31" s="98">
         <v>-50.1</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E31" s="99">
         <v>43125</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="96">
+      <c r="F31" s="125"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="95">
         <v>2018</v>
       </c>
-      <c r="B31" s="97" t="s">
+      <c r="B32" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C31" s="98" t="s">
+      <c r="C32" s="97" t="s">
         <v>1869</v>
       </c>
-      <c r="D31" s="99">
+      <c r="D32" s="98">
         <v>-50</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E32" s="99">
         <v>43125</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="96">
+      <c r="F32" s="125"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="95">
         <v>2018</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>1947</v>
       </c>
-      <c r="C32" s="98" t="s">
+      <c r="C33" s="97" t="s">
         <v>1794</v>
       </c>
-      <c r="D32" s="99">
+      <c r="D33" s="98">
         <v>-50</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="96">
+      <c r="F33" s="125"/>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="95">
         <v>2018</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B34" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C33" s="98" t="s">
+      <c r="C34" s="97" t="s">
         <v>1792</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D34" s="98">
         <v>-51.8</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E34" s="99">
         <v>43127</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="96">
+      <c r="F34" s="125"/>
+    </row>
+    <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="95">
         <v>2018</v>
       </c>
-      <c r="B34" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C34" s="98" t="s">
+      <c r="C35" s="97" t="s">
         <v>1794</v>
       </c>
-      <c r="D34" s="99">
+      <c r="D35" s="98">
         <v>-50</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E35" s="99" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="96">
+      <c r="F35" s="125"/>
+    </row>
+    <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="95">
         <v>2018</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B36" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C36" s="97" t="s">
         <v>1971</v>
       </c>
-      <c r="D35" s="99">
+      <c r="D36" s="98">
         <v>-50</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E36" s="99" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="96">
+      <c r="F36" s="125"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="95">
         <v>2018</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B37" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C36" s="98" t="s">
+      <c r="C37" s="97" t="s">
         <v>1972</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D37" s="98">
         <v>-50</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E37" s="99" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="96">
+      <c r="F37" s="125"/>
+    </row>
+    <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="95">
         <v>2019</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B38" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C38" s="97" t="s">
         <v>1792</v>
       </c>
-      <c r="D37" s="99">
+      <c r="D38" s="98">
         <v>-48.4</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E38" s="99">
         <v>43828</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="96">
+      <c r="F38" s="125"/>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="95">
         <v>2020</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B39" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C39" s="97" t="s">
         <v>1784</v>
       </c>
-      <c r="D38" s="99">
+      <c r="D39" s="98">
         <v>-49.6</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E39" s="99">
         <v>44194</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="96">
+      <c r="F39" s="125"/>
+    </row>
+    <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="95">
         <v>2021</v>
       </c>
-      <c r="B39" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C40" s="97" t="s">
         <v>1784</v>
       </c>
-      <c r="D39" s="99">
+      <c r="D40" s="98">
         <v>-47.2</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E40" s="99">
         <v>44200</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="96">
+      <c r="F40" s="125"/>
+    </row>
+    <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="95">
         <v>2022</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B41" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C40" s="98" t="s">
+      <c r="C41" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D40" s="99">
+      <c r="D41" s="98">
         <v>-46.8</v>
       </c>
-      <c r="E40" s="100"/>
-    </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="96">
+      <c r="E41" s="99"/>
+      <c r="F41" s="125"/>
+    </row>
+    <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="95">
         <v>2023</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B42" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C42" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D41" s="99">
+      <c r="D42" s="98">
         <v>-50</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E42" s="99">
         <v>44949</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="96">
+      <c r="F42" s="125"/>
+    </row>
+    <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="95">
         <v>2023</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B43" s="96" t="s">
         <v>1947</v>
       </c>
-      <c r="C42" s="98" t="s">
+      <c r="C43" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D42" s="99">
+      <c r="D43" s="98">
         <v>-49.4</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E43" s="99">
         <v>45279</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="96">
+      <c r="F43" s="125"/>
+    </row>
+    <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="95">
         <v>2023</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B44" s="96" t="s">
         <v>1947</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C44" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D43" s="101">
+      <c r="D44" s="100">
         <v>-50</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E44" s="99">
         <v>45280</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="96">
+      <c r="F44" s="125"/>
+    </row>
+    <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="95">
         <v>2024</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B45" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C44" s="98" t="s">
+      <c r="C45" s="97" t="s">
         <v>1784</v>
       </c>
-      <c r="D44" s="99">
+      <c r="D45" s="98">
         <v>-48.8</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E45" s="99">
         <v>45312</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="103">
+      <c r="F45" s="125"/>
+    </row>
+    <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="102">
         <v>2025</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B46" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C46" s="97" t="s">
         <v>1785</v>
       </c>
-      <c r="D45" s="99">
+      <c r="D46" s="98">
         <v>-45.6</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E46" s="99">
         <v>45659</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="103">
+      <c r="F46" s="125"/>
+    </row>
+    <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="102">
         <v>2025</v>
       </c>
-      <c r="B46" s="97" t="s">
+      <c r="B47" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C47" s="97" t="s">
         <v>1794</v>
       </c>
-      <c r="D46" s="99">
+      <c r="D47" s="98">
         <v>-45.6</v>
       </c>
-      <c r="E46" s="100">
+      <c r="E47" s="99">
         <v>45673</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="103">
+      <c r="F47" s="125"/>
+    </row>
+    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="102">
         <v>2025</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B48" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C48" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D47" s="99">
+      <c r="D48" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E48" s="101" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="103">
+      <c r="F48" s="125"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="102">
         <v>2026</v>
       </c>
-      <c r="B48" s="97" t="s">
+      <c r="B49" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C49" s="97" t="s">
         <v>1794</v>
       </c>
-      <c r="D48" s="99">
+      <c r="D49" s="98">
         <v>-51.2</v>
       </c>
-      <c r="E48" s="104">
+      <c r="E49" s="103">
         <v>46039</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="103">
+      <c r="F49" s="125"/>
+    </row>
+    <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="102">
         <v>2026</v>
       </c>
-      <c r="B49" s="97" t="s">
+      <c r="B50" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C50" s="97" t="s">
         <v>1794</v>
       </c>
-      <c r="D49" s="99">
+      <c r="D50" s="98">
         <v>-52</v>
       </c>
-      <c r="E49" s="104">
+      <c r="E50" s="103">
         <v>46040</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="103">
+      <c r="F50" s="125"/>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="102">
         <v>2026</v>
       </c>
-      <c r="B50" s="97" t="s">
+      <c r="B51" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C50" s="98" t="s">
+      <c r="C51" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D50" s="99">
+      <c r="D51" s="98">
         <v>-51.1</v>
       </c>
-      <c r="E50" s="104">
+      <c r="E51" s="103">
         <v>46040</v>
       </c>
+      <c r="F51" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32657,7 +32737,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D50">
+  <conditionalFormatting sqref="D3:D51">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -32691,276 +32771,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="110" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-    </row>
-    <row r="2" spans="1:4" s="29" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+    </row>
+    <row r="2" spans="1:4" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
         <v>1833</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>1851</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>1852</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="29" t="s">
         <v>1776</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>1812</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="42" t="s">
         <v>1838</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>1839</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="48">
         <v>51573</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>1801</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>1837</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>1828</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="48">
         <v>58968</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>1797</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>1815</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>1824</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="48">
         <v>58606</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>1804</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>1815</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>1830</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="48">
         <v>57687</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>1799</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>1817</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>1826</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>58847</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>1798</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>1816</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="32" t="s">
         <v>1825</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="48">
         <v>58457</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>1805</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>1816</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>1845</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <v>57494</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>1810</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>1841</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>1836</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>57516</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>1800</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>1818</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>1827</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <v>59287</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>1806</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>1842</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>1846</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <v>59758</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>1796</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>1814</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>1823</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="48">
         <v>58321</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>1803</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>1819</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>1829</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <v>45011</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>1795</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>1813</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>1822</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <v>58238</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>1807</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>1820</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="46" t="s">
         <v>1831</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="48">
         <v>59431</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>1802</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="38" t="s">
         <v>1843</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>1844</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>1850</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>1811</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="50" t="s">
         <v>1848</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>1832</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>1849</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>1808</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>1821</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>1847</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <v>57816</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="41" t="s">
         <v>1809</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="40" t="s">
         <v>1840</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>1835</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <v>56778</v>
       </c>
     </row>
@@ -32986,1049 +33066,1049 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" style="55" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="54" customWidth="1"/>
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="55" customWidth="1"/>
     <col min="5" max="5" width="16.59765625" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.59765625" customWidth="1"/>
     <col min="14" max="14" width="12.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="111" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-    </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="117" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+    </row>
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="116" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="112" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115" t="s">
+      <c r="D2" s="113"/>
+      <c r="E2" s="114" t="s">
         <v>1943</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="53" t="s">
+      <c r="F2" s="115"/>
+      <c r="G2" s="52" t="s">
         <v>1945</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>1957</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>1958</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="66">
         <v>-41.1</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>1959</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="68">
         <v>-33.299999999999997</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="73" t="s">
         <v>1960</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="69">
         <f t="shared" ref="G3" si="0">ABS(E3-C3)</f>
         <v>7.8000000000000043</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="57" t="s">
         <v>1888</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="66">
         <v>-40.9</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>-29.3</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="69">
         <f t="shared" ref="G4:G44" si="1">ABS(E4-C4)</f>
         <v>11.599999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="57" t="s">
         <v>1862</v>
       </c>
-      <c r="C5" s="67">
+      <c r="C5" s="66">
         <v>-40.200000000000003</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>1919</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="68">
         <v>-28.7</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="69">
         <f t="shared" si="1"/>
         <v>11.500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>1893</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="59" t="s">
         <v>1865</v>
       </c>
-      <c r="C6" s="67">
+      <c r="C6" s="66">
         <v>-40.1</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="68">
         <v>-32.4</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G6" s="70">
+      <c r="G6" s="69">
         <f t="shared" si="1"/>
         <v>7.7000000000000028</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="59" t="s">
         <v>1869</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>-40</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <v>-31.5</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="69">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>1895</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>1866</v>
       </c>
-      <c r="C8" s="67">
+      <c r="C8" s="66">
         <v>-39.4</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <v>-31.3</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G8" s="70">
+      <c r="G8" s="69">
         <f t="shared" si="1"/>
         <v>8.0999999999999979</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>1896</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>1857</v>
       </c>
-      <c r="C9" s="67">
+      <c r="C9" s="66">
         <v>-39.299999999999997</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="67" t="s">
         <v>1921</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <v>-29.4</v>
       </c>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="69">
         <f t="shared" si="1"/>
         <v>9.8999999999999986</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>1864</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="66">
         <v>-38.9</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>1922</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>-31</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G10" s="70">
+      <c r="G10" s="69">
         <f t="shared" si="1"/>
         <v>7.8999999999999986</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>1897</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>1887</v>
       </c>
-      <c r="C11" s="67">
+      <c r="C11" s="66">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="68">
         <v>-29.5</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="69">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="57" t="s">
         <v>1859</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="66">
         <v>-38.700000000000003</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>1923</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <v>-29.8</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="70" t="s">
         <v>1942</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="69">
         <f t="shared" si="1"/>
         <v>8.9000000000000021</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="57" t="s">
         <v>1860</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="66">
         <v>-38.5</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>-30.5</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G13" s="70">
+      <c r="G13" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="59" t="s">
         <v>1867</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="66">
         <v>-38.4</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <v>-31.4</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="69">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="56" t="s">
         <v>1899</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>1863</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="66">
         <v>-37.9</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="67" t="s">
         <v>1925</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>-27.3</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="69">
         <f t="shared" si="1"/>
         <v>10.599999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>1873</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="66">
         <v>-37.5</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="E16" s="69">
+      <c r="E16" s="68">
         <v>-25</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F16" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="61" t="s">
         <v>1886</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="66">
         <v>-37.200000000000003</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="68">
         <v>-27.7</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="69">
         <f t="shared" si="1"/>
         <v>9.5000000000000036</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="59" t="s">
         <v>1868</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="66">
         <v>-36.9</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="67" t="s">
         <v>1928</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="68">
         <v>-27.6</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G18" s="70">
+      <c r="G18" s="69">
         <f t="shared" si="1"/>
         <v>9.2999999999999972</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>1901</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>1854</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="66">
         <v>-36.299999999999997</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E19" s="69">
+      <c r="E19" s="68">
         <v>-27.9</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <f t="shared" si="1"/>
         <v>8.3999999999999986</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>1872</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="66">
         <v>-36</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="67" t="s">
         <v>1927</v>
       </c>
-      <c r="E20" s="69">
+      <c r="E20" s="68">
         <v>-28.4</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="69">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="56" t="s">
         <v>1902</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>1855</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="66">
         <v>-35.6</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="67" t="s">
         <v>1929</v>
       </c>
-      <c r="E21" s="69">
+      <c r="E21" s="68">
         <v>-26.4</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="69">
         <f t="shared" si="1"/>
         <v>9.2000000000000028</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>1897</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="57" t="s">
         <v>1856</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="66">
         <v>-35.6</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="67" t="s">
         <v>1930</v>
       </c>
-      <c r="E22" s="69">
+      <c r="E22" s="68">
         <v>-27.6</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>1858</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="66">
         <v>-35.4</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>1931</v>
       </c>
-      <c r="E23" s="69">
+      <c r="E23" s="68">
         <v>-27.4</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>1903</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>1871</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="66">
         <v>-35.299999999999997</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E24" s="69">
+      <c r="E24" s="68">
         <v>-27.9</v>
       </c>
-      <c r="F24" s="68" t="s">
+      <c r="F24" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="69">
         <f t="shared" si="1"/>
         <v>7.3999999999999986</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="60" t="s">
         <v>1904</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="61" t="s">
         <v>1876</v>
       </c>
-      <c r="C25" s="67">
+      <c r="C25" s="66">
         <v>-34.5</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="67" t="s">
         <v>1932</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="68">
         <v>-26.4</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="69">
         <f t="shared" si="1"/>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>1956</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="61" t="s">
         <v>1955</v>
       </c>
-      <c r="C26" s="67">
+      <c r="C26" s="66">
         <v>-33.1</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="68">
         <v>-25</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="69">
         <f t="shared" ref="G26" si="2">ABS(E26-C26)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="60" t="s">
         <v>1905</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="61" t="s">
         <v>1884</v>
       </c>
-      <c r="C27" s="67">
+      <c r="C27" s="66">
         <v>-32</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <v>-24.4</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="69">
         <f t="shared" si="1"/>
         <v>7.6000000000000014</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="60" t="s">
         <v>1903</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>1883</v>
       </c>
-      <c r="C28" s="67">
+      <c r="C28" s="66">
         <v>-31.8</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="67" t="s">
         <v>1933</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="68">
         <v>-24.7</v>
       </c>
-      <c r="F28" s="68" t="s">
+      <c r="F28" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="69">
         <f t="shared" si="1"/>
         <v>7.1000000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="62" t="s">
         <v>1906</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="63" t="s">
         <v>1889</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="66">
         <v>-31.7</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E29" s="69">
+      <c r="E29" s="68">
         <v>-20.3</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="69">
         <f t="shared" si="1"/>
         <v>11.399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="56" t="s">
         <v>1907</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>1861</v>
       </c>
-      <c r="C30" s="67">
+      <c r="C30" s="66">
         <v>-30.7</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="E30" s="69">
+      <c r="E30" s="68">
         <v>-24.6</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="69">
         <f t="shared" si="1"/>
         <v>6.0999999999999979</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>1908</v>
       </c>
-      <c r="B31" s="60" t="s">
+      <c r="B31" s="59" t="s">
         <v>1870</v>
       </c>
-      <c r="C31" s="67">
+      <c r="C31" s="66">
         <v>-30.5</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="67" t="s">
         <v>1934</v>
       </c>
-      <c r="E31" s="69">
+      <c r="E31" s="68">
         <v>-21.3</v>
       </c>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="69">
         <f t="shared" si="1"/>
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="60" t="s">
         <v>1952</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="61" t="s">
         <v>1953</v>
       </c>
-      <c r="C32" s="67">
+      <c r="C32" s="66">
         <v>-29.5</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="70" t="s">
         <v>1954</v>
       </c>
-      <c r="E32" s="69">
+      <c r="E32" s="68">
         <v>-21.4</v>
       </c>
-      <c r="F32" s="68" t="s">
+      <c r="F32" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="69">
         <f t="shared" ref="G32" si="3">ABS(E32-C32)</f>
         <v>8.1000000000000014</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>1909</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="61" t="s">
         <v>1879</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="66">
         <v>-27.5</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="E33" s="69">
+      <c r="E33" s="68">
         <v>-17.3</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="69">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>1910</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="61" t="s">
         <v>1874</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="66">
         <v>-25.1</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="70" t="s">
         <v>1918</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="68">
         <v>-15.8</v>
       </c>
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="69">
         <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="60" t="s">
         <v>1946</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>1890</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="66">
         <v>-24.9</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="67" t="s">
         <v>1935</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="68">
         <v>-15.9</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="69">
         <f t="shared" si="1"/>
         <v>8.9999999999999982</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="60" t="s">
         <v>1946</v>
       </c>
-      <c r="B36" s="62" t="s">
+      <c r="B36" s="61" t="s">
         <v>1885</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="66">
         <v>-24.3</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="67" t="s">
         <v>1936</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E36" s="68">
         <v>-16.3</v>
       </c>
-      <c r="F36" s="68" t="s">
+      <c r="F36" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="69">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="60" t="s">
         <v>1911</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="61" t="s">
         <v>1880</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="66">
         <v>-23</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="E37" s="69">
+      <c r="E37" s="68">
         <v>-17.3</v>
       </c>
-      <c r="F37" s="68" t="s">
+      <c r="F37" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G37" s="70">
+      <c r="G37" s="69">
         <f t="shared" si="1"/>
         <v>5.6999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="60" t="s">
         <v>1912</v>
       </c>
-      <c r="B38" s="62" t="s">
+      <c r="B38" s="61" t="s">
         <v>1881</v>
       </c>
-      <c r="C38" s="67">
+      <c r="C38" s="66">
         <v>-22.8</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="67" t="s">
         <v>1926</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="68">
         <v>-14.3</v>
       </c>
-      <c r="F38" s="68" t="s">
+      <c r="F38" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="69">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="60" t="s">
         <v>1949</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="61" t="s">
         <v>1950</v>
       </c>
-      <c r="C39" s="67">
+      <c r="C39" s="66">
         <v>-22.6</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="67" t="s">
         <v>1951</v>
       </c>
-      <c r="E39" s="69">
+      <c r="E39" s="68">
         <v>-17</v>
       </c>
-      <c r="F39" s="68" t="s">
+      <c r="F39" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G39" s="70">
+      <c r="G39" s="69">
         <f t="shared" ref="G39" si="4">ABS(E39-C39)</f>
         <v>5.6000000000000014</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="64" t="s">
         <v>1913</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="65" t="s">
         <v>1891</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="66">
         <v>-22.4</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="67" t="s">
         <v>1920</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E40" s="68">
         <v>-17</v>
       </c>
-      <c r="F40" s="68" t="s">
+      <c r="F40" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G40" s="69">
         <f t="shared" si="1"/>
         <v>5.3999999999999986</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="60" t="s">
         <v>1914</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="61" t="s">
         <v>1877</v>
       </c>
-      <c r="C41" s="67">
+      <c r="C41" s="66">
         <v>-20.9</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="67" t="s">
         <v>1938</v>
       </c>
-      <c r="E41" s="69">
+      <c r="E41" s="68">
         <v>-10.7</v>
       </c>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G41" s="70">
+      <c r="G41" s="69">
         <f t="shared" si="1"/>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="60" t="s">
         <v>1915</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="61" t="s">
         <v>1875</v>
       </c>
-      <c r="C42" s="67">
+      <c r="C42" s="66">
         <v>-20.399999999999999</v>
       </c>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="67" t="s">
         <v>1939</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="68">
         <v>-12.2</v>
       </c>
-      <c r="F42" s="68" t="s">
+      <c r="F42" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="69">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="60" t="s">
         <v>1916</v>
       </c>
-      <c r="B43" s="62" t="s">
+      <c r="B43" s="61" t="s">
         <v>1882</v>
       </c>
-      <c r="C43" s="67">
+      <c r="C43" s="66">
         <v>-18.5</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="67" t="s">
         <v>1940</v>
       </c>
-      <c r="E43" s="69">
+      <c r="E43" s="68">
         <v>-11.4</v>
       </c>
-      <c r="F43" s="68" t="s">
+      <c r="F43" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G43" s="70">
+      <c r="G43" s="69">
         <f t="shared" si="1"/>
         <v>7.1</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="34.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="60" t="s">
         <v>1917</v>
       </c>
-      <c r="B44" s="62" t="s">
+      <c r="B44" s="61" t="s">
         <v>1878</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="66">
         <v>-17.600000000000001</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="67" t="s">
         <v>1924</v>
       </c>
-      <c r="E44" s="69">
+      <c r="E44" s="68">
         <v>-12</v>
       </c>
-      <c r="F44" s="68" t="s">
+      <c r="F44" s="67" t="s">
         <v>1941</v>
       </c>
-      <c r="G44" s="70">
+      <c r="G44" s="69">
         <f t="shared" si="1"/>
         <v>5.6000000000000014</v>
       </c>
@@ -34095,10 +34175,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.59765625" style="54" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" style="55" customWidth="1"/>
-    <col min="3" max="3" width="28.59765625" style="77" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="76" customWidth="1"/>
+    <col min="1" max="1" width="28.59765625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="75" customWidth="1"/>
     <col min="5" max="5" width="24.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.59765625" style="23" customWidth="1"/>
@@ -34106,882 +34186,882 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
         <v>1968</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-    </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="121" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+    </row>
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="120" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="120"/>
+      <c r="C2" s="85" t="s">
         <v>1964</v>
       </c>
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="121" t="s">
         <v>1969</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="124" t="s">
+      <c r="E2" s="122"/>
+      <c r="F2" s="123" t="s">
         <v>1967</v>
       </c>
-      <c r="G2" s="125"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="80" t="s">
         <v>1868</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="93">
         <v>811</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E3" s="87">
+      <c r="E3" s="86">
         <v>-27.6</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="77">
         <v>523</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="78" t="s">
         <v>1966</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>1906</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>1889</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="93">
         <v>805</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E4" s="87">
+      <c r="E4" s="86">
         <v>-20.9</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="77">
         <v>728</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="78" t="s">
         <v>1966</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="56" t="s">
         <v>1901</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>1854</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="92">
         <v>756</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E5" s="87">
+      <c r="E5" s="86">
         <v>-27.9</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="77">
         <v>898</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>1858</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="92">
         <v>738</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E6" s="87">
+      <c r="E6" s="86">
         <v>-27.4</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="77">
         <v>735</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="56" t="s">
         <v>1902</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>1855</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="92">
         <v>730</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="86">
         <v>-26.4</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="77">
         <v>439</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="78" t="s">
         <v>1965</v>
       </c>
-      <c r="K7" s="72"/>
+      <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="56" t="s">
         <v>1897</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="82" t="s">
         <v>1887</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="91">
         <v>676</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="86">
         <v>-30.2</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="77">
         <v>897</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="56" t="s">
         <v>1957</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="82" t="s">
         <v>1958</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <v>664</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="74" t="s">
         <v>1962</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="87">
         <v>-35.5</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="77">
         <v>570</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="56" t="s">
         <v>1899</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="82" t="s">
         <v>1863</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>649</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="86">
         <v>-28.4</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="77">
         <v>801</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="56" t="s">
         <v>1896</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="82" t="s">
         <v>1857</v>
       </c>
-      <c r="C11" s="92">
+      <c r="C11" s="91">
         <v>627</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="86">
         <v>-31.6</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <v>890</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>1859</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="91">
         <v>619</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="86">
         <v>-31.9</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="77">
         <v>648</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="82" t="s">
         <v>1888</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>605</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="74" t="s">
         <v>1962</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="86">
         <v>-30.8</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="77">
         <v>776</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="80" t="s">
         <v>1869</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>601</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="86">
         <v>-31.5</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="77">
         <v>929</v>
       </c>
-      <c r="G14" s="79" t="s">
+      <c r="G14" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="60" t="s">
         <v>1903</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="83" t="s">
         <v>1871</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="90">
         <v>590</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="86">
         <v>-30.2</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="77">
         <v>488</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="60" t="s">
         <v>1905</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>1884</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="90">
         <v>587</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="86">
         <v>-25.6</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="77">
         <v>681</v>
       </c>
-      <c r="G16" s="79" t="s">
+      <c r="G16" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>1894</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="80" t="s">
         <v>1867</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="90">
         <v>586</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="86">
         <v>-31.4</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="77">
         <v>552</v>
       </c>
-      <c r="G17" s="79" t="s">
+      <c r="G17" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="60" t="s">
         <v>1903</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>1883</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="90">
         <v>584</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="86">
         <v>-26.8</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="77">
         <v>678</v>
       </c>
-      <c r="G18" s="79" t="s">
+      <c r="G18" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="82" t="s">
         <v>1862</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="90">
         <v>580</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="86">
         <v>-30.4</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="77">
         <v>650</v>
       </c>
-      <c r="G19" s="79" t="s">
+      <c r="G19" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="56" t="s">
         <v>1897</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="82" t="s">
         <v>1856</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="90">
         <v>574</v>
       </c>
-      <c r="D20" s="75" t="s">
+      <c r="D20" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="86">
         <v>-28.8</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="77">
         <v>895</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="60" t="s">
         <v>1904</v>
       </c>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="83" t="s">
         <v>1876</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="90">
         <v>574</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="86">
         <v>-26.3</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="77">
         <v>556</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="56" t="s">
         <v>1898</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="82" t="s">
         <v>1860</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="90">
         <v>541</v>
       </c>
-      <c r="D22" s="75" t="s">
+      <c r="D22" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="86">
         <v>-33.1</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="77">
         <v>609</v>
       </c>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="60" t="s">
         <v>1910</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="83" t="s">
         <v>1874</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="90">
         <v>537</v>
       </c>
-      <c r="D23" s="75" t="s">
+      <c r="D23" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="86">
         <v>-16</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="77">
         <v>672</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="60" t="s">
         <v>1912</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>1881</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="90">
         <v>521</v>
       </c>
-      <c r="D24" s="75" t="s">
+      <c r="D24" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="86">
         <v>-15.9</v>
       </c>
-      <c r="F24" s="78">
+      <c r="F24" s="77">
         <v>680</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>1913</v>
       </c>
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="84" t="s">
         <v>1891</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="90">
         <v>519</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="86">
         <v>-17</v>
       </c>
-      <c r="F25" s="78">
+      <c r="F25" s="77">
         <v>888</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="60" t="s">
         <v>1916</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="83" t="s">
         <v>1882</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C26" s="90">
         <v>512</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <v>-11.5</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="77">
         <v>681</v>
       </c>
-      <c r="G26" s="79" t="s">
+      <c r="G26" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>1893</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="80" t="s">
         <v>1865</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="90">
         <v>503</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="79" t="s">
         <v>1963</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="86">
         <v>-32.4</v>
       </c>
-      <c r="F27" s="78">
+      <c r="F27" s="77">
         <v>927</v>
       </c>
-      <c r="G27" s="79" t="s">
+      <c r="G27" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>1872</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="90">
         <v>502</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="86">
         <v>-29.4</v>
       </c>
-      <c r="F28" s="78">
+      <c r="F28" s="77">
         <v>641</v>
       </c>
-      <c r="G28" s="79" t="s">
+      <c r="G28" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="56" t="s">
         <v>1907</v>
       </c>
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="82" t="s">
         <v>1861</v>
       </c>
-      <c r="C29" s="90">
+      <c r="C29" s="89">
         <v>498</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="86">
         <v>-26.1</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="77">
         <v>742</v>
       </c>
-      <c r="G29" s="79" t="s">
+      <c r="G29" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="60" t="s">
         <v>1909</v>
       </c>
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="83" t="s">
         <v>1879</v>
       </c>
-      <c r="C30" s="90">
+      <c r="C30" s="89">
         <v>498</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E30" s="87">
+      <c r="E30" s="86">
         <v>-19.100000000000001</v>
       </c>
-      <c r="F30" s="78">
+      <c r="F30" s="77">
         <v>679</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="60" t="s">
         <v>1900</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="83" t="s">
         <v>1873</v>
       </c>
-      <c r="C31" s="90">
+      <c r="C31" s="89">
         <v>493</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E31" s="87">
+      <c r="E31" s="86">
         <v>-26.1</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F31" s="77">
         <v>680</v>
       </c>
-      <c r="G31" s="79" t="s">
+      <c r="G31" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>1908</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B32" s="80" t="s">
         <v>1870</v>
       </c>
-      <c r="C32" s="90">
+      <c r="C32" s="89">
         <v>469</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E32" s="87">
+      <c r="E32" s="86">
         <v>-21.7</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="77">
         <v>737</v>
       </c>
-      <c r="G32" s="79" t="s">
+      <c r="G32" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="61" t="s">
+      <c r="A33" s="60" t="s">
         <v>1915</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="83" t="s">
         <v>1875</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="89">
         <v>460</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E33" s="87">
+      <c r="E33" s="86">
         <v>-13.7</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="77">
         <v>678</v>
       </c>
-      <c r="G33" s="79" t="s">
+      <c r="G33" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="60" t="s">
         <v>1917</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="83" t="s">
         <v>1878</v>
       </c>
-      <c r="C34" s="90">
+      <c r="C34" s="89">
         <v>449</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E34" s="87">
+      <c r="E34" s="86">
         <v>-11.7</v>
       </c>
-      <c r="F34" s="78">
+      <c r="F34" s="77">
         <v>565</v>
       </c>
-      <c r="G34" s="79" t="s">
+      <c r="G34" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="60" t="s">
         <v>1946</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="83" t="s">
         <v>1885</v>
       </c>
-      <c r="C35" s="90">
+      <c r="C35" s="89">
         <v>437</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E35" s="87">
+      <c r="E35" s="86">
         <v>-17</v>
       </c>
-      <c r="F35" s="78">
+      <c r="F35" s="77">
         <v>521</v>
       </c>
-      <c r="G35" s="79" t="s">
+      <c r="G35" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>1892</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>1864</v>
       </c>
-      <c r="C36" s="90">
+      <c r="C36" s="89">
         <v>423</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E36" s="87">
+      <c r="E36" s="86">
         <v>-32.4</v>
       </c>
-      <c r="F36" s="78">
+      <c r="F36" s="77">
         <v>634</v>
       </c>
-      <c r="G36" s="79" t="s">
+      <c r="G36" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>1895</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="80" t="s">
         <v>1866</v>
       </c>
-      <c r="C37" s="90">
+      <c r="C37" s="89">
         <v>400</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E37" s="87">
+      <c r="E37" s="86">
         <v>-32.299999999999997</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="77">
         <v>710</v>
       </c>
-      <c r="G37" s="79" t="s">
+      <c r="G37" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="60" t="s">
         <v>1914</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="83" t="s">
         <v>1877</v>
       </c>
-      <c r="C38" s="89">
+      <c r="C38" s="88">
         <v>368</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E38" s="87">
+      <c r="E38" s="86">
         <v>-12.4</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="77">
         <v>650</v>
       </c>
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="78" t="s">
         <v>1965</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="60" t="s">
         <v>1946</v>
       </c>
-      <c r="B39" s="84" t="s">
+      <c r="B39" s="83" t="s">
         <v>1890</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39" s="88">
         <v>323</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="74" t="s">
         <v>1961</v>
       </c>
-      <c r="E39" s="87">
+      <c r="E39" s="86">
         <v>-16.399999999999999</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="77">
         <v>562</v>
       </c>
-      <c r="G39" s="79" t="s">
+      <c r="G39" s="78" t="s">
         <v>1965</v>
       </c>
     </row>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7943D44-2994-41C7-A7FE-1F551B6541B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F6F14-1833-4236-841A-6B9E6DDEDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1982">
   <si>
     <t>undefined</t>
   </si>
@@ -6634,11 +6634,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昼温 -40.1</t>
+    <t>蒙古官网的夜温</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>昼温</t>
+    <t>新闻页提及的夜温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换站记录 -49.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7202,7 +7206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7332,6 +7336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7780,6 +7790,18 @@
     <xf numFmtId="181" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="61" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7842,18 +7864,6 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="61" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8216,15 +8226,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="104"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31805,7 +31815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31817,37 +31827,37 @@
     <col min="3" max="3" width="22.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="27" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="127" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="104" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>1975</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="128" t="s">
-        <v>1980</v>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="105" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="113" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="109"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="94" t="s">
         <v>1786</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>1787</v>
       </c>
-      <c r="F2" s="125"/>
+      <c r="F2" s="106"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="95">
@@ -31865,7 +31875,7 @@
       <c r="E3" s="99">
         <v>24467</v>
       </c>
-      <c r="F3" s="126"/>
+      <c r="F3" s="107"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="95">
@@ -31883,7 +31893,7 @@
       <c r="E4" s="99">
         <v>25234</v>
       </c>
-      <c r="F4" s="126"/>
+      <c r="F4" s="107"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95">
@@ -31901,7 +31911,7 @@
       <c r="E5" s="99">
         <v>28125</v>
       </c>
-      <c r="F5" s="126"/>
+      <c r="F5" s="107"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="95">
@@ -31919,7 +31929,7 @@
       <c r="E6" s="99">
         <v>36531</v>
       </c>
-      <c r="F6" s="126"/>
+      <c r="F6" s="107"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="95">
@@ -31937,7 +31947,7 @@
       <c r="E7" s="99">
         <v>36899</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="107"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="95">
@@ -31955,7 +31965,7 @@
       <c r="E8" s="99">
         <v>38721</v>
       </c>
-      <c r="F8" s="126"/>
+      <c r="F8" s="107"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="95">
@@ -31973,7 +31983,7 @@
       <c r="E9" s="99">
         <v>38722</v>
       </c>
-      <c r="F9" s="126"/>
+      <c r="F9" s="107"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="95">
@@ -31991,7 +32001,7 @@
       <c r="E10" s="99">
         <v>38723</v>
       </c>
-      <c r="F10" s="126"/>
+      <c r="F10" s="107"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
@@ -32009,7 +32019,7 @@
       <c r="E11" s="99">
         <v>40563</v>
       </c>
-      <c r="F11" s="126"/>
+      <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
@@ -32027,7 +32037,7 @@
       <c r="E12" s="99">
         <v>42387</v>
       </c>
-      <c r="F12" s="126"/>
+      <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
@@ -32045,9 +32055,7 @@
       <c r="E13" s="99">
         <v>42392</v>
       </c>
-      <c r="F13" s="126" t="s">
-        <v>1979</v>
-      </c>
+      <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
@@ -32057,15 +32065,15 @@
         <v>1970</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E14" s="99">
         <v>42394</v>
       </c>
-      <c r="F14" s="126"/>
+      <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
@@ -32078,12 +32086,12 @@
         <v>1868</v>
       </c>
       <c r="D15" s="98">
-        <v>-51.9</v>
+        <v>-50</v>
       </c>
       <c r="E15" s="99">
-        <v>42398</v>
-      </c>
-      <c r="F15" s="126"/>
+        <v>42394</v>
+      </c>
+      <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
@@ -32096,12 +32104,12 @@
         <v>1785</v>
       </c>
       <c r="D16" s="98">
-        <v>-55.3</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F16" s="126"/>
+        <v>-53</v>
+      </c>
+      <c r="E16" s="99">
+        <v>42395</v>
+      </c>
+      <c r="F16" s="107"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
@@ -32114,12 +32122,12 @@
         <v>1868</v>
       </c>
       <c r="D17" s="98">
-        <v>-52.8</v>
+        <v>-51.9</v>
       </c>
       <c r="E17" s="99">
-        <v>42399</v>
-      </c>
-      <c r="F17" s="126"/>
+        <v>42398</v>
+      </c>
+      <c r="F17" s="107"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
@@ -32129,15 +32137,15 @@
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-51.5</v>
-      </c>
-      <c r="E18" s="99">
-        <v>42400</v>
-      </c>
-      <c r="F18" s="126"/>
+        <v>-55.3</v>
+      </c>
+      <c r="E18" s="99" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F18" s="107"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="95">
@@ -32150,12 +32158,12 @@
         <v>1868</v>
       </c>
       <c r="D19" s="98">
-        <v>-50</v>
+        <v>-52.8</v>
       </c>
       <c r="E19" s="99">
-        <v>42404</v>
-      </c>
-      <c r="F19" s="126"/>
+        <v>42399</v>
+      </c>
+      <c r="F19" s="107"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="95">
@@ -32168,12 +32176,12 @@
         <v>1868</v>
       </c>
       <c r="D20" s="98">
-        <v>-52.3</v>
+        <v>-51.5</v>
       </c>
       <c r="E20" s="99">
-        <v>42405</v>
-      </c>
-      <c r="F20" s="126"/>
+        <v>42400</v>
+      </c>
+      <c r="F20" s="107"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="95">
@@ -32186,48 +32194,48 @@
         <v>1868</v>
       </c>
       <c r="D21" s="98">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="E21" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F21" s="126"/>
+        <v>42404</v>
+      </c>
+      <c r="F21" s="107"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="95">
         <v>2016</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D22" s="98">
-        <v>-54.7</v>
+        <v>-52.3</v>
       </c>
       <c r="E22" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F22" s="125"/>
+        <v>42405</v>
+      </c>
+      <c r="F22" s="107"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="95">
         <v>2016</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D23" s="98">
-        <v>-50.3</v>
+        <v>-52</v>
       </c>
       <c r="E23" s="99">
-        <v>42437</v>
-      </c>
-      <c r="F23" s="125"/>
+        <v>42406</v>
+      </c>
+      <c r="F23" s="107"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="95">
@@ -32240,12 +32248,12 @@
         <v>1790</v>
       </c>
       <c r="D24" s="98">
-        <v>-54</v>
+        <v>-54.7</v>
       </c>
       <c r="E24" s="99">
-        <v>42438</v>
-      </c>
-      <c r="F24" s="125"/>
+        <v>42412</v>
+      </c>
+      <c r="F24" s="106"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="95">
@@ -32258,34 +32266,34 @@
         <v>1790</v>
       </c>
       <c r="D25" s="98">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="E25" s="99">
-        <v>42439</v>
-      </c>
-      <c r="F25" s="125"/>
+        <v>42437</v>
+      </c>
+      <c r="F25" s="106"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D26" s="98">
-        <v>-45.4</v>
+        <v>-54</v>
       </c>
       <c r="E26" s="99">
-        <v>42763</v>
-      </c>
-      <c r="F26" s="125"/>
+        <v>42438</v>
+      </c>
+      <c r="F26" s="106"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
         <v>1788</v>
@@ -32294,30 +32302,30 @@
         <v>1790</v>
       </c>
       <c r="D27" s="98">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="E27" s="99">
-        <v>43123</v>
-      </c>
-      <c r="F27" s="125"/>
+        <v>42439</v>
+      </c>
+      <c r="F27" s="106"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1867</v>
+        <v>1791</v>
       </c>
       <c r="D28" s="98">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="E28" s="99">
-        <v>43123</v>
-      </c>
-      <c r="F28" s="125"/>
+        <v>42763</v>
+      </c>
+      <c r="F28" s="106"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="95">
@@ -32330,12 +32338,12 @@
         <v>1790</v>
       </c>
       <c r="D29" s="98">
-        <v>-53.2</v>
+        <v>-51.6</v>
       </c>
       <c r="E29" s="99">
-        <v>43124</v>
-      </c>
-      <c r="F29" s="125"/>
+        <v>43123</v>
+      </c>
+      <c r="F29" s="106"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="95">
@@ -32348,12 +32356,12 @@
         <v>1867</v>
       </c>
       <c r="D30" s="98">
-        <v>-51.7</v>
+        <v>-51.3</v>
       </c>
       <c r="E30" s="99">
-        <v>43124</v>
-      </c>
-      <c r="F30" s="125"/>
+        <v>43123</v>
+      </c>
+      <c r="F30" s="106"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95">
@@ -32366,12 +32374,12 @@
         <v>1790</v>
       </c>
       <c r="D31" s="98">
-        <v>-50.1</v>
+        <v>-53.2</v>
       </c>
       <c r="E31" s="99">
-        <v>43125</v>
-      </c>
-      <c r="F31" s="125"/>
+        <v>43124</v>
+      </c>
+      <c r="F31" s="106"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
@@ -32381,33 +32389,33 @@
         <v>1970</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D32" s="98">
-        <v>-50</v>
+        <v>-51.7</v>
       </c>
       <c r="E32" s="99">
-        <v>43125</v>
-      </c>
-      <c r="F32" s="125"/>
+        <v>43124</v>
+      </c>
+      <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
         <v>2018</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="D33" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E33" s="99" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F33" s="125"/>
+        <v>-50.7</v>
+      </c>
+      <c r="E33" s="99">
+        <v>43125</v>
+      </c>
+      <c r="F33" s="106"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
@@ -32417,15 +32425,15 @@
         <v>1788</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D34" s="98">
-        <v>-51.8</v>
+        <v>-50.1</v>
       </c>
       <c r="E34" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F34" s="125"/>
+        <v>43125</v>
+      </c>
+      <c r="F34" s="106"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
@@ -32435,179 +32443,187 @@
         <v>1970</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D35" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F35" s="125"/>
+        <v>-50.3</v>
+      </c>
+      <c r="E35" s="99">
+        <v>43125</v>
+      </c>
+      <c r="F35" s="106"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
         <v>2018</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D36" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E36" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F36" s="125"/>
+        <v>-49.9</v>
+      </c>
+      <c r="E36" s="99">
+        <v>43126</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
         <v>2018</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1972</v>
+        <v>1794</v>
       </c>
       <c r="D37" s="98">
         <v>-50</v>
       </c>
       <c r="E37" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F37" s="125"/>
+        <v>1978</v>
+      </c>
+      <c r="F37" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D38" s="98">
-        <v>-48.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E38" s="99">
-        <v>43828</v>
-      </c>
-      <c r="F38" s="125"/>
+        <v>43126</v>
+      </c>
+      <c r="F38" s="106" t="s">
+        <v>1981</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B39" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D39" s="98">
-        <v>-49.6</v>
+        <v>-51.8</v>
       </c>
       <c r="E39" s="99">
-        <v>44194</v>
-      </c>
-      <c r="F39" s="125"/>
+        <v>43127</v>
+      </c>
+      <c r="F39" s="106"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="D40" s="98">
-        <v>-47.2</v>
-      </c>
-      <c r="E40" s="99">
-        <v>44200</v>
-      </c>
-      <c r="F40" s="125"/>
+        <v>-50</v>
+      </c>
+      <c r="E40" s="99" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1785</v>
+        <v>1971</v>
       </c>
       <c r="D41" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="125"/>
+        <v>-50</v>
+      </c>
+      <c r="E41" s="99" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F41" s="106"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1867</v>
+        <v>1972</v>
       </c>
       <c r="D42" s="98">
         <v>-50</v>
       </c>
-      <c r="E42" s="99">
-        <v>44949</v>
-      </c>
-      <c r="F42" s="125"/>
+      <c r="E42" s="99" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1948</v>
+        <v>1792</v>
       </c>
       <c r="D43" s="98">
-        <v>-49.4</v>
+        <v>-48.4</v>
       </c>
       <c r="E43" s="99">
-        <v>45279</v>
-      </c>
-      <c r="F43" s="125"/>
+        <v>43828</v>
+      </c>
+      <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D44" s="100">
-        <v>-50</v>
+        <v>1784</v>
+      </c>
+      <c r="D44" s="98">
+        <v>-49.6</v>
       </c>
       <c r="E44" s="99">
-        <v>45280</v>
-      </c>
-      <c r="F44" s="125"/>
+        <v>44194</v>
+      </c>
+      <c r="F44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="96" t="s">
         <v>1788</v>
@@ -32616,16 +32632,16 @@
         <v>1784</v>
       </c>
       <c r="D45" s="98">
-        <v>-48.8</v>
+        <v>-47.2</v>
       </c>
       <c r="E45" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F45" s="125"/>
+        <v>44200</v>
+      </c>
+      <c r="F45" s="106"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="102">
-        <v>2025</v>
+      <c r="A46" s="95">
+        <v>2022</v>
       </c>
       <c r="B46" s="96" t="s">
         <v>1788</v>
@@ -32634,102 +32650,190 @@
         <v>1785</v>
       </c>
       <c r="D46" s="98">
-        <v>-45.6</v>
-      </c>
-      <c r="E46" s="99">
-        <v>45659</v>
-      </c>
-      <c r="F46" s="125"/>
+        <v>-46.8</v>
+      </c>
+      <c r="E46" s="99"/>
+      <c r="F46" s="106"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="102">
-        <v>2025</v>
+      <c r="A47" s="95">
+        <v>2023</v>
       </c>
       <c r="B47" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C47" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D47" s="98">
+        <v>-50</v>
+      </c>
+      <c r="E47" s="99">
+        <v>44949</v>
+      </c>
+      <c r="F47" s="106"/>
+    </row>
+    <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B48" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C48" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D48" s="98">
+        <v>-49.4</v>
+      </c>
+      <c r="E48" s="99">
+        <v>45279</v>
+      </c>
+      <c r="F48" s="106"/>
+    </row>
+    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B49" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C49" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D49" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E49" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F49" s="106"/>
+    </row>
+    <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="95">
+        <v>2024</v>
+      </c>
+      <c r="B50" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C47" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D47" s="98">
-        <v>-45.6</v>
-      </c>
-      <c r="E47" s="99">
-        <v>45673</v>
-      </c>
-      <c r="F47" s="125"/>
-    </row>
-    <row r="48" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="102">
-        <v>2025</v>
-      </c>
-      <c r="B48" s="96" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C48" s="97" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D48" s="98">
-        <v>-44.2</v>
-      </c>
-      <c r="E48" s="101" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F48" s="125"/>
-    </row>
-    <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C49" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D49" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E49" s="103">
-        <v>46039</v>
-      </c>
-      <c r="F49" s="125"/>
-    </row>
-    <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B50" s="96" t="s">
-        <v>1970</v>
-      </c>
       <c r="C50" s="97" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D50" s="98">
-        <v>-52</v>
-      </c>
-      <c r="E50" s="103">
-        <v>46040</v>
-      </c>
-      <c r="F50" s="125"/>
+        <v>-48.8</v>
+      </c>
+      <c r="E50" s="99">
+        <v>45312</v>
+      </c>
+      <c r="F50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B51" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C51" s="97" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D51" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E51" s="99">
+        <v>45659</v>
+      </c>
+      <c r="F51" s="106"/>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B52" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C52" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D52" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E52" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F52" s="106"/>
+    </row>
+    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B53" s="96" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D53" s="98">
+        <v>-44.2</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F53" s="106"/>
+    </row>
+    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="102">
         <v>2026</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B54" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C54" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D54" s="98">
+        <v>-51.2</v>
+      </c>
+      <c r="E54" s="103">
+        <v>46039</v>
+      </c>
+      <c r="F54" s="106"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B55" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C55" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D55" s="98">
+        <v>-52</v>
+      </c>
+      <c r="E55" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F55" s="106"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B56" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C56" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D56" s="98">
         <v>-51.1</v>
       </c>
-      <c r="E51" s="103">
+      <c r="E56" s="103">
         <v>46040</v>
       </c>
-      <c r="F51" s="125"/>
+      <c r="F56" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32737,7 +32841,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D51">
+  <conditionalFormatting sqref="D3:D56">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -32771,12 +32875,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
@@ -33077,29 +33181,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="120" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="117"/>
-      <c r="C2" s="112" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="116" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
+      <c r="D2" s="117"/>
+      <c r="E2" s="118" t="s">
         <v>1943</v>
       </c>
-      <c r="F2" s="115"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="52" t="s">
         <v>1945</v>
       </c>
@@ -34186,32 +34290,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="122" t="s">
         <v>1968</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="124" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="120"/>
+      <c r="B2" s="124"/>
       <c r="C2" s="85" t="s">
         <v>1964</v>
       </c>
-      <c r="D2" s="121" t="s">
+      <c r="D2" s="125" t="s">
         <v>1969</v>
       </c>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="127" t="s">
         <v>1967</v>
       </c>
-      <c r="G2" s="124"/>
+      <c r="G2" s="128"/>
     </row>
     <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="58" t="s">

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F6F14-1833-4236-841A-6B9E6DDEDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78097F8A-86CC-4E65-82E3-5C842DB6341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -6623,10 +6623,6 @@
   </si>
   <si>
     <t>库苏古尔省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-01-30(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -31815,10 +31811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -32119,13 +32115,13 @@
         <v>1970</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D17" s="98">
-        <v>-51.9</v>
+        <v>-53.9</v>
       </c>
       <c r="E17" s="99">
-        <v>42398</v>
+        <v>42396</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32137,13 +32133,13 @@
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D18" s="98">
-        <v>-55.3</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>1977</v>
+        <v>-51.9</v>
+      </c>
+      <c r="E18" s="99">
+        <v>42398</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32155,13 +32151,13 @@
         <v>1970</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-52.8</v>
+        <v>-55.3</v>
       </c>
       <c r="E19" s="99">
-        <v>42399</v>
+        <v>42397</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32176,10 +32172,10 @@
         <v>1868</v>
       </c>
       <c r="D20" s="98">
-        <v>-51.5</v>
+        <v>-52.8</v>
       </c>
       <c r="E20" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32194,10 +32190,10 @@
         <v>1868</v>
       </c>
       <c r="D21" s="98">
-        <v>-50</v>
+        <v>-51.5</v>
       </c>
       <c r="E21" s="99">
-        <v>42404</v>
+        <v>42400</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32212,10 +32208,10 @@
         <v>1868</v>
       </c>
       <c r="D22" s="98">
-        <v>-52.3</v>
+        <v>-50</v>
       </c>
       <c r="E22" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32230,10 +32226,10 @@
         <v>1868</v>
       </c>
       <c r="D23" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E23" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32242,18 +32238,18 @@
         <v>2016</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D24" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E24" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F24" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F24" s="107"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="95">
@@ -32266,10 +32262,10 @@
         <v>1790</v>
       </c>
       <c r="D25" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E25" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F25" s="106"/>
     </row>
@@ -32284,10 +32280,10 @@
         <v>1790</v>
       </c>
       <c r="D26" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E26" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F26" s="106"/>
     </row>
@@ -32302,46 +32298,46 @@
         <v>1790</v>
       </c>
       <c r="D27" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E27" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F27" s="106"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D28" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E28" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F28" s="106"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D29" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E29" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F29" s="106"/>
     </row>
@@ -32350,13 +32346,13 @@
         <v>2018</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D30" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E30" s="99">
         <v>43123</v>
@@ -32368,16 +32364,16 @@
         <v>2018</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D31" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E31" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F31" s="106"/>
     </row>
@@ -32386,13 +32382,13 @@
         <v>2018</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D32" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E32" s="99">
         <v>43124</v>
@@ -32410,10 +32406,10 @@
         <v>1867</v>
       </c>
       <c r="D33" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E33" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F33" s="106"/>
     </row>
@@ -32422,13 +32418,13 @@
         <v>2018</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D34" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E34" s="99">
         <v>43125</v>
@@ -32440,13 +32436,13 @@
         <v>2018</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1869</v>
+        <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E35" s="99">
         <v>43125</v>
@@ -32458,20 +32454,18 @@
         <v>2018</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D36" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E36" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F36" s="106" t="s">
-        <v>1979</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F36" s="106"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32484,13 +32478,13 @@
         <v>1794</v>
       </c>
       <c r="D37" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E37" s="99" t="s">
+        <v>-49.9</v>
+      </c>
+      <c r="E37" s="99">
+        <v>43126</v>
+      </c>
+      <c r="F37" s="106" t="s">
         <v>1978</v>
-      </c>
-      <c r="F37" s="106" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32498,19 +32492,19 @@
         <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D38" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E38" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E38" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F38" s="106" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32518,34 +32512,36 @@
         <v>2018</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D39" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E39" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F39" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F39" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
         <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D40" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E40" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E40" s="99">
+        <v>43127</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32557,7 +32553,7 @@
         <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D41" s="98">
         <v>-50</v>
@@ -32575,7 +32571,7 @@
         <v>1970</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D42" s="98">
         <v>-50</v>
@@ -32587,43 +32583,43 @@
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D43" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E43" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E43" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B44" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D44" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E44" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B45" s="96" t="s">
         <v>1788</v>
@@ -32632,45 +32628,45 @@
         <v>1784</v>
       </c>
       <c r="D45" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E45" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F45" s="106"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B46" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D46" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E46" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E46" s="99">
+        <v>44200</v>
+      </c>
       <c r="F46" s="106"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D47" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E47" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E47" s="99"/>
       <c r="F47" s="106"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32678,16 +32674,16 @@
         <v>2023</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D48" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E48" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F48" s="106"/>
     </row>
@@ -32701,47 +32697,47 @@
       <c r="C49" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D49" s="100">
-        <v>-50</v>
+      <c r="D49" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E49" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F49" s="106"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B50" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C50" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D50" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E50" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F50" s="106"/>
+    </row>
+    <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="95">
         <v>2024</v>
-      </c>
-      <c r="B50" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C50" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D50" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E50" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F50" s="106"/>
-    </row>
-    <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="102">
-        <v>2025</v>
       </c>
       <c r="B51" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D51" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E51" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F51" s="106"/>
     </row>
@@ -32753,49 +32749,49 @@
         <v>1788</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D52" s="98">
         <v>-45.6</v>
       </c>
       <c r="E52" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F52" s="106"/>
     </row>
-    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="102">
         <v>2025</v>
       </c>
       <c r="B53" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D53" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E53" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F53" s="106"/>
+    </row>
+    <row r="54" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C53" s="97" t="s">
+      <c r="C54" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D53" s="98">
+      <c r="D54" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E53" s="101" t="s">
+      <c r="E54" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F53" s="106"/>
-    </row>
-    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B54" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C54" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D54" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E54" s="103">
-        <v>46039</v>
       </c>
       <c r="F54" s="106"/>
     </row>
@@ -32810,10 +32806,10 @@
         <v>1794</v>
       </c>
       <c r="D55" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E55" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F55" s="106"/>
     </row>
@@ -32825,15 +32821,33 @@
         <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D56" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E56" s="103">
         <v>46040</v>
       </c>
       <c r="F56" s="106"/>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C57" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D57" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E57" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F57" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32841,7 +32855,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D56">
+  <conditionalFormatting sqref="D3:D57">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78097F8A-86CC-4E65-82E3-5C842DB6341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F12DE-76C2-4613-AF7F-8044FFD0F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -31811,10 +31811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -32133,13 +32133,13 @@
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-51.9</v>
+        <v>-55.3</v>
       </c>
       <c r="E18" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32154,10 +32154,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-55.3</v>
+        <v>-54.4</v>
       </c>
       <c r="E19" s="99">
-        <v>42397</v>
+        <v>42398</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32172,10 +32172,10 @@
         <v>1868</v>
       </c>
       <c r="D20" s="98">
-        <v>-52.8</v>
+        <v>-51.9</v>
       </c>
       <c r="E20" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32184,16 +32184,16 @@
         <v>2016</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1868</v>
+        <v>1794</v>
       </c>
       <c r="D21" s="98">
-        <v>-51.5</v>
+        <v>-50.2</v>
       </c>
       <c r="E21" s="99">
-        <v>42400</v>
+        <v>42398</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32205,13 +32205,13 @@
         <v>1970</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D22" s="98">
-        <v>-50</v>
+        <v>-55</v>
       </c>
       <c r="E22" s="99">
-        <v>42404</v>
+        <v>42399</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32226,10 +32226,10 @@
         <v>1868</v>
       </c>
       <c r="D23" s="98">
-        <v>-52.3</v>
+        <v>-52.8</v>
       </c>
       <c r="E23" s="99">
-        <v>42405</v>
+        <v>42399</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32238,16 +32238,16 @@
         <v>2016</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1868</v>
+        <v>1794</v>
       </c>
       <c r="D24" s="98">
-        <v>-52</v>
+        <v>-50.7</v>
       </c>
       <c r="E24" s="99">
-        <v>42406</v>
+        <v>42399</v>
       </c>
       <c r="F24" s="107"/>
     </row>
@@ -32256,94 +32256,94 @@
         <v>2016</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D25" s="98">
-        <v>-54.7</v>
+        <v>-51.6</v>
       </c>
       <c r="E25" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F25" s="106"/>
+        <v>42400</v>
+      </c>
+      <c r="F25" s="107"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="95">
         <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D26" s="98">
-        <v>-50.3</v>
+        <v>-51.5</v>
       </c>
       <c r="E26" s="99">
-        <v>42437</v>
-      </c>
-      <c r="F26" s="106"/>
+        <v>42400</v>
+      </c>
+      <c r="F26" s="107"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="95">
         <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="98">
-        <v>-54</v>
+        <v>-50</v>
       </c>
       <c r="E27" s="99">
-        <v>42438</v>
-      </c>
-      <c r="F27" s="106"/>
+        <v>42404</v>
+      </c>
+      <c r="F27" s="107"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="95">
         <v>2016</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D28" s="98">
-        <v>-53</v>
+        <v>-52.3</v>
       </c>
       <c r="E28" s="99">
-        <v>42439</v>
-      </c>
-      <c r="F28" s="106"/>
+        <v>42405</v>
+      </c>
+      <c r="F28" s="107"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>1789</v>
+        <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1791</v>
+        <v>1868</v>
       </c>
       <c r="D29" s="98">
-        <v>-45.4</v>
+        <v>-52</v>
       </c>
       <c r="E29" s="99">
-        <v>42763</v>
-      </c>
-      <c r="F29" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F29" s="107"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B30" s="96" t="s">
         <v>1788</v>
@@ -32352,34 +32352,34 @@
         <v>1790</v>
       </c>
       <c r="D30" s="98">
-        <v>-51.6</v>
+        <v>-54.7</v>
       </c>
       <c r="E30" s="99">
-        <v>43123</v>
+        <v>42412</v>
       </c>
       <c r="F30" s="106"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D31" s="98">
-        <v>-51.3</v>
+        <v>-50.3</v>
       </c>
       <c r="E31" s="99">
-        <v>43123</v>
+        <v>42437</v>
       </c>
       <c r="F31" s="106"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B32" s="96" t="s">
         <v>1788</v>
@@ -32388,46 +32388,46 @@
         <v>1790</v>
       </c>
       <c r="D32" s="98">
-        <v>-53.2</v>
+        <v>-54</v>
       </c>
       <c r="E32" s="99">
-        <v>43124</v>
+        <v>42438</v>
       </c>
       <c r="F32" s="106"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D33" s="98">
-        <v>-51.7</v>
+        <v>-53</v>
       </c>
       <c r="E33" s="99">
-        <v>43124</v>
+        <v>42439</v>
       </c>
       <c r="F33" s="106"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1867</v>
+        <v>1791</v>
       </c>
       <c r="D34" s="98">
-        <v>-50.7</v>
+        <v>-45.4</v>
       </c>
       <c r="E34" s="99">
-        <v>43125</v>
+        <v>42763</v>
       </c>
       <c r="F34" s="106"/>
     </row>
@@ -32442,10 +32442,10 @@
         <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-50.1</v>
+        <v>-51.6</v>
       </c>
       <c r="E35" s="99">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="F35" s="106"/>
     </row>
@@ -32457,13 +32457,13 @@
         <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D36" s="98">
-        <v>-50.3</v>
+        <v>-51.3</v>
       </c>
       <c r="E36" s="99">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="F36" s="106"/>
     </row>
@@ -32472,40 +32472,36 @@
         <v>2018</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="D37" s="98">
-        <v>-49.9</v>
+        <v>-53.2</v>
       </c>
       <c r="E37" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F37" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43124</v>
+      </c>
+      <c r="F37" s="106"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
         <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="D38" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E38" s="99" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F38" s="106" t="s">
-        <v>1979</v>
-      </c>
+        <v>-51.7</v>
+      </c>
+      <c r="E38" s="99">
+        <v>43124</v>
+      </c>
+      <c r="F38" s="106"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
@@ -32518,14 +32514,12 @@
         <v>1867</v>
       </c>
       <c r="D39" s="98">
-        <v>-50.2</v>
+        <v>-50.7</v>
       </c>
       <c r="E39" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F39" s="106" t="s">
-        <v>1980</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F39" s="106"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
@@ -32535,13 +32529,13 @@
         <v>1788</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-51.8</v>
+        <v>-50.1</v>
       </c>
       <c r="E40" s="99">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32553,13 +32547,13 @@
         <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D41" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E41" s="99" t="s">
-        <v>1973</v>
+        <v>-50.3</v>
+      </c>
+      <c r="E41" s="99">
+        <v>43125</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32568,164 +32562,172 @@
         <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D42" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F42" s="106"/>
+        <v>-49.9</v>
+      </c>
+      <c r="E42" s="99">
+        <v>43126</v>
+      </c>
+      <c r="F42" s="106" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
         <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1972</v>
+        <v>1794</v>
       </c>
       <c r="D43" s="98">
         <v>-50</v>
       </c>
       <c r="E43" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F43" s="106"/>
+        <v>1977</v>
+      </c>
+      <c r="F43" s="106" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D44" s="98">
-        <v>-48.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E44" s="99">
-        <v>43828</v>
-      </c>
-      <c r="F44" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F44" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D45" s="98">
-        <v>-49.6</v>
+        <v>-51.8</v>
       </c>
       <c r="E45" s="99">
-        <v>44194</v>
+        <v>43127</v>
       </c>
       <c r="F45" s="106"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="D46" s="98">
-        <v>-47.2</v>
-      </c>
-      <c r="E46" s="99">
-        <v>44200</v>
+        <v>-50</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F46" s="106"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1785</v>
+        <v>1971</v>
       </c>
       <c r="D47" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E47" s="99"/>
+        <v>-50</v>
+      </c>
+      <c r="E47" s="99" t="s">
+        <v>1973</v>
+      </c>
       <c r="F47" s="106"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="95">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1867</v>
+        <v>1972</v>
       </c>
       <c r="D48" s="98">
         <v>-50</v>
       </c>
-      <c r="E48" s="99">
-        <v>44949</v>
+      <c r="E48" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F48" s="106"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1948</v>
+        <v>1792</v>
       </c>
       <c r="D49" s="98">
-        <v>-49.4</v>
+        <v>-48.4</v>
       </c>
       <c r="E49" s="99">
-        <v>45279</v>
+        <v>43828</v>
       </c>
       <c r="F49" s="106"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D50" s="100">
-        <v>-50</v>
+        <v>1784</v>
+      </c>
+      <c r="D50" s="98">
+        <v>-49.6</v>
       </c>
       <c r="E50" s="99">
-        <v>45280</v>
+        <v>44194</v>
       </c>
       <c r="F50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B51" s="96" t="s">
         <v>1788</v>
@@ -32734,16 +32736,16 @@
         <v>1784</v>
       </c>
       <c r="D51" s="98">
-        <v>-48.8</v>
+        <v>-47.2</v>
       </c>
       <c r="E51" s="99">
-        <v>45312</v>
+        <v>44200</v>
       </c>
       <c r="F51" s="106"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="102">
-        <v>2025</v>
+      <c r="A52" s="95">
+        <v>2022</v>
       </c>
       <c r="B52" s="96" t="s">
         <v>1788</v>
@@ -32752,102 +32754,190 @@
         <v>1785</v>
       </c>
       <c r="D52" s="98">
-        <v>-45.6</v>
-      </c>
-      <c r="E52" s="99">
-        <v>45659</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E52" s="99"/>
       <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="102">
-        <v>2025</v>
+      <c r="A53" s="95">
+        <v>2023</v>
       </c>
       <c r="B53" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C53" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D53" s="98">
+        <v>-50</v>
+      </c>
+      <c r="E53" s="99">
+        <v>44949</v>
+      </c>
+      <c r="F53" s="106"/>
+    </row>
+    <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B54" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C54" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D54" s="98">
+        <v>-49.4</v>
+      </c>
+      <c r="E54" s="99">
+        <v>45279</v>
+      </c>
+      <c r="F54" s="106"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B55" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C55" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D55" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E55" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F55" s="106"/>
+    </row>
+    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="95">
+        <v>2024</v>
+      </c>
+      <c r="B56" s="96" t="s">
         <v>1788</v>
       </c>
-      <c r="C53" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D53" s="98">
-        <v>-45.6</v>
-      </c>
-      <c r="E53" s="99">
-        <v>45673</v>
-      </c>
-      <c r="F53" s="106"/>
-    </row>
-    <row r="54" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="102">
-        <v>2025</v>
-      </c>
-      <c r="B54" s="96" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C54" s="97" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D54" s="98">
-        <v>-44.2</v>
-      </c>
-      <c r="E54" s="101" t="s">
-        <v>1974</v>
-      </c>
-      <c r="F54" s="106"/>
-    </row>
-    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B55" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C55" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D55" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E55" s="103">
-        <v>46039</v>
-      </c>
-      <c r="F55" s="106"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B56" s="96" t="s">
-        <v>1970</v>
-      </c>
       <c r="C56" s="97" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D56" s="98">
-        <v>-52</v>
-      </c>
-      <c r="E56" s="103">
-        <v>46040</v>
+        <v>-48.8</v>
+      </c>
+      <c r="E56" s="99">
+        <v>45312</v>
       </c>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C57" s="97" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D57" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E57" s="99">
+        <v>45659</v>
+      </c>
+      <c r="F57" s="106"/>
+    </row>
+    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D58" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E58" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F58" s="106"/>
+    </row>
+    <row r="59" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="96" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D59" s="98">
+        <v>-44.2</v>
+      </c>
+      <c r="E59" s="101" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F59" s="106"/>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="102">
         <v>2026</v>
       </c>
-      <c r="B57" s="96" t="s">
+      <c r="B60" s="96" t="s">
         <v>1970</v>
       </c>
-      <c r="C57" s="97" t="s">
+      <c r="C60" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D60" s="98">
+        <v>-51.2</v>
+      </c>
+      <c r="E60" s="103">
+        <v>46039</v>
+      </c>
+      <c r="F60" s="106"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D61" s="98">
+        <v>-52</v>
+      </c>
+      <c r="E61" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F61" s="106"/>
+    </row>
+    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B62" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C62" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D57" s="98">
+      <c r="D62" s="98">
         <v>-51.1</v>
       </c>
-      <c r="E57" s="103">
+      <c r="E62" s="103">
         <v>46040</v>
       </c>
-      <c r="F57" s="106"/>
+      <c r="F62" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32855,7 +32945,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D57">
+  <conditionalFormatting sqref="D3:D62">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824F12DE-76C2-4613-AF7F-8044FFD0F11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC2A50-0A7C-40D3-8138-95ADB4B18C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -31811,7 +31811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -32295,13 +32295,13 @@
         <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D27" s="98">
-        <v>-50</v>
+        <v>-50.5</v>
       </c>
       <c r="E27" s="99">
-        <v>42404</v>
+        <v>42401</v>
       </c>
       <c r="F27" s="107"/>
     </row>
@@ -32316,10 +32316,10 @@
         <v>1868</v>
       </c>
       <c r="D28" s="98">
-        <v>-52.3</v>
+        <v>-50</v>
       </c>
       <c r="E28" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F28" s="107"/>
     </row>
@@ -32334,10 +32334,10 @@
         <v>1868</v>
       </c>
       <c r="D29" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E29" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32346,18 +32346,18 @@
         <v>2016</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E30" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F30" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F30" s="107"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95">
@@ -32370,10 +32370,10 @@
         <v>1790</v>
       </c>
       <c r="D31" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E31" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F31" s="106"/>
     </row>
@@ -32388,10 +32388,10 @@
         <v>1790</v>
       </c>
       <c r="D32" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E32" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F32" s="106"/>
     </row>
@@ -32406,46 +32406,46 @@
         <v>1790</v>
       </c>
       <c r="D33" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E33" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F33" s="106"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D34" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E34" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F34" s="106"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D35" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E35" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F35" s="106"/>
     </row>
@@ -32454,13 +32454,13 @@
         <v>2018</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D36" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E36" s="99">
         <v>43123</v>
@@ -32472,16 +32472,16 @@
         <v>2018</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D37" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E37" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F37" s="106"/>
     </row>
@@ -32490,13 +32490,13 @@
         <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D38" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E38" s="99">
         <v>43124</v>
@@ -32514,10 +32514,10 @@
         <v>1867</v>
       </c>
       <c r="D39" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E39" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F39" s="106"/>
     </row>
@@ -32526,13 +32526,13 @@
         <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D40" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E40" s="99">
         <v>43125</v>
@@ -32544,13 +32544,13 @@
         <v>2018</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1869</v>
+        <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E41" s="99">
         <v>43125</v>
@@ -32562,20 +32562,18 @@
         <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D42" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E42" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F42" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
@@ -32588,13 +32586,13 @@
         <v>1794</v>
       </c>
       <c r="D43" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E43" s="99">
+        <v>43126</v>
       </c>
       <c r="F43" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32602,19 +32600,19 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D44" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E44" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E44" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32622,34 +32620,36 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D45" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E45" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F45" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F45" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D46" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E46" s="99">
+        <v>43127</v>
       </c>
       <c r="F46" s="106"/>
     </row>
@@ -32661,7 +32661,7 @@
         <v>1970</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D47" s="98">
         <v>-50</v>
@@ -32679,7 +32679,7 @@
         <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D48" s="98">
         <v>-50</v>
@@ -32691,43 +32691,43 @@
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D49" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E49" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E49" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F49" s="106"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B50" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D50" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E50" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B51" s="96" t="s">
         <v>1788</v>
@@ -32736,45 +32736,45 @@
         <v>1784</v>
       </c>
       <c r="D51" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E51" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F51" s="106"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B52" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D52" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E52" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E52" s="99">
+        <v>44200</v>
+      </c>
       <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D53" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E53" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E53" s="99"/>
       <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32782,16 +32782,16 @@
         <v>2023</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D54" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E54" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F54" s="106"/>
     </row>
@@ -32805,47 +32805,47 @@
       <c r="C55" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D55" s="100">
-        <v>-50</v>
+      <c r="D55" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E55" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F55" s="106"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B56" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C56" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D56" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E56" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F56" s="106"/>
+    </row>
+    <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="95">
         <v>2024</v>
-      </c>
-      <c r="B56" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D56" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E56" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F56" s="106"/>
-    </row>
-    <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="102">
-        <v>2025</v>
       </c>
       <c r="B57" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D57" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E57" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F57" s="106"/>
     </row>
@@ -32857,49 +32857,49 @@
         <v>1788</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D58" s="98">
         <v>-45.6</v>
       </c>
       <c r="E58" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F58" s="106"/>
     </row>
-    <row r="59" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="102">
         <v>2025</v>
       </c>
       <c r="B59" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D59" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E59" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F59" s="106"/>
+    </row>
+    <row r="60" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C59" s="97" t="s">
+      <c r="C60" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D59" s="98">
+      <c r="D60" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E59" s="101" t="s">
+      <c r="E60" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F59" s="106"/>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B60" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D60" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E60" s="103">
-        <v>46039</v>
       </c>
       <c r="F60" s="106"/>
     </row>
@@ -32914,10 +32914,10 @@
         <v>1794</v>
       </c>
       <c r="D61" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E61" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F61" s="106"/>
     </row>
@@ -32929,15 +32929,33 @@
         <v>1970</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D62" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E62" s="103">
         <v>46040</v>
       </c>
       <c r="F62" s="106"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D63" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E63" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F63" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32945,7 +32963,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D62">
+  <conditionalFormatting sqref="D3:D63">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCC2A50-0A7C-40D3-8138-95ADB4B18C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72650F5C-CD36-4CD5-A28B-CDBCFB76CA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -31811,7 +31811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -32001,37 +32001,37 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D11" s="98">
         <v>-50.2</v>
       </c>
       <c r="E11" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D12" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E12" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F12" s="107"/>
     </row>
@@ -32046,10 +32046,10 @@
         <v>1785</v>
       </c>
       <c r="D13" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E13" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F13" s="107"/>
     </row>
@@ -32064,10 +32064,10 @@
         <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E14" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F14" s="107"/>
     </row>
@@ -32079,10 +32079,10 @@
         <v>1970</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D15" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E15" s="99">
         <v>42394</v>
@@ -32097,13 +32097,13 @@
         <v>1970</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D16" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E16" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F16" s="107"/>
     </row>
@@ -32118,10 +32118,10 @@
         <v>1785</v>
       </c>
       <c r="D17" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E17" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32136,10 +32136,10 @@
         <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E18" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32154,10 +32154,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E19" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32169,10 +32169,10 @@
         <v>1970</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E20" s="99">
         <v>42398</v>
@@ -32184,13 +32184,13 @@
         <v>2016</v>
       </c>
       <c r="B21" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D21" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E21" s="99">
         <v>42398</v>
@@ -32202,16 +32202,16 @@
         <v>2016</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D22" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E22" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32223,10 +32223,10 @@
         <v>1970</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D23" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E23" s="99">
         <v>42399</v>
@@ -32238,13 +32238,13 @@
         <v>2016</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D24" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E24" s="99">
         <v>42399</v>
@@ -32256,16 +32256,16 @@
         <v>2016</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D25" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E25" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F25" s="107"/>
     </row>
@@ -32277,10 +32277,10 @@
         <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D26" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E26" s="99">
         <v>42400</v>
@@ -32295,13 +32295,13 @@
         <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E27" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F27" s="107"/>
     </row>
@@ -32313,13 +32313,13 @@
         <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D28" s="98">
-        <v>-50</v>
+        <v>-50.5</v>
       </c>
       <c r="E28" s="99">
-        <v>42404</v>
+        <v>42401</v>
       </c>
       <c r="F28" s="107"/>
     </row>
@@ -32334,10 +32334,10 @@
         <v>1868</v>
       </c>
       <c r="D29" s="98">
-        <v>-52.3</v>
+        <v>-50</v>
       </c>
       <c r="E29" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32352,10 +32352,10 @@
         <v>1868</v>
       </c>
       <c r="D30" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E30" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32364,18 +32364,18 @@
         <v>2016</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D31" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E31" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F31" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
@@ -32388,10 +32388,10 @@
         <v>1790</v>
       </c>
       <c r="D32" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E32" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F32" s="106"/>
     </row>
@@ -32406,10 +32406,10 @@
         <v>1790</v>
       </c>
       <c r="D33" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E33" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F33" s="106"/>
     </row>
@@ -32424,46 +32424,46 @@
         <v>1790</v>
       </c>
       <c r="D34" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E34" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F34" s="106"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E35" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F35" s="106"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D36" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E36" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F36" s="106"/>
     </row>
@@ -32472,13 +32472,13 @@
         <v>2018</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D37" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E37" s="99">
         <v>43123</v>
@@ -32490,16 +32490,16 @@
         <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D38" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E38" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F38" s="106"/>
     </row>
@@ -32508,13 +32508,13 @@
         <v>2018</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D39" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E39" s="99">
         <v>43124</v>
@@ -32532,10 +32532,10 @@
         <v>1867</v>
       </c>
       <c r="D40" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E40" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32544,13 +32544,13 @@
         <v>2018</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D41" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E41" s="99">
         <v>43125</v>
@@ -32562,13 +32562,13 @@
         <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1869</v>
+        <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E42" s="99">
         <v>43125</v>
@@ -32580,20 +32580,18 @@
         <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D43" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E43" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F43" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
@@ -32606,13 +32604,13 @@
         <v>1794</v>
       </c>
       <c r="D44" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E44" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E44" s="99">
+        <v>43126</v>
       </c>
       <c r="F44" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32620,19 +32618,19 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D45" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E45" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E45" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F45" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32640,34 +32638,36 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D46" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E46" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F46" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F46" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D47" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E47" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E47" s="99">
+        <v>43127</v>
       </c>
       <c r="F47" s="106"/>
     </row>
@@ -32679,7 +32679,7 @@
         <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D48" s="98">
         <v>-50</v>
@@ -32697,7 +32697,7 @@
         <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D49" s="98">
         <v>-50</v>
@@ -32709,43 +32709,43 @@
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D50" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E50" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E50" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B51" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D51" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E51" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F51" s="106"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B52" s="96" t="s">
         <v>1788</v>
@@ -32754,45 +32754,45 @@
         <v>1784</v>
       </c>
       <c r="D52" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E52" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B53" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D53" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E53" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E53" s="99">
+        <v>44200</v>
+      </c>
       <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D54" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E54" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E54" s="99"/>
       <c r="F54" s="106"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32800,16 +32800,16 @@
         <v>2023</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D55" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E55" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F55" s="106"/>
     </row>
@@ -32823,47 +32823,47 @@
       <c r="C56" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D56" s="100">
-        <v>-50</v>
+      <c r="D56" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E56" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B57" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C57" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D57" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E57" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F57" s="106"/>
+    </row>
+    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="95">
         <v>2024</v>
-      </c>
-      <c r="B57" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C57" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D57" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E57" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F57" s="106"/>
-    </row>
-    <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="102">
-        <v>2025</v>
       </c>
       <c r="B58" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D58" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E58" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F58" s="106"/>
     </row>
@@ -32875,49 +32875,49 @@
         <v>1788</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D59" s="98">
         <v>-45.6</v>
       </c>
       <c r="E59" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F59" s="106"/>
     </row>
-    <row r="60" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="102">
         <v>2025</v>
       </c>
       <c r="B60" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D60" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E60" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F60" s="106"/>
+    </row>
+    <row r="61" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C60" s="97" t="s">
+      <c r="C61" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D60" s="98">
+      <c r="D61" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E60" s="101" t="s">
+      <c r="E61" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F60" s="106"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C61" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D61" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E61" s="103">
-        <v>46039</v>
       </c>
       <c r="F61" s="106"/>
     </row>
@@ -32932,10 +32932,10 @@
         <v>1794</v>
       </c>
       <c r="D62" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E62" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F62" s="106"/>
     </row>
@@ -32947,15 +32947,33 @@
         <v>1970</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D63" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E63" s="103">
         <v>46040</v>
       </c>
       <c r="F63" s="106"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B64" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C64" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D64" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E64" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F64" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32963,7 +32981,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D63">
+  <conditionalFormatting sqref="D3:D64">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72650F5C-CD36-4CD5-A28B-CDBCFB76CA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D06894B-B3B1-4598-9BDF-97E6CF5DCE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1981">
   <si>
     <t>undefined</t>
   </si>
@@ -31811,7 +31811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -32331,13 +32331,13 @@
         <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D29" s="98">
-        <v>-50</v>
+        <v>-50.2</v>
       </c>
       <c r="E29" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32352,10 +32352,10 @@
         <v>1868</v>
       </c>
       <c r="D30" s="98">
-        <v>-52.3</v>
+        <v>-50</v>
       </c>
       <c r="E30" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32370,10 +32370,10 @@
         <v>1868</v>
       </c>
       <c r="D31" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E31" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32382,18 +32382,18 @@
         <v>2016</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D32" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E32" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F32" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
@@ -32406,10 +32406,10 @@
         <v>1790</v>
       </c>
       <c r="D33" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E33" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F33" s="106"/>
     </row>
@@ -32424,10 +32424,10 @@
         <v>1790</v>
       </c>
       <c r="D34" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E34" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F34" s="106"/>
     </row>
@@ -32442,46 +32442,46 @@
         <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E35" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F35" s="106"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D36" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E36" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F36" s="106"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D37" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E37" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F37" s="106"/>
     </row>
@@ -32490,13 +32490,13 @@
         <v>2018</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D38" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E38" s="99">
         <v>43123</v>
@@ -32508,16 +32508,16 @@
         <v>2018</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D39" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E39" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F39" s="106"/>
     </row>
@@ -32526,13 +32526,13 @@
         <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E40" s="99">
         <v>43124</v>
@@ -32550,10 +32550,10 @@
         <v>1867</v>
       </c>
       <c r="D41" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E41" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32562,13 +32562,13 @@
         <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D42" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E42" s="99">
         <v>43125</v>
@@ -32580,13 +32580,13 @@
         <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1869</v>
+        <v>1790</v>
       </c>
       <c r="D43" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E43" s="99">
         <v>43125</v>
@@ -32598,20 +32598,18 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1794</v>
+        <v>1869</v>
       </c>
       <c r="D44" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E44" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F44" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
@@ -32624,13 +32622,13 @@
         <v>1794</v>
       </c>
       <c r="D45" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E45" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E45" s="99">
+        <v>43126</v>
       </c>
       <c r="F45" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32638,19 +32636,19 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D46" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E46" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F46" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32658,34 +32656,36 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D47" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E47" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F47" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F47" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="95">
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D48" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E48" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E48" s="99">
+        <v>43127</v>
       </c>
       <c r="F48" s="106"/>
     </row>
@@ -32697,7 +32697,7 @@
         <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D49" s="98">
         <v>-50</v>
@@ -32715,7 +32715,7 @@
         <v>1970</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D50" s="98">
         <v>-50</v>
@@ -32727,43 +32727,43 @@
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D51" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E51" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E51" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F51" s="106"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B52" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D52" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E52" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B53" s="96" t="s">
         <v>1788</v>
@@ -32772,45 +32772,45 @@
         <v>1784</v>
       </c>
       <c r="D53" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E53" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B54" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D54" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E54" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E54" s="99">
+        <v>44200</v>
+      </c>
       <c r="F54" s="106"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D55" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E55" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E55" s="99"/>
       <c r="F55" s="106"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32818,16 +32818,16 @@
         <v>2023</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D56" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E56" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F56" s="106"/>
     </row>
@@ -32841,47 +32841,47 @@
       <c r="C57" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D57" s="100">
-        <v>-50</v>
+      <c r="D57" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E57" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F57" s="106"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B58" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D58" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E58" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F58" s="106"/>
+    </row>
+    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="95">
         <v>2024</v>
-      </c>
-      <c r="B58" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C58" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D58" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E58" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F58" s="106"/>
-    </row>
-    <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="102">
-        <v>2025</v>
       </c>
       <c r="B59" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D59" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E59" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F59" s="106"/>
     </row>
@@ -32893,49 +32893,49 @@
         <v>1788</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D60" s="98">
         <v>-45.6</v>
       </c>
       <c r="E60" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F60" s="106"/>
     </row>
-    <row r="61" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="102">
         <v>2025</v>
       </c>
       <c r="B61" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D61" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E61" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F61" s="106"/>
+    </row>
+    <row r="62" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C62" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D62" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E61" s="101" t="s">
+      <c r="E62" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F61" s="106"/>
-    </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D62" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E62" s="103">
-        <v>46039</v>
       </c>
       <c r="F62" s="106"/>
     </row>
@@ -32950,10 +32950,10 @@
         <v>1794</v>
       </c>
       <c r="D63" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E63" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F63" s="106"/>
     </row>
@@ -32965,15 +32965,33 @@
         <v>1970</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D64" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E64" s="103">
         <v>46040</v>
       </c>
       <c r="F64" s="106"/>
+    </row>
+    <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B65" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C65" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D65" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E65" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F65" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32981,7 +32999,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D64">
+  <conditionalFormatting sqref="D3:D65">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D06894B-B3B1-4598-9BDF-97E6CF5DCE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E9936-9E82-4D00-83E7-653E23038AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1982">
   <si>
     <t>undefined</t>
   </si>
@@ -6639,6 +6639,10 @@
   </si>
   <si>
     <t>交换站记录 -49.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托孙臣格勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31811,7 +31815,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31881,7 +31885,7 @@
         <v>1970</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1869</v>
+        <v>1981</v>
       </c>
       <c r="D4" s="98">
         <v>-53</v>
@@ -31935,7 +31939,7 @@
         <v>1970</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>1869</v>
+        <v>1981</v>
       </c>
       <c r="D7" s="98">
         <v>-50</v>
@@ -32349,10 +32353,10 @@
         <v>1970</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D30" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E30" s="99">
         <v>42404</v>
@@ -32370,10 +32374,10 @@
         <v>1868</v>
       </c>
       <c r="D31" s="98">
-        <v>-52.3</v>
+        <v>-51</v>
       </c>
       <c r="E31" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32388,10 +32392,10 @@
         <v>1868</v>
       </c>
       <c r="D32" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E32" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F32" s="107"/>
     </row>
@@ -32400,18 +32404,18 @@
         <v>2016</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D33" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E33" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F33" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
@@ -32424,10 +32428,10 @@
         <v>1790</v>
       </c>
       <c r="D34" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E34" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F34" s="106"/>
     </row>
@@ -32442,10 +32446,10 @@
         <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E35" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F35" s="106"/>
     </row>
@@ -32460,46 +32464,46 @@
         <v>1790</v>
       </c>
       <c r="D36" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E36" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F36" s="106"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D37" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E37" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F37" s="106"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D38" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E38" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F38" s="106"/>
     </row>
@@ -32508,13 +32512,13 @@
         <v>2018</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D39" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E39" s="99">
         <v>43123</v>
@@ -32526,16 +32530,16 @@
         <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D40" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E40" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32544,13 +32548,13 @@
         <v>2018</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E41" s="99">
         <v>43124</v>
@@ -32568,10 +32572,10 @@
         <v>1867</v>
       </c>
       <c r="D42" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E42" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F42" s="106"/>
     </row>
@@ -32580,13 +32584,13 @@
         <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D43" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E43" s="99">
         <v>43125</v>
@@ -32598,13 +32602,13 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1869</v>
+        <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E44" s="99">
         <v>43125</v>
@@ -32616,20 +32620,18 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D45" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E45" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F45" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F45" s="106"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
@@ -32642,13 +32644,13 @@
         <v>1794</v>
       </c>
       <c r="D46" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E46" s="99">
+        <v>43126</v>
       </c>
       <c r="F46" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32656,19 +32658,19 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D47" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E47" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E47" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F47" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32676,34 +32678,36 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D48" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E48" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F48" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F48" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D49" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E49" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E49" s="99">
+        <v>43127</v>
       </c>
       <c r="F49" s="106"/>
     </row>
@@ -32715,7 +32719,7 @@
         <v>1970</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D50" s="98">
         <v>-50</v>
@@ -32733,7 +32737,7 @@
         <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D51" s="98">
         <v>-50</v>
@@ -32745,43 +32749,43 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D52" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E52" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E52" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B53" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D53" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E53" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B54" s="96" t="s">
         <v>1788</v>
@@ -32790,45 +32794,45 @@
         <v>1784</v>
       </c>
       <c r="D54" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E54" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F54" s="106"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B55" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D55" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E55" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E55" s="99">
+        <v>44200</v>
+      </c>
       <c r="F55" s="106"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D56" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E56" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E56" s="99"/>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32836,16 +32840,16 @@
         <v>2023</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D57" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E57" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F57" s="106"/>
     </row>
@@ -32859,47 +32863,47 @@
       <c r="C58" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D58" s="100">
-        <v>-50</v>
+      <c r="D58" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E58" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B59" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D59" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E59" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F59" s="106"/>
+    </row>
+    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="95">
         <v>2024</v>
-      </c>
-      <c r="B59" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C59" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D59" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E59" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F59" s="106"/>
-    </row>
-    <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="102">
-        <v>2025</v>
       </c>
       <c r="B60" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D60" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E60" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F60" s="106"/>
     </row>
@@ -32911,49 +32915,49 @@
         <v>1788</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D61" s="98">
         <v>-45.6</v>
       </c>
       <c r="E61" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F61" s="106"/>
     </row>
-    <row r="62" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="102">
         <v>2025</v>
       </c>
       <c r="B62" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D62" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E62" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F62" s="106"/>
+    </row>
+    <row r="63" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C63" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D62" s="98">
+      <c r="D63" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E62" s="101" t="s">
+      <c r="E63" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F62" s="106"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C63" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D63" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E63" s="103">
-        <v>46039</v>
       </c>
       <c r="F63" s="106"/>
     </row>
@@ -32968,10 +32972,10 @@
         <v>1794</v>
       </c>
       <c r="D64" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E64" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F64" s="106"/>
     </row>
@@ -32983,15 +32987,33 @@
         <v>1970</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D65" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E65" s="103">
         <v>46040</v>
       </c>
       <c r="F65" s="106"/>
+    </row>
+    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B66" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D66" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E66" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F66" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -32999,7 +33021,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D65">
+  <conditionalFormatting sqref="D3:D66">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E9936-9E82-4D00-83E7-653E23038AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A339C9A-AC30-4B31-A2AA-7A19A27D4E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -6643,6 +6643,10 @@
   </si>
   <si>
     <t>托孙臣格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古气象官网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31815,7 +31819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -32379,7 +32383,9 @@
       <c r="E31" s="99">
         <v>42404</v>
       </c>
-      <c r="F31" s="107"/>
+      <c r="F31" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
@@ -32392,12 +32398,14 @@
         <v>1868</v>
       </c>
       <c r="D32" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E32" s="99">
         <v>42405</v>
       </c>
-      <c r="F32" s="107"/>
+      <c r="F32" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
@@ -32407,13 +32415,13 @@
         <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D33" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E33" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F33" s="107"/>
     </row>
@@ -32422,18 +32430,18 @@
         <v>2016</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D34" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E34" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F34" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F34" s="107"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
@@ -32446,10 +32454,10 @@
         <v>1790</v>
       </c>
       <c r="D35" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E35" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F35" s="106"/>
     </row>
@@ -32464,10 +32472,10 @@
         <v>1790</v>
       </c>
       <c r="D36" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E36" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F36" s="106"/>
     </row>
@@ -32482,46 +32490,46 @@
         <v>1790</v>
       </c>
       <c r="D37" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E37" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F37" s="106"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D38" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E38" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F38" s="106"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D39" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E39" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F39" s="106"/>
     </row>
@@ -32530,13 +32538,13 @@
         <v>2018</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E40" s="99">
         <v>43123</v>
@@ -32548,16 +32556,16 @@
         <v>2018</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D41" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E41" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32566,13 +32574,13 @@
         <v>2018</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E42" s="99">
         <v>43124</v>
@@ -32590,10 +32598,10 @@
         <v>1867</v>
       </c>
       <c r="D43" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E43" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F43" s="106"/>
     </row>
@@ -32602,13 +32610,13 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D44" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E44" s="99">
         <v>43125</v>
@@ -32620,13 +32628,13 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D45" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E45" s="99">
         <v>43125</v>
@@ -32638,20 +32646,18 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D46" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E46" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F46" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F46" s="106"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
@@ -32664,13 +32670,13 @@
         <v>1794</v>
       </c>
       <c r="D47" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E47" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E47" s="99">
+        <v>43126</v>
       </c>
       <c r="F47" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32678,19 +32684,19 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D48" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E48" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E48" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F48" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32698,34 +32704,36 @@
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D49" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E49" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F49" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F49" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D50" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E50" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E50" s="99">
+        <v>43127</v>
       </c>
       <c r="F50" s="106"/>
     </row>
@@ -32737,7 +32745,7 @@
         <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D51" s="98">
         <v>-50</v>
@@ -32755,7 +32763,7 @@
         <v>1970</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D52" s="98">
         <v>-50</v>
@@ -32767,43 +32775,43 @@
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D53" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E53" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E53" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B54" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D54" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E54" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F54" s="106"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B55" s="96" t="s">
         <v>1788</v>
@@ -32812,45 +32820,45 @@
         <v>1784</v>
       </c>
       <c r="D55" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E55" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F55" s="106"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B56" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D56" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E56" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E56" s="99">
+        <v>44200</v>
+      </c>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D57" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E57" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E57" s="99"/>
       <c r="F57" s="106"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32858,16 +32866,16 @@
         <v>2023</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D58" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E58" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F58" s="106"/>
     </row>
@@ -32881,47 +32889,47 @@
       <c r="C59" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D59" s="100">
-        <v>-50</v>
+      <c r="D59" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E59" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B60" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D60" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E60" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F60" s="106"/>
+    </row>
+    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="95">
         <v>2024</v>
-      </c>
-      <c r="B60" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D60" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E60" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F60" s="106"/>
-    </row>
-    <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="102">
-        <v>2025</v>
       </c>
       <c r="B61" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D61" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E61" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F61" s="106"/>
     </row>
@@ -32933,49 +32941,49 @@
         <v>1788</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D62" s="98">
         <v>-45.6</v>
       </c>
       <c r="E62" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F62" s="106"/>
     </row>
-    <row r="63" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="102">
         <v>2025</v>
       </c>
       <c r="B63" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D63" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E63" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F63" s="106"/>
+    </row>
+    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C63" s="97" t="s">
+      <c r="C64" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D63" s="98">
+      <c r="D64" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E63" s="101" t="s">
+      <c r="E64" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F63" s="106"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B64" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D64" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E64" s="103">
-        <v>46039</v>
       </c>
       <c r="F64" s="106"/>
     </row>
@@ -32990,10 +32998,10 @@
         <v>1794</v>
       </c>
       <c r="D65" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E65" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F65" s="106"/>
     </row>
@@ -33005,15 +33013,33 @@
         <v>1970</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D66" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E66" s="103">
         <v>46040</v>
       </c>
       <c r="F66" s="106"/>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B67" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D67" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E67" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F67" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33021,7 +33047,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D66">
+  <conditionalFormatting sqref="D3:D67">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A339C9A-AC30-4B31-A2AA-7A19A27D4E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287FC75-1E59-4AC9-AA9E-9DF76305EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -31819,7 +31819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31955,21 +31955,23 @@
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B8" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C8" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D8" s="98">
-        <v>-53.8</v>
+        <v>-50</v>
       </c>
       <c r="E8" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F8" s="107"/>
+        <v>38389</v>
+      </c>
+      <c r="F8" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="95">
@@ -31982,10 +31984,10 @@
         <v>1785</v>
       </c>
       <c r="D9" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E9" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F9" s="107"/>
     </row>
@@ -32000,16 +32002,16 @@
         <v>1785</v>
       </c>
       <c r="D10" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E10" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F10" s="107"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B11" s="96" t="s">
         <v>1970</v>
@@ -32018,46 +32020,46 @@
         <v>1785</v>
       </c>
       <c r="D11" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E11" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D12" s="98">
         <v>-50.2</v>
       </c>
       <c r="E12" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B13" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D13" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E13" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F13" s="107"/>
     </row>
@@ -32072,10 +32074,10 @@
         <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E14" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F14" s="107"/>
     </row>
@@ -32090,10 +32092,10 @@
         <v>1785</v>
       </c>
       <c r="D15" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E15" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F15" s="107"/>
     </row>
@@ -32105,10 +32107,10 @@
         <v>1970</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D16" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E16" s="99">
         <v>42394</v>
@@ -32123,13 +32125,13 @@
         <v>1970</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D17" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E17" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32144,10 +32146,10 @@
         <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E18" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32162,10 +32164,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E19" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32180,10 +32182,10 @@
         <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E20" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32195,10 +32197,10 @@
         <v>1970</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D21" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E21" s="99">
         <v>42398</v>
@@ -32210,13 +32212,13 @@
         <v>2016</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D22" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E22" s="99">
         <v>42398</v>
@@ -32228,16 +32230,16 @@
         <v>2016</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D23" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E23" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32249,10 +32251,10 @@
         <v>1970</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D24" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E24" s="99">
         <v>42399</v>
@@ -32264,13 +32266,13 @@
         <v>2016</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D25" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E25" s="99">
         <v>42399</v>
@@ -32282,16 +32284,16 @@
         <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D26" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E26" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F26" s="107"/>
     </row>
@@ -32303,10 +32305,10 @@
         <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D27" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E27" s="99">
         <v>42400</v>
@@ -32321,13 +32323,13 @@
         <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D28" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E28" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F28" s="107"/>
     </row>
@@ -32342,10 +32344,10 @@
         <v>1785</v>
       </c>
       <c r="D29" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E29" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32360,10 +32362,10 @@
         <v>1785</v>
       </c>
       <c r="D30" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E30" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32375,17 +32377,15 @@
         <v>1970</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D31" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E31" s="99">
         <v>42404</v>
       </c>
-      <c r="F31" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F31" s="107"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
@@ -32398,10 +32398,10 @@
         <v>1868</v>
       </c>
       <c r="D32" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E32" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F32" s="107" t="s">
         <v>1982</v>
@@ -32415,15 +32415,17 @@
         <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D33" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E33" s="99">
         <v>42405</v>
       </c>
-      <c r="F33" s="107"/>
+      <c r="F33" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
@@ -32433,13 +32435,13 @@
         <v>1970</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D34" s="98">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E34" s="99">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F34" s="107"/>
     </row>
@@ -32448,36 +32450,38 @@
         <v>2016</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D35" s="98">
-        <v>-54.7</v>
+        <v>-53.3</v>
       </c>
       <c r="E35" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F35" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F35" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
         <v>2016</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D36" s="98">
-        <v>-50.3</v>
+        <v>-52</v>
       </c>
       <c r="E36" s="99">
-        <v>42437</v>
-      </c>
-      <c r="F36" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32490,10 +32494,10 @@
         <v>1790</v>
       </c>
       <c r="D37" s="98">
-        <v>-54</v>
+        <v>-54.7</v>
       </c>
       <c r="E37" s="99">
-        <v>42438</v>
+        <v>42412</v>
       </c>
       <c r="F37" s="106"/>
     </row>
@@ -32508,34 +32512,34 @@
         <v>1790</v>
       </c>
       <c r="D38" s="98">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="E38" s="99">
-        <v>42439</v>
+        <v>42437</v>
       </c>
       <c r="F38" s="106"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D39" s="98">
-        <v>-45.4</v>
+        <v>-54</v>
       </c>
       <c r="E39" s="99">
-        <v>42763</v>
+        <v>42438</v>
       </c>
       <c r="F39" s="106"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B40" s="96" t="s">
         <v>1788</v>
@@ -32544,28 +32548,28 @@
         <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="E40" s="99">
-        <v>43123</v>
+        <v>42439</v>
       </c>
       <c r="F40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1867</v>
+        <v>1791</v>
       </c>
       <c r="D41" s="98">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="E41" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32580,10 +32584,10 @@
         <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-53.2</v>
+        <v>-51.6</v>
       </c>
       <c r="E42" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F42" s="106"/>
     </row>
@@ -32598,10 +32602,10 @@
         <v>1867</v>
       </c>
       <c r="D43" s="98">
-        <v>-51.7</v>
+        <v>-51.3</v>
       </c>
       <c r="E43" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F43" s="106"/>
     </row>
@@ -32610,16 +32614,16 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-50.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E44" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F44" s="106"/>
     </row>
@@ -32628,16 +32632,16 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D45" s="98">
-        <v>-50.1</v>
+        <v>-51.7</v>
       </c>
       <c r="E45" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F45" s="106"/>
     </row>
@@ -32649,10 +32653,10 @@
         <v>1970</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1981</v>
+        <v>1867</v>
       </c>
       <c r="D46" s="98">
-        <v>-50.3</v>
+        <v>-50.7</v>
       </c>
       <c r="E46" s="99">
         <v>43125</v>
@@ -32664,59 +32668,55 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="D47" s="98">
-        <v>-49.9</v>
+        <v>-50.1</v>
       </c>
       <c r="E47" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F47" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F47" s="106"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="95">
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D48" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E48" s="99" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F48" s="106" t="s">
-        <v>1979</v>
-      </c>
+        <v>-50.3</v>
+      </c>
+      <c r="E48" s="99">
+        <v>43125</v>
+      </c>
+      <c r="F48" s="106"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D49" s="98">
-        <v>-50.2</v>
+        <v>-49.9</v>
       </c>
       <c r="E49" s="99">
         <v>43126</v>
       </c>
       <c r="F49" s="106" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32724,18 +32724,20 @@
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1788</v>
+        <v>1947</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D50" s="98">
-        <v>-51.8</v>
-      </c>
-      <c r="E50" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F50" s="106"/>
+        <v>-50</v>
+      </c>
+      <c r="E50" s="99" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F50" s="106" t="s">
+        <v>1979</v>
+      </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
@@ -32745,31 +32747,33 @@
         <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="D51" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E51" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F51" s="106"/>
+        <v>-50.2</v>
+      </c>
+      <c r="E51" s="99">
+        <v>43126</v>
+      </c>
+      <c r="F51" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1971</v>
+        <v>1792</v>
       </c>
       <c r="D52" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E52" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E52" s="99">
+        <v>43127</v>
       </c>
       <c r="F52" s="106"/>
     </row>
@@ -32781,7 +32785,7 @@
         <v>1970</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1972</v>
+        <v>1794</v>
       </c>
       <c r="D53" s="98">
         <v>-50</v>
@@ -32793,108 +32797,108 @@
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1792</v>
+        <v>1971</v>
       </c>
       <c r="D54" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E54" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E54" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F54" s="106"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1784</v>
+        <v>1972</v>
       </c>
       <c r="D55" s="98">
-        <v>-49.6</v>
-      </c>
-      <c r="E55" s="99">
-        <v>44194</v>
+        <v>-50</v>
+      </c>
+      <c r="E55" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F55" s="106"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B56" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D56" s="98">
-        <v>-47.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E56" s="99">
-        <v>44200</v>
+        <v>43828</v>
       </c>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B57" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D57" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E57" s="99"/>
+        <v>-49.6</v>
+      </c>
+      <c r="E57" s="99">
+        <v>44194</v>
+      </c>
       <c r="F57" s="106"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1867</v>
+        <v>1784</v>
       </c>
       <c r="D58" s="98">
-        <v>-50</v>
+        <v>-47.2</v>
       </c>
       <c r="E58" s="99">
-        <v>44949</v>
+        <v>44200</v>
       </c>
       <c r="F58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1948</v>
+        <v>1785</v>
       </c>
       <c r="D59" s="98">
-        <v>-49.4</v>
-      </c>
-      <c r="E59" s="99">
-        <v>45279</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E59" s="99"/>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32902,124 +32906,124 @@
         <v>2023</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D60" s="100">
+        <v>1867</v>
+      </c>
+      <c r="D60" s="98">
         <v>-50</v>
       </c>
       <c r="E60" s="99">
-        <v>45280</v>
+        <v>44949</v>
       </c>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B61" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D61" s="98">
+        <v>-49.4</v>
+      </c>
+      <c r="E61" s="99">
+        <v>45279</v>
+      </c>
+      <c r="F61" s="106"/>
+    </row>
+    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B62" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C62" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D62" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E62" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F62" s="106"/>
+    </row>
+    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="95">
         <v>2024</v>
-      </c>
-      <c r="B61" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C61" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D61" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E61" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F61" s="106"/>
-    </row>
-    <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="102">
-        <v>2025</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D62" s="98">
-        <v>-45.6</v>
-      </c>
-      <c r="E62" s="99">
-        <v>45659</v>
-      </c>
-      <c r="F62" s="106"/>
-    </row>
-    <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="102">
-        <v>2025</v>
       </c>
       <c r="B63" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D63" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E63" s="99">
-        <v>45673</v>
+        <v>45312</v>
       </c>
       <c r="F63" s="106"/>
     </row>
-    <row r="64" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="102">
         <v>2025</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="D64" s="98">
-        <v>-44.2</v>
-      </c>
-      <c r="E64" s="101" t="s">
-        <v>1974</v>
+        <v>-45.6</v>
+      </c>
+      <c r="E64" s="99">
+        <v>45659</v>
       </c>
       <c r="F64" s="106"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="102">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C65" s="97" t="s">
         <v>1794</v>
       </c>
       <c r="D65" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E65" s="103">
-        <v>46039</v>
+        <v>-45.6</v>
+      </c>
+      <c r="E65" s="99">
+        <v>45673</v>
       </c>
       <c r="F65" s="106"/>
     </row>
-    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="102">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B66" s="96" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D66" s="98">
-        <v>-52</v>
-      </c>
-      <c r="E66" s="103">
-        <v>46040</v>
+        <v>-44.2</v>
+      </c>
+      <c r="E66" s="101" t="s">
+        <v>1974</v>
       </c>
       <c r="F66" s="106"/>
     </row>
@@ -33031,15 +33035,51 @@
         <v>1970</v>
       </c>
       <c r="C67" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D67" s="98">
+        <v>-51.2</v>
+      </c>
+      <c r="E67" s="103">
+        <v>46039</v>
+      </c>
+      <c r="F67" s="106"/>
+    </row>
+    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B68" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D68" s="98">
+        <v>-52</v>
+      </c>
+      <c r="E68" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F68" s="106"/>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B69" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C69" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D67" s="98">
+      <c r="D69" s="98">
         <v>-51.1</v>
       </c>
-      <c r="E67" s="103">
+      <c r="E69" s="103">
         <v>46040</v>
       </c>
-      <c r="F67" s="106"/>
+      <c r="F69" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33047,7 +33087,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D67">
+  <conditionalFormatting sqref="D3:D69">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1287FC75-1E59-4AC9-AA9E-9DF76305EB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBA6AD-7672-43C0-B7F5-5E7683809F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -31819,7 +31819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31975,21 +31975,23 @@
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B9" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D9" s="98">
-        <v>-53.8</v>
+        <v>-50</v>
       </c>
       <c r="E9" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F9" s="107"/>
+        <v>38390</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="95">
@@ -32002,10 +32004,10 @@
         <v>1785</v>
       </c>
       <c r="D10" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E10" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F10" s="107"/>
     </row>
@@ -32020,16 +32022,16 @@
         <v>1785</v>
       </c>
       <c r="D11" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E11" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F11" s="107"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B12" s="96" t="s">
         <v>1970</v>
@@ -32038,46 +32040,46 @@
         <v>1785</v>
       </c>
       <c r="D12" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E12" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B13" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D13" s="98">
         <v>-50.2</v>
       </c>
       <c r="E13" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D14" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E14" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F14" s="107"/>
     </row>
@@ -32092,10 +32094,10 @@
         <v>1785</v>
       </c>
       <c r="D15" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E15" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F15" s="107"/>
     </row>
@@ -32110,10 +32112,10 @@
         <v>1785</v>
       </c>
       <c r="D16" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E16" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F16" s="107"/>
     </row>
@@ -32125,10 +32127,10 @@
         <v>1970</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D17" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E17" s="99">
         <v>42394</v>
@@ -32143,13 +32145,13 @@
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D18" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E18" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32164,10 +32166,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E19" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32182,10 +32184,10 @@
         <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E20" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32200,10 +32202,10 @@
         <v>1785</v>
       </c>
       <c r="D21" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E21" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32215,10 +32217,10 @@
         <v>1970</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D22" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E22" s="99">
         <v>42398</v>
@@ -32230,13 +32232,13 @@
         <v>2016</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D23" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E23" s="99">
         <v>42398</v>
@@ -32248,16 +32250,16 @@
         <v>2016</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D24" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E24" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F24" s="107"/>
     </row>
@@ -32269,10 +32271,10 @@
         <v>1970</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D25" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E25" s="99">
         <v>42399</v>
@@ -32284,13 +32286,13 @@
         <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D26" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E26" s="99">
         <v>42399</v>
@@ -32302,16 +32304,16 @@
         <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D27" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E27" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F27" s="107"/>
     </row>
@@ -32323,10 +32325,10 @@
         <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D28" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E28" s="99">
         <v>42400</v>
@@ -32341,13 +32343,13 @@
         <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D29" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E29" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32362,10 +32364,10 @@
         <v>1785</v>
       </c>
       <c r="D30" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E30" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32380,10 +32382,10 @@
         <v>1785</v>
       </c>
       <c r="D31" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E31" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32395,17 +32397,15 @@
         <v>1970</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D32" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E32" s="99">
         <v>42404</v>
       </c>
-      <c r="F32" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F32" s="107"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
@@ -32418,10 +32418,10 @@
         <v>1868</v>
       </c>
       <c r="D33" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E33" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F33" s="107" t="s">
         <v>1982</v>
@@ -32435,15 +32435,17 @@
         <v>1970</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D34" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E34" s="99">
         <v>42405</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
@@ -32456,14 +32458,12 @@
         <v>1785</v>
       </c>
       <c r="D35" s="98">
-        <v>-53.3</v>
+        <v>-52.3</v>
       </c>
       <c r="E35" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F35" s="107" t="s">
-        <v>1982</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F35" s="107"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
@@ -32473,33 +32473,35 @@
         <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D36" s="98">
-        <v>-52</v>
+        <v>-53.3</v>
       </c>
       <c r="E36" s="99">
         <v>42406</v>
       </c>
-      <c r="F36" s="107"/>
+      <c r="F36" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
         <v>2016</v>
       </c>
       <c r="B37" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D37" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E37" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F37" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
@@ -32512,10 +32514,10 @@
         <v>1790</v>
       </c>
       <c r="D38" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E38" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F38" s="106"/>
     </row>
@@ -32530,10 +32532,10 @@
         <v>1790</v>
       </c>
       <c r="D39" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E39" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F39" s="106"/>
     </row>
@@ -32548,46 +32550,46 @@
         <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E40" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F40" s="106"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E41" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F41" s="106"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D42" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E42" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F42" s="106"/>
     </row>
@@ -32596,13 +32598,13 @@
         <v>2018</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D43" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E43" s="99">
         <v>43123</v>
@@ -32614,16 +32616,16 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D44" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E44" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F44" s="106"/>
     </row>
@@ -32632,13 +32634,13 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D45" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E45" s="99">
         <v>43124</v>
@@ -32656,10 +32658,10 @@
         <v>1867</v>
       </c>
       <c r="D46" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E46" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F46" s="106"/>
     </row>
@@ -32668,13 +32670,13 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D47" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E47" s="99">
         <v>43125</v>
@@ -32686,13 +32688,13 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D48" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E48" s="99">
         <v>43125</v>
@@ -32704,20 +32706,18 @@
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D49" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E49" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F49" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F49" s="106"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
@@ -32730,13 +32730,13 @@
         <v>1794</v>
       </c>
       <c r="D50" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E50" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E50" s="99">
+        <v>43126</v>
       </c>
       <c r="F50" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32744,19 +32744,19 @@
         <v>2018</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D51" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E51" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E51" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F51" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32764,34 +32764,36 @@
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D52" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E52" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F52" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F52" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
         <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D53" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E53" s="99">
+        <v>43127</v>
       </c>
       <c r="F53" s="106"/>
     </row>
@@ -32803,7 +32805,7 @@
         <v>1970</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D54" s="98">
         <v>-50</v>
@@ -32821,7 +32823,7 @@
         <v>1970</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D55" s="98">
         <v>-50</v>
@@ -32833,43 +32835,43 @@
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D56" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E56" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E56" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F56" s="106"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B57" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D57" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E57" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F57" s="106"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B58" s="96" t="s">
         <v>1788</v>
@@ -32878,45 +32880,45 @@
         <v>1784</v>
       </c>
       <c r="D58" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E58" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B59" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D59" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E59" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E59" s="99">
+        <v>44200</v>
+      </c>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D60" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E60" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E60" s="99"/>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32924,16 +32926,16 @@
         <v>2023</v>
       </c>
       <c r="B61" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D61" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E61" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F61" s="106"/>
     </row>
@@ -32947,47 +32949,47 @@
       <c r="C62" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D62" s="100">
-        <v>-50</v>
+      <c r="D62" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E62" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F62" s="106"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B63" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C63" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D63" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E63" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F63" s="106"/>
+    </row>
+    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="95">
         <v>2024</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C63" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D63" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E63" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F63" s="106"/>
-    </row>
-    <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="102">
-        <v>2025</v>
       </c>
       <c r="B64" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D64" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E64" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F64" s="106"/>
     </row>
@@ -32999,49 +33001,49 @@
         <v>1788</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D65" s="98">
         <v>-45.6</v>
       </c>
       <c r="E65" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F65" s="106"/>
     </row>
-    <row r="66" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="102">
         <v>2025</v>
       </c>
       <c r="B66" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D66" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E66" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F66" s="106"/>
+    </row>
+    <row r="67" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C66" s="97" t="s">
+      <c r="C67" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D66" s="98">
+      <c r="D67" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E66" s="101" t="s">
+      <c r="E67" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F66" s="106"/>
-    </row>
-    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D67" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E67" s="103">
-        <v>46039</v>
       </c>
       <c r="F67" s="106"/>
     </row>
@@ -33056,10 +33058,10 @@
         <v>1794</v>
       </c>
       <c r="D68" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E68" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F68" s="106"/>
     </row>
@@ -33071,15 +33073,33 @@
         <v>1970</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D69" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E69" s="103">
         <v>46040</v>
       </c>
       <c r="F69" s="106"/>
+    </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B70" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D70" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E70" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F70" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33087,7 +33107,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D69">
+  <conditionalFormatting sqref="D3:D70">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEBA6AD-7672-43C0-B7F5-5E7683809F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9905468A-CDBD-40FF-A825-CA4EF6EB48CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -31819,7 +31819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31995,21 +31995,23 @@
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D10" s="98">
-        <v>-53.8</v>
+        <v>-50.1</v>
       </c>
       <c r="E10" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F10" s="107"/>
+        <v>38391</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
@@ -32022,10 +32024,10 @@
         <v>1785</v>
       </c>
       <c r="D11" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E11" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F11" s="107"/>
     </row>
@@ -32040,16 +32042,16 @@
         <v>1785</v>
       </c>
       <c r="D12" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E12" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F12" s="107"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B13" s="96" t="s">
         <v>1970</v>
@@ -32058,46 +32060,46 @@
         <v>1785</v>
       </c>
       <c r="D13" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E13" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C14" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D14" s="98">
         <v>-50.2</v>
       </c>
       <c r="E14" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D15" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E15" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F15" s="107"/>
     </row>
@@ -32112,10 +32114,10 @@
         <v>1785</v>
       </c>
       <c r="D16" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E16" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F16" s="107"/>
     </row>
@@ -32130,10 +32132,10 @@
         <v>1785</v>
       </c>
       <c r="D17" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E17" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32145,10 +32147,10 @@
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E18" s="99">
         <v>42394</v>
@@ -32163,13 +32165,13 @@
         <v>1970</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D19" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E19" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32184,10 +32186,10 @@
         <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E20" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32202,10 +32204,10 @@
         <v>1785</v>
       </c>
       <c r="D21" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E21" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32220,10 +32222,10 @@
         <v>1785</v>
       </c>
       <c r="D22" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E22" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32235,10 +32237,10 @@
         <v>1970</v>
       </c>
       <c r="C23" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D23" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E23" s="99">
         <v>42398</v>
@@ -32250,13 +32252,13 @@
         <v>2016</v>
       </c>
       <c r="B24" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D24" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E24" s="99">
         <v>42398</v>
@@ -32268,16 +32270,16 @@
         <v>2016</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D25" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E25" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F25" s="107"/>
     </row>
@@ -32289,10 +32291,10 @@
         <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D26" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E26" s="99">
         <v>42399</v>
@@ -32304,13 +32306,13 @@
         <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E27" s="99">
         <v>42399</v>
@@ -32322,16 +32324,16 @@
         <v>2016</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D28" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E28" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F28" s="107"/>
     </row>
@@ -32343,10 +32345,10 @@
         <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D29" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E29" s="99">
         <v>42400</v>
@@ -32361,13 +32363,13 @@
         <v>1970</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E30" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32382,10 +32384,10 @@
         <v>1785</v>
       </c>
       <c r="D31" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E31" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32400,10 +32402,10 @@
         <v>1785</v>
       </c>
       <c r="D32" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E32" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F32" s="107"/>
     </row>
@@ -32415,17 +32417,15 @@
         <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D33" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E33" s="99">
         <v>42404</v>
       </c>
-      <c r="F33" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F33" s="107"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
@@ -32438,10 +32438,10 @@
         <v>1868</v>
       </c>
       <c r="D34" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E34" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F34" s="107" t="s">
         <v>1982</v>
@@ -32455,15 +32455,17 @@
         <v>1970</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D35" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E35" s="99">
         <v>42405</v>
       </c>
-      <c r="F35" s="107"/>
+      <c r="F35" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
@@ -32476,14 +32478,12 @@
         <v>1785</v>
       </c>
       <c r="D36" s="98">
-        <v>-53.3</v>
+        <v>-52.3</v>
       </c>
       <c r="E36" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F36" s="107" t="s">
-        <v>1982</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32493,33 +32493,35 @@
         <v>1970</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D37" s="98">
-        <v>-52</v>
+        <v>-53.3</v>
       </c>
       <c r="E37" s="99">
         <v>42406</v>
       </c>
-      <c r="F37" s="107"/>
+      <c r="F37" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
         <v>2016</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D38" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E38" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F38" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F38" s="107"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
@@ -32532,10 +32534,10 @@
         <v>1790</v>
       </c>
       <c r="D39" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E39" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F39" s="106"/>
     </row>
@@ -32550,10 +32552,10 @@
         <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E40" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32568,46 +32570,46 @@
         <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E41" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F41" s="106"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C42" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E42" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D43" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E43" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F43" s="106"/>
     </row>
@@ -32616,13 +32618,13 @@
         <v>2018</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E44" s="99">
         <v>43123</v>
@@ -32634,16 +32636,16 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D45" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E45" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F45" s="106"/>
     </row>
@@ -32652,13 +32654,13 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D46" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E46" s="99">
         <v>43124</v>
@@ -32676,10 +32678,10 @@
         <v>1867</v>
       </c>
       <c r="D47" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E47" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F47" s="106"/>
     </row>
@@ -32688,13 +32690,13 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D48" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E48" s="99">
         <v>43125</v>
@@ -32706,13 +32708,13 @@
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D49" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E49" s="99">
         <v>43125</v>
@@ -32724,20 +32726,18 @@
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D50" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E50" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F50" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F50" s="106"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
@@ -32750,13 +32750,13 @@
         <v>1794</v>
       </c>
       <c r="D51" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E51" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E51" s="99">
+        <v>43126</v>
       </c>
       <c r="F51" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32764,19 +32764,19 @@
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D52" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E52" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E52" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F52" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32784,34 +32784,36 @@
         <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D53" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E53" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F53" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F53" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
         <v>2018</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D54" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E54" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E54" s="99">
+        <v>43127</v>
       </c>
       <c r="F54" s="106"/>
     </row>
@@ -32823,7 +32825,7 @@
         <v>1970</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D55" s="98">
         <v>-50</v>
@@ -32841,7 +32843,7 @@
         <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D56" s="98">
         <v>-50</v>
@@ -32853,43 +32855,43 @@
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D57" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E57" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E57" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F57" s="106"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B58" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D58" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E58" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B59" s="96" t="s">
         <v>1788</v>
@@ -32898,45 +32900,45 @@
         <v>1784</v>
       </c>
       <c r="D59" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E59" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B60" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D60" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E60" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E60" s="99">
+        <v>44200</v>
+      </c>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B61" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D61" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E61" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E61" s="99"/>
       <c r="F61" s="106"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32944,16 +32946,16 @@
         <v>2023</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D62" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E62" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F62" s="106"/>
     </row>
@@ -32967,47 +32969,47 @@
       <c r="C63" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D63" s="100">
-        <v>-50</v>
+      <c r="D63" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E63" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F63" s="106"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B64" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C64" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D64" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E64" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F64" s="106"/>
+    </row>
+    <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="95">
         <v>2024</v>
-      </c>
-      <c r="B64" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D64" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E64" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F64" s="106"/>
-    </row>
-    <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="102">
-        <v>2025</v>
       </c>
       <c r="B65" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D65" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E65" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F65" s="106"/>
     </row>
@@ -33019,49 +33021,49 @@
         <v>1788</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D66" s="98">
         <v>-45.6</v>
       </c>
       <c r="E66" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F66" s="106"/>
     </row>
-    <row r="67" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="102">
         <v>2025</v>
       </c>
       <c r="B67" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D67" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E67" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F67" s="106"/>
+    </row>
+    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C67" s="97" t="s">
+      <c r="C68" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D67" s="98">
+      <c r="D68" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E67" s="101" t="s">
+      <c r="E68" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F67" s="106"/>
-    </row>
-    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B68" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D68" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E68" s="103">
-        <v>46039</v>
       </c>
       <c r="F68" s="106"/>
     </row>
@@ -33076,10 +33078,10 @@
         <v>1794</v>
       </c>
       <c r="D69" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E69" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F69" s="106"/>
     </row>
@@ -33091,15 +33093,33 @@
         <v>1970</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D70" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E70" s="103">
         <v>46040</v>
       </c>
       <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B71" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C71" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D71" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E71" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F71" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33107,7 +33127,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D70">
+  <conditionalFormatting sqref="D3:D71">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9905468A-CDBD-40FF-A825-CA4EF6EB48CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5864B-47E1-4E66-A5D5-FB3B1E4DD1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -31819,7 +31819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -32015,21 +32015,23 @@
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C11" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D11" s="98">
-        <v>-53.8</v>
+        <v>-50.5</v>
       </c>
       <c r="E11" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F11" s="107"/>
+        <v>38392</v>
+      </c>
+      <c r="F11" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
@@ -32042,10 +32044,10 @@
         <v>1785</v>
       </c>
       <c r="D12" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E12" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F12" s="107"/>
     </row>
@@ -32060,16 +32062,16 @@
         <v>1785</v>
       </c>
       <c r="D13" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E13" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F13" s="107"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B14" s="96" t="s">
         <v>1970</v>
@@ -32078,46 +32080,46 @@
         <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E14" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C15" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D15" s="98">
         <v>-50.2</v>
       </c>
       <c r="E15" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B16" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D16" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E16" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F16" s="107"/>
     </row>
@@ -32132,10 +32134,10 @@
         <v>1785</v>
       </c>
       <c r="D17" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E17" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32150,10 +32152,10 @@
         <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E18" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32165,10 +32167,10 @@
         <v>1970</v>
       </c>
       <c r="C19" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E19" s="99">
         <v>42394</v>
@@ -32183,13 +32185,13 @@
         <v>1970</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D20" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E20" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32204,10 +32206,10 @@
         <v>1785</v>
       </c>
       <c r="D21" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E21" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32222,10 +32224,10 @@
         <v>1785</v>
       </c>
       <c r="D22" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E22" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32240,10 +32242,10 @@
         <v>1785</v>
       </c>
       <c r="D23" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E23" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32255,10 +32257,10 @@
         <v>1970</v>
       </c>
       <c r="C24" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D24" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E24" s="99">
         <v>42398</v>
@@ -32270,13 +32272,13 @@
         <v>2016</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D25" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E25" s="99">
         <v>42398</v>
@@ -32288,16 +32290,16 @@
         <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D26" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E26" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F26" s="107"/>
     </row>
@@ -32309,10 +32311,10 @@
         <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D27" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E27" s="99">
         <v>42399</v>
@@ -32324,13 +32326,13 @@
         <v>2016</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D28" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E28" s="99">
         <v>42399</v>
@@ -32342,16 +32344,16 @@
         <v>2016</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D29" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E29" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F29" s="107"/>
     </row>
@@ -32363,10 +32365,10 @@
         <v>1970</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D30" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E30" s="99">
         <v>42400</v>
@@ -32381,13 +32383,13 @@
         <v>1970</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D31" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E31" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32402,10 +32404,10 @@
         <v>1785</v>
       </c>
       <c r="D32" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E32" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F32" s="107"/>
     </row>
@@ -32420,10 +32422,10 @@
         <v>1785</v>
       </c>
       <c r="D33" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E33" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F33" s="107"/>
     </row>
@@ -32435,17 +32437,15 @@
         <v>1970</v>
       </c>
       <c r="C34" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D34" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E34" s="99">
         <v>42404</v>
       </c>
-      <c r="F34" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F34" s="107"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
@@ -32458,10 +32458,10 @@
         <v>1868</v>
       </c>
       <c r="D35" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E35" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F35" s="107" t="s">
         <v>1982</v>
@@ -32475,15 +32475,17 @@
         <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D36" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E36" s="99">
         <v>42405</v>
       </c>
-      <c r="F36" s="107"/>
+      <c r="F36" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32496,14 +32498,12 @@
         <v>1785</v>
       </c>
       <c r="D37" s="98">
-        <v>-53.3</v>
+        <v>-52.3</v>
       </c>
       <c r="E37" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F37" s="107" t="s">
-        <v>1982</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F37" s="107"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
@@ -32513,33 +32513,35 @@
         <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D38" s="98">
-        <v>-52</v>
+        <v>-53.3</v>
       </c>
       <c r="E38" s="99">
         <v>42406</v>
       </c>
-      <c r="F38" s="107"/>
+      <c r="F38" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
         <v>2016</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D39" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E39" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F39" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F39" s="107"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
@@ -32552,10 +32554,10 @@
         <v>1790</v>
       </c>
       <c r="D40" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E40" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F40" s="106"/>
     </row>
@@ -32570,10 +32572,10 @@
         <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E41" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32588,46 +32590,46 @@
         <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E42" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F42" s="106"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D43" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E43" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D44" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E44" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F44" s="106"/>
     </row>
@@ -32636,13 +32638,13 @@
         <v>2018</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D45" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E45" s="99">
         <v>43123</v>
@@ -32654,16 +32656,16 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D46" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E46" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F46" s="106"/>
     </row>
@@ -32672,13 +32674,13 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D47" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E47" s="99">
         <v>43124</v>
@@ -32696,10 +32698,10 @@
         <v>1867</v>
       </c>
       <c r="D48" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E48" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F48" s="106"/>
     </row>
@@ -32708,13 +32710,13 @@
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D49" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E49" s="99">
         <v>43125</v>
@@ -32726,13 +32728,13 @@
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D50" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E50" s="99">
         <v>43125</v>
@@ -32744,20 +32746,18 @@
         <v>2018</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D51" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E51" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F51" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F51" s="106"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
@@ -32770,13 +32770,13 @@
         <v>1794</v>
       </c>
       <c r="D52" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E52" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E52" s="99">
+        <v>43126</v>
       </c>
       <c r="F52" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32784,19 +32784,19 @@
         <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D53" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E53" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E53" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F53" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32804,34 +32804,36 @@
         <v>2018</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D54" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E54" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F54" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F54" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
         <v>2018</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D55" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E55" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E55" s="99">
+        <v>43127</v>
       </c>
       <c r="F55" s="106"/>
     </row>
@@ -32843,7 +32845,7 @@
         <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D56" s="98">
         <v>-50</v>
@@ -32861,7 +32863,7 @@
         <v>1970</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D57" s="98">
         <v>-50</v>
@@ -32873,43 +32875,43 @@
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D58" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E58" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E58" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F58" s="106"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B59" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D59" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E59" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B60" s="96" t="s">
         <v>1788</v>
@@ -32918,45 +32920,45 @@
         <v>1784</v>
       </c>
       <c r="D60" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E60" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B61" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D61" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E61" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E61" s="99">
+        <v>44200</v>
+      </c>
       <c r="F61" s="106"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B62" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D62" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E62" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E62" s="99"/>
       <c r="F62" s="106"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32964,16 +32966,16 @@
         <v>2023</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D63" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E63" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F63" s="106"/>
     </row>
@@ -32987,47 +32989,47 @@
       <c r="C64" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D64" s="100">
-        <v>-50</v>
+      <c r="D64" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E64" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F64" s="106"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B65" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C65" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D65" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E65" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F65" s="106"/>
+    </row>
+    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="95">
         <v>2024</v>
-      </c>
-      <c r="B65" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C65" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D65" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E65" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F65" s="106"/>
-    </row>
-    <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="102">
-        <v>2025</v>
       </c>
       <c r="B66" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D66" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E66" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F66" s="106"/>
     </row>
@@ -33039,49 +33041,49 @@
         <v>1788</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D67" s="98">
         <v>-45.6</v>
       </c>
       <c r="E67" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F67" s="106"/>
     </row>
-    <row r="68" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="102">
         <v>2025</v>
       </c>
       <c r="B68" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D68" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E68" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F68" s="106"/>
+    </row>
+    <row r="69" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C68" s="97" t="s">
+      <c r="C69" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D68" s="98">
+      <c r="D69" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E68" s="101" t="s">
+      <c r="E69" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F68" s="106"/>
-    </row>
-    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B69" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C69" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D69" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E69" s="103">
-        <v>46039</v>
       </c>
       <c r="F69" s="106"/>
     </row>
@@ -33096,10 +33098,10 @@
         <v>1794</v>
       </c>
       <c r="D70" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E70" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F70" s="106"/>
     </row>
@@ -33111,15 +33113,33 @@
         <v>1970</v>
       </c>
       <c r="C71" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D71" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E71" s="103">
         <v>46040</v>
       </c>
       <c r="F71" s="106"/>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B72" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C72" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D72" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E72" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F72" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33127,7 +33147,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D71">
+  <conditionalFormatting sqref="D3:D72">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF5864B-47E1-4E66-A5D5-FB3B1E4DD1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC412B0-BB27-490D-978A-709CAA53F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -31819,10 +31819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -32035,21 +32035,23 @@
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C12" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D12" s="98">
-        <v>-53.8</v>
+        <v>-49.7</v>
       </c>
       <c r="E12" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F12" s="107"/>
+        <v>38393</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
@@ -32062,10 +32064,10 @@
         <v>1785</v>
       </c>
       <c r="D13" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E13" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F13" s="107"/>
     </row>
@@ -32080,16 +32082,16 @@
         <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E14" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F14" s="107"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B15" s="96" t="s">
         <v>1970</v>
@@ -32098,46 +32100,46 @@
         <v>1785</v>
       </c>
       <c r="D15" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E15" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B16" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D16" s="98">
         <v>-50.2</v>
       </c>
       <c r="E16" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F16" s="107"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B17" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D17" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E17" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F17" s="107"/>
     </row>
@@ -32152,10 +32154,10 @@
         <v>1785</v>
       </c>
       <c r="D18" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E18" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32170,10 +32172,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E19" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32185,10 +32187,10 @@
         <v>1970</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E20" s="99">
         <v>42394</v>
@@ -32203,13 +32205,13 @@
         <v>1970</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D21" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E21" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F21" s="107"/>
     </row>
@@ -32224,10 +32226,10 @@
         <v>1785</v>
       </c>
       <c r="D22" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E22" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32242,10 +32244,10 @@
         <v>1785</v>
       </c>
       <c r="D23" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E23" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32260,10 +32262,10 @@
         <v>1785</v>
       </c>
       <c r="D24" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E24" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F24" s="107"/>
     </row>
@@ -32275,10 +32277,10 @@
         <v>1970</v>
       </c>
       <c r="C25" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D25" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E25" s="99">
         <v>42398</v>
@@ -32290,13 +32292,13 @@
         <v>2016</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D26" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E26" s="99">
         <v>42398</v>
@@ -32308,16 +32310,16 @@
         <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D27" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E27" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F27" s="107"/>
     </row>
@@ -32329,10 +32331,10 @@
         <v>1970</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D28" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E28" s="99">
         <v>42399</v>
@@ -32344,13 +32346,13 @@
         <v>2016</v>
       </c>
       <c r="B29" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D29" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E29" s="99">
         <v>42399</v>
@@ -32362,16 +32364,16 @@
         <v>2016</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D30" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E30" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F30" s="107"/>
     </row>
@@ -32383,10 +32385,10 @@
         <v>1970</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D31" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E31" s="99">
         <v>42400</v>
@@ -32401,13 +32403,13 @@
         <v>1970</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D32" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E32" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F32" s="107"/>
     </row>
@@ -32422,10 +32424,10 @@
         <v>1785</v>
       </c>
       <c r="D33" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E33" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F33" s="107"/>
     </row>
@@ -32440,10 +32442,10 @@
         <v>1785</v>
       </c>
       <c r="D34" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E34" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F34" s="107"/>
     </row>
@@ -32455,17 +32457,15 @@
         <v>1970</v>
       </c>
       <c r="C35" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D35" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E35" s="99">
         <v>42404</v>
       </c>
-      <c r="F35" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F35" s="107"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
@@ -32478,10 +32478,10 @@
         <v>1868</v>
       </c>
       <c r="D36" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E36" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F36" s="107" t="s">
         <v>1982</v>
@@ -32495,15 +32495,17 @@
         <v>1970</v>
       </c>
       <c r="C37" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D37" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E37" s="99">
         <v>42405</v>
       </c>
-      <c r="F37" s="107"/>
+      <c r="F37" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
@@ -32516,14 +32518,12 @@
         <v>1785</v>
       </c>
       <c r="D38" s="98">
-        <v>-53.3</v>
+        <v>-52.3</v>
       </c>
       <c r="E38" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F38" s="107" t="s">
-        <v>1982</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F38" s="107"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
@@ -32533,33 +32533,35 @@
         <v>1970</v>
       </c>
       <c r="C39" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D39" s="98">
-        <v>-52</v>
+        <v>-53.3</v>
       </c>
       <c r="E39" s="99">
         <v>42406</v>
       </c>
-      <c r="F39" s="107"/>
+      <c r="F39" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
         <v>2016</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D40" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E40" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F40" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F40" s="107"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
@@ -32572,10 +32574,10 @@
         <v>1790</v>
       </c>
       <c r="D41" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E41" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F41" s="106"/>
     </row>
@@ -32590,10 +32592,10 @@
         <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E42" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F42" s="106"/>
     </row>
@@ -32608,46 +32610,46 @@
         <v>1790</v>
       </c>
       <c r="D43" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E43" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C44" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E44" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D45" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E45" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F45" s="106"/>
     </row>
@@ -32656,13 +32658,13 @@
         <v>2018</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D46" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E46" s="99">
         <v>43123</v>
@@ -32674,16 +32676,16 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D47" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E47" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F47" s="106"/>
     </row>
@@ -32692,13 +32694,13 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D48" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E48" s="99">
         <v>43124</v>
@@ -32716,10 +32718,10 @@
         <v>1867</v>
       </c>
       <c r="D49" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E49" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F49" s="106"/>
     </row>
@@ -32728,13 +32730,13 @@
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D50" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E50" s="99">
         <v>43125</v>
@@ -32746,13 +32748,13 @@
         <v>2018</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D51" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E51" s="99">
         <v>43125</v>
@@ -32764,20 +32766,18 @@
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D52" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E52" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F52" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F52" s="106"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
@@ -32790,13 +32790,13 @@
         <v>1794</v>
       </c>
       <c r="D53" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E53" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E53" s="99">
+        <v>43126</v>
       </c>
       <c r="F53" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32804,19 +32804,19 @@
         <v>2018</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D54" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E54" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E54" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F54" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32824,34 +32824,36 @@
         <v>2018</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D55" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E55" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F55" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F55" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
         <v>2018</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D56" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E56" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E56" s="99">
+        <v>43127</v>
       </c>
       <c r="F56" s="106"/>
     </row>
@@ -32863,7 +32865,7 @@
         <v>1970</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D57" s="98">
         <v>-50</v>
@@ -32881,7 +32883,7 @@
         <v>1970</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D58" s="98">
         <v>-50</v>
@@ -32893,43 +32895,43 @@
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B59" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D59" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E59" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E59" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F59" s="106"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B60" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D60" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E60" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B61" s="96" t="s">
         <v>1788</v>
@@ -32938,45 +32940,45 @@
         <v>1784</v>
       </c>
       <c r="D61" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E61" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F61" s="106"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B62" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D62" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E62" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E62" s="99">
+        <v>44200</v>
+      </c>
       <c r="F62" s="106"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B63" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D63" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E63" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E63" s="99"/>
       <c r="F63" s="106"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32984,16 +32986,16 @@
         <v>2023</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D64" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E64" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F64" s="106"/>
     </row>
@@ -33007,47 +33009,47 @@
       <c r="C65" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D65" s="100">
-        <v>-50</v>
+      <c r="D65" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E65" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F65" s="106"/>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B66" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D66" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E66" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F66" s="106"/>
+    </row>
+    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="95">
         <v>2024</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D66" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E66" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F66" s="106"/>
-    </row>
-    <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="102">
-        <v>2025</v>
       </c>
       <c r="B67" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C67" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D67" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E67" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F67" s="106"/>
     </row>
@@ -33059,49 +33061,49 @@
         <v>1788</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D68" s="98">
         <v>-45.6</v>
       </c>
       <c r="E68" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F68" s="106"/>
     </row>
-    <row r="69" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="102">
         <v>2025</v>
       </c>
       <c r="B69" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C69" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D69" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E69" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F69" s="106"/>
+    </row>
+    <row r="70" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C69" s="97" t="s">
+      <c r="C70" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D69" s="98">
+      <c r="D70" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E69" s="101" t="s">
+      <c r="E70" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F69" s="106"/>
-    </row>
-    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B70" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C70" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D70" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E70" s="103">
-        <v>46039</v>
       </c>
       <c r="F70" s="106"/>
     </row>
@@ -33116,10 +33118,10 @@
         <v>1794</v>
       </c>
       <c r="D71" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E71" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F71" s="106"/>
     </row>
@@ -33131,15 +33133,33 @@
         <v>1970</v>
       </c>
       <c r="C72" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D72" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E72" s="103">
         <v>46040</v>
       </c>
       <c r="F72" s="106"/>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B73" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D73" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E73" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F73" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33147,7 +33167,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D72">
+  <conditionalFormatting sqref="D3:D73">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC412B0-BB27-490D-978A-709CAA53F5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BFD9D-C022-46A1-8AF3-67ECD1438636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1983">
   <si>
     <t>undefined</t>
   </si>
@@ -7806,6 +7806,15 @@
     <xf numFmtId="14" fontId="61" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7814,15 +7823,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8230,15 +8230,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
+      <c r="A1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31819,10 +31819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -31836,13 +31836,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>1975</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="105" t="s">
         <v>1787</v>
       </c>
@@ -31851,10 +31851,10 @@
       <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="110" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="113"/>
+      <c r="C2" s="110"/>
       <c r="D2" s="94" t="s">
         <v>1786</v>
       </c>
@@ -32055,21 +32055,23 @@
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="B13" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C13" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D13" s="98">
-        <v>-53.8</v>
+        <v>-50</v>
       </c>
       <c r="E13" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F13" s="107"/>
+        <v>40221</v>
+      </c>
+      <c r="F13" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
@@ -32082,10 +32084,10 @@
         <v>1785</v>
       </c>
       <c r="D14" s="98">
-        <v>-54</v>
+        <v>-53.8</v>
       </c>
       <c r="E14" s="99">
-        <v>38722</v>
+        <v>38721</v>
       </c>
       <c r="F14" s="107"/>
     </row>
@@ -32100,16 +32102,16 @@
         <v>1785</v>
       </c>
       <c r="D15" s="98">
-        <v>-52.1</v>
+        <v>-54</v>
       </c>
       <c r="E15" s="99">
-        <v>38723</v>
+        <v>38722</v>
       </c>
       <c r="F15" s="107"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="96" t="s">
         <v>1970</v>
@@ -32118,46 +32120,46 @@
         <v>1785</v>
       </c>
       <c r="D16" s="98">
-        <v>-50.2</v>
+        <v>-52.1</v>
       </c>
       <c r="E16" s="99">
-        <v>39480</v>
+        <v>38723</v>
       </c>
       <c r="F16" s="107"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B17" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C17" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D17" s="98">
         <v>-50.2</v>
       </c>
       <c r="E17" s="99">
-        <v>40563</v>
+        <v>39480</v>
       </c>
       <c r="F17" s="107"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B18" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C18" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D18" s="98">
-        <v>-50.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E18" s="99">
-        <v>42387</v>
+        <v>40563</v>
       </c>
       <c r="F18" s="107"/>
     </row>
@@ -32172,10 +32174,10 @@
         <v>1785</v>
       </c>
       <c r="D19" s="98">
-        <v>-50.4</v>
+        <v>-50.3</v>
       </c>
       <c r="E19" s="99">
-        <v>42392</v>
+        <v>42387</v>
       </c>
       <c r="F19" s="107"/>
     </row>
@@ -32190,10 +32192,10 @@
         <v>1785</v>
       </c>
       <c r="D20" s="98">
-        <v>-53.2</v>
+        <v>-50.4</v>
       </c>
       <c r="E20" s="99">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F20" s="107"/>
     </row>
@@ -32205,10 +32207,10 @@
         <v>1970</v>
       </c>
       <c r="C21" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D21" s="98">
-        <v>-50</v>
+        <v>-53.2</v>
       </c>
       <c r="E21" s="99">
         <v>42394</v>
@@ -32223,13 +32225,13 @@
         <v>1970</v>
       </c>
       <c r="C22" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D22" s="98">
-        <v>-53</v>
+        <v>-50</v>
       </c>
       <c r="E22" s="99">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F22" s="107"/>
     </row>
@@ -32244,10 +32246,10 @@
         <v>1785</v>
       </c>
       <c r="D23" s="98">
-        <v>-53.9</v>
+        <v>-53</v>
       </c>
       <c r="E23" s="99">
-        <v>42396</v>
+        <v>42395</v>
       </c>
       <c r="F23" s="107"/>
     </row>
@@ -32262,10 +32264,10 @@
         <v>1785</v>
       </c>
       <c r="D24" s="98">
-        <v>-55.3</v>
+        <v>-53.9</v>
       </c>
       <c r="E24" s="99">
-        <v>42397</v>
+        <v>42396</v>
       </c>
       <c r="F24" s="107"/>
     </row>
@@ -32280,10 +32282,10 @@
         <v>1785</v>
       </c>
       <c r="D25" s="98">
-        <v>-54.4</v>
+        <v>-55.3</v>
       </c>
       <c r="E25" s="99">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F25" s="107"/>
     </row>
@@ -32295,10 +32297,10 @@
         <v>1970</v>
       </c>
       <c r="C26" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D26" s="98">
-        <v>-51.9</v>
+        <v>-54.4</v>
       </c>
       <c r="E26" s="99">
         <v>42398</v>
@@ -32310,13 +32312,13 @@
         <v>2016</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D27" s="98">
-        <v>-50.2</v>
+        <v>-51.9</v>
       </c>
       <c r="E27" s="99">
         <v>42398</v>
@@ -32328,16 +32330,16 @@
         <v>2016</v>
       </c>
       <c r="B28" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D28" s="98">
-        <v>-55</v>
+        <v>-50.2</v>
       </c>
       <c r="E28" s="99">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F28" s="107"/>
     </row>
@@ -32349,10 +32351,10 @@
         <v>1970</v>
       </c>
       <c r="C29" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D29" s="98">
-        <v>-52.8</v>
+        <v>-55</v>
       </c>
       <c r="E29" s="99">
         <v>42399</v>
@@ -32364,13 +32366,13 @@
         <v>2016</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C30" s="97" t="s">
-        <v>1794</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="98">
-        <v>-50.7</v>
+        <v>-52.8</v>
       </c>
       <c r="E30" s="99">
         <v>42399</v>
@@ -32382,16 +32384,16 @@
         <v>2016</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C31" s="97" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D31" s="98">
-        <v>-51.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E31" s="99">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F31" s="107"/>
     </row>
@@ -32403,10 +32405,10 @@
         <v>1970</v>
       </c>
       <c r="C32" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D32" s="98">
-        <v>-51.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E32" s="99">
         <v>42400</v>
@@ -32421,13 +32423,13 @@
         <v>1970</v>
       </c>
       <c r="C33" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D33" s="98">
-        <v>-50.5</v>
+        <v>-51.5</v>
       </c>
       <c r="E33" s="99">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F33" s="107"/>
     </row>
@@ -32442,10 +32444,10 @@
         <v>1785</v>
       </c>
       <c r="D34" s="98">
-        <v>-50.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E34" s="99">
-        <v>42403</v>
+        <v>42401</v>
       </c>
       <c r="F34" s="107"/>
     </row>
@@ -32460,10 +32462,10 @@
         <v>1785</v>
       </c>
       <c r="D35" s="98">
-        <v>-53.2</v>
+        <v>-50.2</v>
       </c>
       <c r="E35" s="99">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F35" s="107"/>
     </row>
@@ -32475,17 +32477,15 @@
         <v>1970</v>
       </c>
       <c r="C36" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D36" s="98">
-        <v>-51</v>
+        <v>-53.2</v>
       </c>
       <c r="E36" s="99">
         <v>42404</v>
       </c>
-      <c r="F36" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F36" s="107"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32498,10 +32498,10 @@
         <v>1868</v>
       </c>
       <c r="D37" s="98">
-        <v>-52.9</v>
+        <v>-51</v>
       </c>
       <c r="E37" s="99">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F37" s="107" t="s">
         <v>1982</v>
@@ -32515,15 +32515,17 @@
         <v>1970</v>
       </c>
       <c r="C38" s="97" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D38" s="98">
-        <v>-52.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E38" s="99">
         <v>42405</v>
       </c>
-      <c r="F38" s="107"/>
+      <c r="F38" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
@@ -32536,14 +32538,12 @@
         <v>1785</v>
       </c>
       <c r="D39" s="98">
-        <v>-53.3</v>
+        <v>-52.3</v>
       </c>
       <c r="E39" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F39" s="107" t="s">
-        <v>1982</v>
-      </c>
+        <v>42405</v>
+      </c>
+      <c r="F39" s="107"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
@@ -32553,33 +32553,35 @@
         <v>1970</v>
       </c>
       <c r="C40" s="97" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D40" s="98">
-        <v>-52</v>
+        <v>-53.3</v>
       </c>
       <c r="E40" s="99">
         <v>42406</v>
       </c>
-      <c r="F40" s="107"/>
+      <c r="F40" s="107" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
         <v>2016</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C41" s="97" t="s">
-        <v>1790</v>
+        <v>1868</v>
       </c>
       <c r="D41" s="98">
-        <v>-54.7</v>
+        <v>-52</v>
       </c>
       <c r="E41" s="99">
-        <v>42412</v>
-      </c>
-      <c r="F41" s="106"/>
+        <v>42406</v>
+      </c>
+      <c r="F41" s="107"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
@@ -32592,10 +32594,10 @@
         <v>1790</v>
       </c>
       <c r="D42" s="98">
-        <v>-50.3</v>
+        <v>-54.7</v>
       </c>
       <c r="E42" s="99">
-        <v>42437</v>
+        <v>42412</v>
       </c>
       <c r="F42" s="106"/>
     </row>
@@ -32610,10 +32612,10 @@
         <v>1790</v>
       </c>
       <c r="D43" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E43" s="99">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F43" s="106"/>
     </row>
@@ -32628,46 +32630,46 @@
         <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E44" s="99">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F44" s="106"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C45" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D45" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E45" s="99">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F45" s="106"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D46" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E46" s="99">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F46" s="106"/>
     </row>
@@ -32676,13 +32678,13 @@
         <v>2018</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D47" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E47" s="99">
         <v>43123</v>
@@ -32694,16 +32696,16 @@
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D48" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E48" s="99">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F48" s="106"/>
     </row>
@@ -32712,13 +32714,13 @@
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D49" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E49" s="99">
         <v>43124</v>
@@ -32736,10 +32738,10 @@
         <v>1867</v>
       </c>
       <c r="D50" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E50" s="99">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F50" s="106"/>
     </row>
@@ -32748,13 +32750,13 @@
         <v>2018</v>
       </c>
       <c r="B51" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C51" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D51" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E51" s="99">
         <v>43125</v>
@@ -32766,13 +32768,13 @@
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D52" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E52" s="99">
         <v>43125</v>
@@ -32784,20 +32786,18 @@
         <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1794</v>
+        <v>1981</v>
       </c>
       <c r="D53" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E53" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F53" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F53" s="106"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
@@ -32810,13 +32810,13 @@
         <v>1794</v>
       </c>
       <c r="D54" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E54" s="99" t="s">
-        <v>1977</v>
+        <v>-49.9</v>
+      </c>
+      <c r="E54" s="99">
+        <v>43126</v>
       </c>
       <c r="F54" s="106" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32824,19 +32824,19 @@
         <v>2018</v>
       </c>
       <c r="B55" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C55" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D55" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E55" s="99">
-        <v>43126</v>
+        <v>-50</v>
+      </c>
+      <c r="E55" s="99" t="s">
+        <v>1977</v>
       </c>
       <c r="F55" s="106" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32844,34 +32844,36 @@
         <v>2018</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D56" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E56" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F56" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F56" s="106" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
         <v>2018</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D57" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E57" s="99" t="s">
-        <v>1973</v>
+        <v>-51.8</v>
+      </c>
+      <c r="E57" s="99">
+        <v>43127</v>
       </c>
       <c r="F57" s="106"/>
     </row>
@@ -32883,7 +32885,7 @@
         <v>1970</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D58" s="98">
         <v>-50</v>
@@ -32901,7 +32903,7 @@
         <v>1970</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D59" s="98">
         <v>-50</v>
@@ -32913,43 +32915,43 @@
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B60" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D60" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E60" s="99">
-        <v>43828</v>
+        <v>-50</v>
+      </c>
+      <c r="E60" s="99" t="s">
+        <v>1973</v>
       </c>
       <c r="F60" s="106"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B61" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D61" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E61" s="99">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F61" s="106"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B62" s="96" t="s">
         <v>1788</v>
@@ -32958,45 +32960,45 @@
         <v>1784</v>
       </c>
       <c r="D62" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E62" s="99">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F62" s="106"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B63" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C63" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D63" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E63" s="99"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E63" s="99">
+        <v>44200</v>
+      </c>
       <c r="F63" s="106"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B64" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D64" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E64" s="99">
-        <v>44949</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E64" s="99"/>
       <c r="F64" s="106"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -33004,16 +33006,16 @@
         <v>2023</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D65" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E65" s="99">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F65" s="106"/>
     </row>
@@ -33027,47 +33029,47 @@
       <c r="C66" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D66" s="100">
-        <v>-50</v>
+      <c r="D66" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E66" s="99">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F66" s="106"/>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B67" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D67" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E67" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F67" s="106"/>
+    </row>
+    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="95">
         <v>2024</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D67" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E67" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F67" s="106"/>
-    </row>
-    <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="102">
-        <v>2025</v>
       </c>
       <c r="B68" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C68" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D68" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E68" s="99">
-        <v>45659</v>
+        <v>45312</v>
       </c>
       <c r="F68" s="106"/>
     </row>
@@ -33079,49 +33081,49 @@
         <v>1788</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D69" s="98">
         <v>-45.6</v>
       </c>
       <c r="E69" s="99">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F69" s="106"/>
     </row>
-    <row r="70" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="102">
         <v>2025</v>
       </c>
       <c r="B70" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C70" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D70" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E70" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F70" s="106"/>
+    </row>
+    <row r="71" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="102">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C70" s="97" t="s">
+      <c r="C71" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D70" s="98">
+      <c r="D71" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E70" s="101" t="s">
+      <c r="E71" s="101" t="s">
         <v>1974</v>
-      </c>
-      <c r="F70" s="106"/>
-    </row>
-    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B71" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C71" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D71" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E71" s="103">
-        <v>46039</v>
       </c>
       <c r="F71" s="106"/>
     </row>
@@ -33136,10 +33138,10 @@
         <v>1794</v>
       </c>
       <c r="D72" s="98">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E72" s="103">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F72" s="106"/>
     </row>
@@ -33151,15 +33153,33 @@
         <v>1970</v>
       </c>
       <c r="C73" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D73" s="98">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E73" s="103">
         <v>46040</v>
       </c>
       <c r="F73" s="106"/>
+    </row>
+    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="102">
+        <v>2026</v>
+      </c>
+      <c r="B74" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D74" s="98">
+        <v>-51.1</v>
+      </c>
+      <c r="E74" s="103">
+        <v>46040</v>
+      </c>
+      <c r="F74" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33167,8 +33187,8 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D73">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="D3:D74">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104BFD9D-C022-46A1-8AF3-67ECD1438636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0D81C-86FB-42EB-90D8-B3802072B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="1983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1985">
   <si>
     <t>undefined</t>
   </si>
@@ -6578,6 +6578,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>库苏古尔省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-01-26(?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻页提及的夜温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换站记录 -49.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>托孙臣格勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东戈壁气象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙古气象官方FB号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">蒙古站点低温收集(部分)
 </t>
@@ -6592,7 +6628,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>蒙古气象不更新早8点之后的低温，表中有些低温并不是当天最低</t>
+      <t>蒙古气象不更新早8点之后的低温，表中有些低温不是当天最低</t>
     </r>
     <r>
       <rPr>
@@ -6621,34 +6657,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>库苏古尔省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-01-26(?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古官网的夜温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻页提及的夜温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换站记录 -49.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>托孙臣格勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒙古气象官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -6662,7 +6670,7 @@
     <numFmt numFmtId="180" formatCode="#\ ???/???"/>
     <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6758,15 +6766,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="等线"/>
       <family val="3"/>
@@ -7566,55 +7565,55 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="17" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="20" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="23" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="25" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="21" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="22" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="24" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7626,64 +7625,64 @@
     <xf numFmtId="178" fontId="2" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="20" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="23" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="43" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="42" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7692,19 +7691,19 @@
     <xf numFmtId="178" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="178" fontId="45" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="44" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="46" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="47" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="48" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="48" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="47" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7713,14 +7712,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="49" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="48" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="49" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="48" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="50" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="49" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7728,91 +7730,82 @@
     <xf numFmtId="0" fontId="52" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="15" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="178" fontId="58" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="57" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="16" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="18" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="19" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="20" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="181" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="61" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="60" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7824,28 +7817,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7863,11 +7856,17 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8230,15 +8229,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="111"/>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="113"/>
+      <c r="A1" s="109"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="111"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31819,10 +31818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -31831,19 +31830,19 @@
     <col min="3" max="3" width="22.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="27" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="104" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="103" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="108" t="s">
-        <v>1975</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="105" t="s">
+      <c r="A1" s="106" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="127" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -31851,17 +31850,17 @@
       <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="108" t="s">
         <v>1775</v>
       </c>
-      <c r="C2" s="110"/>
+      <c r="C2" s="108"/>
       <c r="D2" s="94" t="s">
         <v>1786</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>1787</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="95">
@@ -31879,7 +31878,7 @@
       <c r="E3" s="99">
         <v>24467</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="105"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="95">
@@ -31889,7 +31888,7 @@
         <v>1970</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D4" s="98">
         <v>-53</v>
@@ -31897,7 +31896,7 @@
       <c r="E4" s="99">
         <v>25234</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95">
@@ -31915,14 +31914,14 @@
       <c r="E5" s="99">
         <v>28125</v>
       </c>
-      <c r="F5" s="107"/>
+      <c r="F5" s="105"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="95">
         <v>2000</v>
       </c>
       <c r="B6" s="96" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C6" s="97" t="s">
         <v>1865</v>
@@ -31933,7 +31932,7 @@
       <c r="E6" s="99">
         <v>36531</v>
       </c>
-      <c r="F6" s="107"/>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="95">
@@ -31943,7 +31942,7 @@
         <v>1970</v>
       </c>
       <c r="C7" s="97" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="D7" s="98">
         <v>-50</v>
@@ -31951,7 +31950,7 @@
       <c r="E7" s="99">
         <v>36899</v>
       </c>
-      <c r="F7" s="107"/>
+      <c r="F7" s="105"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="95">
@@ -31969,9 +31968,7 @@
       <c r="E8" s="99">
         <v>38389</v>
       </c>
-      <c r="F8" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="95">
@@ -31989,9 +31986,7 @@
       <c r="E9" s="99">
         <v>38390</v>
       </c>
-      <c r="F9" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F9" s="105"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="95">
@@ -32009,9 +32004,7 @@
       <c r="E10" s="99">
         <v>38391</v>
       </c>
-      <c r="F10" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F10" s="105"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
@@ -32029,9 +32022,7 @@
       <c r="E11" s="99">
         <v>38392</v>
       </c>
-      <c r="F11" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
@@ -32049,9 +32040,7 @@
       <c r="E12" s="99">
         <v>38393</v>
       </c>
-      <c r="F12" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
@@ -32069,9 +32058,7 @@
       <c r="E13" s="99">
         <v>40221</v>
       </c>
-      <c r="F13" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F13" s="105"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
@@ -32089,7 +32076,7 @@
       <c r="E14" s="99">
         <v>38721</v>
       </c>
-      <c r="F14" s="107"/>
+      <c r="F14" s="105"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
@@ -32107,7 +32094,7 @@
       <c r="E15" s="99">
         <v>38722</v>
       </c>
-      <c r="F15" s="107"/>
+      <c r="F15" s="105"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
@@ -32125,7 +32112,7 @@
       <c r="E16" s="99">
         <v>38723</v>
       </c>
-      <c r="F16" s="107"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
@@ -32143,7 +32130,7 @@
       <c r="E17" s="99">
         <v>39480</v>
       </c>
-      <c r="F17" s="107"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
@@ -32161,7 +32148,7 @@
       <c r="E18" s="99">
         <v>40563</v>
       </c>
-      <c r="F18" s="107"/>
+      <c r="F18" s="105"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="95">
@@ -32179,7 +32166,7 @@
       <c r="E19" s="99">
         <v>42387</v>
       </c>
-      <c r="F19" s="107"/>
+      <c r="F19" s="105"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="95">
@@ -32197,7 +32184,7 @@
       <c r="E20" s="99">
         <v>42392</v>
       </c>
-      <c r="F20" s="107"/>
+      <c r="F20" s="105"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="95">
@@ -32215,7 +32202,7 @@
       <c r="E21" s="99">
         <v>42394</v>
       </c>
-      <c r="F21" s="107"/>
+      <c r="F21" s="105"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="95">
@@ -32233,7 +32220,7 @@
       <c r="E22" s="99">
         <v>42394</v>
       </c>
-      <c r="F22" s="107"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="95">
@@ -32251,7 +32238,7 @@
       <c r="E23" s="99">
         <v>42395</v>
       </c>
-      <c r="F23" s="107"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="95">
@@ -32269,7 +32256,7 @@
       <c r="E24" s="99">
         <v>42396</v>
       </c>
-      <c r="F24" s="107"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="95">
@@ -32287,7 +32274,7 @@
       <c r="E25" s="99">
         <v>42397</v>
       </c>
-      <c r="F25" s="107"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="95">
@@ -32305,7 +32292,7 @@
       <c r="E26" s="99">
         <v>42398</v>
       </c>
-      <c r="F26" s="107"/>
+      <c r="F26" s="105"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="95">
@@ -32323,7 +32310,7 @@
       <c r="E27" s="99">
         <v>42398</v>
       </c>
-      <c r="F27" s="107"/>
+      <c r="F27" s="105"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="95">
@@ -32341,7 +32328,7 @@
       <c r="E28" s="99">
         <v>42398</v>
       </c>
-      <c r="F28" s="107"/>
+      <c r="F28" s="105"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="95">
@@ -32359,7 +32346,7 @@
       <c r="E29" s="99">
         <v>42399</v>
       </c>
-      <c r="F29" s="107"/>
+      <c r="F29" s="105"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="95">
@@ -32377,7 +32364,7 @@
       <c r="E30" s="99">
         <v>42399</v>
       </c>
-      <c r="F30" s="107"/>
+      <c r="F30" s="105"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95">
@@ -32395,7 +32382,7 @@
       <c r="E31" s="99">
         <v>42399</v>
       </c>
-      <c r="F31" s="107"/>
+      <c r="F31" s="105"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
@@ -32413,7 +32400,7 @@
       <c r="E32" s="99">
         <v>42400</v>
       </c>
-      <c r="F32" s="107"/>
+      <c r="F32" s="105"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
@@ -32431,7 +32418,7 @@
       <c r="E33" s="99">
         <v>42400</v>
       </c>
-      <c r="F33" s="107"/>
+      <c r="F33" s="105"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
@@ -32449,7 +32436,7 @@
       <c r="E34" s="99">
         <v>42401</v>
       </c>
-      <c r="F34" s="107"/>
+      <c r="F34" s="105"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
@@ -32467,7 +32454,7 @@
       <c r="E35" s="99">
         <v>42403</v>
       </c>
-      <c r="F35" s="107"/>
+      <c r="F35" s="105"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
@@ -32485,7 +32472,7 @@
       <c r="E36" s="99">
         <v>42404</v>
       </c>
-      <c r="F36" s="107"/>
+      <c r="F36" s="105"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
@@ -32503,9 +32490,7 @@
       <c r="E37" s="99">
         <v>42404</v>
       </c>
-      <c r="F37" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F37" s="105"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
@@ -32523,9 +32508,7 @@
       <c r="E38" s="99">
         <v>42405</v>
       </c>
-      <c r="F38" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F38" s="105"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
@@ -32543,7 +32526,7 @@
       <c r="E39" s="99">
         <v>42405</v>
       </c>
-      <c r="F39" s="107"/>
+      <c r="F39" s="105"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
@@ -32561,9 +32544,7 @@
       <c r="E40" s="99">
         <v>42406</v>
       </c>
-      <c r="F40" s="107" t="s">
-        <v>1982</v>
-      </c>
+      <c r="F40" s="105"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
@@ -32581,7 +32562,7 @@
       <c r="E41" s="99">
         <v>42406</v>
       </c>
-      <c r="F41" s="107"/>
+      <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
@@ -32599,25 +32580,25 @@
       <c r="E42" s="99">
         <v>42412</v>
       </c>
-      <c r="F42" s="106"/>
+      <c r="F42" s="104"/>
     </row>
     <row r="43" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="95">
         <v>2016</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C43" s="97" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D43" s="98">
-        <v>-50.3</v>
+        <v>-53</v>
       </c>
       <c r="E43" s="99">
-        <v>42437</v>
-      </c>
-      <c r="F43" s="106"/>
+        <v>42413</v>
+      </c>
+      <c r="F43" s="104"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
@@ -32630,12 +32611,12 @@
         <v>1790</v>
       </c>
       <c r="D44" s="98">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E44" s="99">
-        <v>42438</v>
-      </c>
-      <c r="F44" s="106"/>
+        <v>42437</v>
+      </c>
+      <c r="F44" s="104"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
@@ -32648,102 +32629,102 @@
         <v>1790</v>
       </c>
       <c r="D45" s="98">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E45" s="99">
-        <v>42439</v>
-      </c>
-      <c r="F45" s="106"/>
+        <v>42438</v>
+      </c>
+      <c r="F45" s="104"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C46" s="97" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D46" s="98">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E46" s="99">
-        <v>42763</v>
-      </c>
-      <c r="F46" s="106"/>
+        <v>42439</v>
+      </c>
+      <c r="F46" s="104"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B47" s="96" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C47" s="97" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D47" s="98">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E47" s="99">
-        <v>43123</v>
-      </c>
-      <c r="F47" s="106"/>
+        <v>42763</v>
+      </c>
+      <c r="F47" s="104"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="95">
         <v>2018</v>
       </c>
       <c r="B48" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D48" s="98">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E48" s="99">
         <v>43123</v>
       </c>
-      <c r="F48" s="106"/>
+      <c r="F48" s="104"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
         <v>2018</v>
       </c>
       <c r="B49" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C49" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D49" s="98">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E49" s="99">
-        <v>43124</v>
-      </c>
-      <c r="F49" s="106"/>
+        <v>43123</v>
+      </c>
+      <c r="F49" s="104"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
         <v>2018</v>
       </c>
       <c r="B50" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C50" s="97" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D50" s="98">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E50" s="99">
         <v>43124</v>
       </c>
-      <c r="F50" s="106"/>
+      <c r="F50" s="104"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
@@ -32756,68 +32737,66 @@
         <v>1867</v>
       </c>
       <c r="D51" s="98">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E51" s="99">
-        <v>43125</v>
-      </c>
-      <c r="F51" s="106"/>
+        <v>43124</v>
+      </c>
+      <c r="F51" s="104"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
         <v>2018</v>
       </c>
       <c r="B52" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C52" s="97" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D52" s="98">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E52" s="99">
         <v>43125</v>
       </c>
-      <c r="F52" s="106"/>
+      <c r="F52" s="104"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
         <v>2018</v>
       </c>
       <c r="B53" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>1981</v>
+        <v>1790</v>
       </c>
       <c r="D53" s="98">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E53" s="99">
         <v>43125</v>
       </c>
-      <c r="F53" s="106"/>
+      <c r="F53" s="104"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
         <v>2018</v>
       </c>
       <c r="B54" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>1794</v>
+        <v>1979</v>
       </c>
       <c r="D54" s="98">
-        <v>-49.9</v>
+        <v>-50.3</v>
       </c>
       <c r="E54" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F54" s="106" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F54" s="104"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
@@ -32830,33 +32809,31 @@
         <v>1794</v>
       </c>
       <c r="D55" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E55" s="99" t="s">
-        <v>1977</v>
-      </c>
-      <c r="F55" s="106" t="s">
-        <v>1979</v>
-      </c>
+        <v>-49.9</v>
+      </c>
+      <c r="E55" s="99">
+        <v>43126</v>
+      </c>
+      <c r="F55" s="104"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
         <v>2018</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C56" s="97" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D56" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E56" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F56" s="106" t="s">
-        <v>1980</v>
+        <v>-50</v>
+      </c>
+      <c r="E56" s="99" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F56" s="104" t="s">
+        <v>1977</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -32864,36 +32841,38 @@
         <v>2018</v>
       </c>
       <c r="B57" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C57" s="97" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D57" s="98">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E57" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F57" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="F57" s="104" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
         <v>2018</v>
       </c>
       <c r="B58" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D58" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E58" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F58" s="106"/>
+        <v>-51.8</v>
+      </c>
+      <c r="E58" s="99">
+        <v>43127</v>
+      </c>
+      <c r="F58" s="104"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
@@ -32903,7 +32882,7 @@
         <v>1970</v>
       </c>
       <c r="C59" s="97" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D59" s="98">
         <v>-50</v>
@@ -32911,7 +32890,9 @@
       <c r="E59" s="99" t="s">
         <v>1973</v>
       </c>
-      <c r="F59" s="106"/>
+      <c r="F59" s="104" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
@@ -32921,7 +32902,7 @@
         <v>1970</v>
       </c>
       <c r="C60" s="97" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D60" s="98">
         <v>-50</v>
@@ -32929,47 +32910,51 @@
       <c r="E60" s="99" t="s">
         <v>1973</v>
       </c>
-      <c r="F60" s="106"/>
+      <c r="F60" s="104" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B61" s="96" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C61" s="97" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D61" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E61" s="99">
-        <v>43828</v>
-      </c>
-      <c r="F61" s="106"/>
+        <v>-50</v>
+      </c>
+      <c r="E61" s="99" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F61" s="104" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B62" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C62" s="97" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D62" s="98">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E62" s="99">
-        <v>44194</v>
-      </c>
-      <c r="F62" s="106"/>
+        <v>43828</v>
+      </c>
+      <c r="F62" s="104"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B63" s="96" t="s">
         <v>1788</v>
@@ -32978,64 +32963,66 @@
         <v>1784</v>
       </c>
       <c r="D63" s="98">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E63" s="99">
-        <v>44200</v>
-      </c>
-      <c r="F63" s="106"/>
+        <v>44194</v>
+      </c>
+      <c r="F63" s="104"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B64" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C64" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D64" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E64" s="99"/>
-      <c r="F64" s="106"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E64" s="99">
+        <v>44200</v>
+      </c>
+      <c r="F64" s="104"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C65" s="97" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D65" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E65" s="99">
-        <v>44949</v>
-      </c>
-      <c r="F65" s="106"/>
+        <v>-46.8</v>
+      </c>
+      <c r="E65" s="99"/>
+      <c r="F65" s="104"/>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="95">
         <v>2023</v>
       </c>
       <c r="B66" s="96" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C66" s="97" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D66" s="98">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E66" s="99">
-        <v>45279</v>
-      </c>
-      <c r="F66" s="106"/>
+        <v>44949</v>
+      </c>
+      <c r="F66" s="104" t="s">
+        <v>1982</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
@@ -33047,106 +33034,116 @@
       <c r="C67" s="97" t="s">
         <v>1948</v>
       </c>
-      <c r="D67" s="100">
-        <v>-50</v>
+      <c r="D67" s="98">
+        <v>-49.4</v>
       </c>
       <c r="E67" s="99">
-        <v>45280</v>
-      </c>
-      <c r="F67" s="106"/>
+        <v>45279</v>
+      </c>
+      <c r="F67" s="104" t="s">
+        <v>1981</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B68" s="96" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C68" s="97" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D68" s="100">
+        <v>-50</v>
+      </c>
+      <c r="E68" s="99">
+        <v>45280</v>
+      </c>
+      <c r="F68" s="104" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="95">
         <v>2024</v>
-      </c>
-      <c r="B68" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D68" s="98">
-        <v>-48.8</v>
-      </c>
-      <c r="E68" s="99">
-        <v>45312</v>
-      </c>
-      <c r="F68" s="106"/>
-    </row>
-    <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="102">
-        <v>2025</v>
       </c>
       <c r="B69" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C69" s="97" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D69" s="98">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E69" s="99">
-        <v>45659</v>
-      </c>
-      <c r="F69" s="106"/>
+        <v>45312</v>
+      </c>
+      <c r="F69" s="104"/>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="102">
+      <c r="A70" s="101">
         <v>2025</v>
       </c>
       <c r="B70" s="96" t="s">
         <v>1788</v>
       </c>
       <c r="C70" s="97" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D70" s="98">
         <v>-45.6</v>
       </c>
       <c r="E70" s="99">
+        <v>45659</v>
+      </c>
+      <c r="F70" s="104" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="101">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="96" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C71" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D71" s="98">
+        <v>-45.6</v>
+      </c>
+      <c r="E71" s="99">
         <v>45673</v>
       </c>
-      <c r="F70" s="106"/>
-    </row>
-    <row r="71" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="102">
+      <c r="F71" s="104" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="101">
         <v>2025</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B72" s="96" t="s">
         <v>1789</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="C72" s="97" t="s">
         <v>1793</v>
       </c>
-      <c r="D71" s="98">
+      <c r="D72" s="98">
         <v>-44.2</v>
       </c>
-      <c r="E71" s="101" t="s">
+      <c r="E72" s="99">
+        <v>45673</v>
+      </c>
+      <c r="F72" s="128" t="s">
         <v>1974</v>
       </c>
-      <c r="F71" s="106"/>
-    </row>
-    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="102">
-        <v>2026</v>
-      </c>
-      <c r="B72" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C72" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D72" s="98">
-        <v>-51.2</v>
-      </c>
-      <c r="E72" s="103">
-        <v>46039</v>
-      </c>
-      <c r="F72" s="106"/>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="102">
+      <c r="A73" s="101">
         <v>2026</v>
       </c>
       <c r="B73" s="96" t="s">
@@ -33156,30 +33153,54 @@
         <v>1794</v>
       </c>
       <c r="D73" s="98">
-        <v>-52</v>
-      </c>
-      <c r="E73" s="103">
-        <v>46040</v>
-      </c>
-      <c r="F73" s="106"/>
+        <v>-51.2</v>
+      </c>
+      <c r="E73" s="102">
+        <v>46039</v>
+      </c>
+      <c r="F73" s="104" t="s">
+        <v>1980</v>
+      </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="102">
+      <c r="A74" s="101">
         <v>2026</v>
       </c>
       <c r="B74" s="96" t="s">
         <v>1970</v>
       </c>
       <c r="C74" s="97" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D74" s="98">
+        <v>-52</v>
+      </c>
+      <c r="E74" s="102">
+        <v>46040</v>
+      </c>
+      <c r="F74" s="104" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="101">
+        <v>2026</v>
+      </c>
+      <c r="B75" s="96" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C75" s="97" t="s">
         <v>1867</v>
       </c>
-      <c r="D74" s="98">
+      <c r="D75" s="98">
         <v>-51.1</v>
       </c>
-      <c r="E74" s="103">
+      <c r="E75" s="102">
         <v>46040</v>
       </c>
-      <c r="F74" s="106"/>
+      <c r="F75" s="104" t="s">
+        <v>1980</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -33187,7 +33208,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D74">
+  <conditionalFormatting sqref="D3:D75">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -33221,12 +33242,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
@@ -33527,29 +33548,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="113" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="118" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="116" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="114" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="118" t="s">
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
         <v>1943</v>
       </c>
-      <c r="F2" s="119"/>
+      <c r="F2" s="117"/>
       <c r="G2" s="52" t="s">
         <v>1945</v>
       </c>
@@ -34636,32 +34657,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="120" t="s">
         <v>1968</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="122" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="124"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="85" t="s">
         <v>1964</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="123" t="s">
         <v>1969</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="125" t="s">
         <v>1967</v>
       </c>
-      <c r="G2" s="128"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="58" t="s">

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0D81C-86FB-42EB-90D8-B3802072B4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C6B67-6B2D-469D-899D-4394806418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="极端冷月平均气温" sheetId="4" r:id="rId4"/>
     <sheet name="寒冷爆发力" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$77</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1987">
   <si>
     <t>undefined</t>
   </si>
@@ -6655,6 +6658,14 @@
       </rPr>
       <t>表中站点全部位于定居点，e.g. 东戈壁人口2792，uvs特斯人口5223</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7480,7 +7491,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7769,9 +7780,6 @@
     <xf numFmtId="0" fontId="57" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7799,14 +7807,17 @@
     <xf numFmtId="14" fontId="60" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7862,11 +7873,17 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31818,7 +31835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31826,23 +31843,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="12.59765625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="130" customWidth="1"/>
     <col min="3" max="3" width="22.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="27" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="24.59765625" style="103" customWidth="1"/>
+    <col min="6" max="6" width="24.59765625" style="102" customWidth="1"/>
     <col min="7" max="16384" width="9.06640625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>1984</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="127" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="105" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -31850,735 +31868,737 @@
       <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="108" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C2" s="108"/>
+      <c r="B2" s="128" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C2" s="127" t="s">
+        <v>1985</v>
+      </c>
       <c r="D2" s="94" t="s">
         <v>1786</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>1787</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="103"/>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="95">
         <v>1966</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="96" t="s">
         <v>1948</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="97">
         <v>-55.6</v>
       </c>
-      <c r="E3" s="99">
+      <c r="E3" s="98">
         <v>24467</v>
       </c>
-      <c r="F3" s="105"/>
+      <c r="F3" s="104"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="95">
         <v>1969</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="96" t="s">
         <v>1979</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="97">
         <v>-53</v>
       </c>
-      <c r="E4" s="99">
+      <c r="E4" s="98">
         <v>25234</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="104"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="95">
         <v>1976</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="96" t="s">
         <v>1948</v>
       </c>
-      <c r="D5" s="98">
+      <c r="D5" s="97">
         <v>-55.3</v>
       </c>
-      <c r="E5" s="99">
+      <c r="E5" s="98">
         <v>28125</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="104"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="95">
         <v>2000</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="129" t="s">
         <v>1975</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="96" t="s">
         <v>1865</v>
       </c>
-      <c r="D6" s="98">
+      <c r="D6" s="97">
         <v>-50.4</v>
       </c>
-      <c r="E6" s="99">
+      <c r="E6" s="98">
         <v>36531</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="104"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="95">
         <v>2001</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="96" t="s">
         <v>1979</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="97">
         <v>-50</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="98">
         <v>36899</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="104"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="95">
         <v>2005</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D8" s="98">
+      <c r="D8" s="97">
         <v>-50</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="98">
         <v>38389</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="104"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="95">
         <v>2005</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="97">
         <v>-50</v>
       </c>
-      <c r="E9" s="99">
+      <c r="E9" s="98">
         <v>38390</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="104"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="95">
         <v>2005</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="97">
         <v>-50.1</v>
       </c>
-      <c r="E10" s="99">
+      <c r="E10" s="98">
         <v>38391</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="104"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="95">
         <v>2005</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="97">
         <v>-50.5</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="98">
         <v>38392</v>
       </c>
-      <c r="F11" s="105"/>
+      <c r="F11" s="104"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="95">
         <v>2005</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D12" s="98">
+      <c r="D12" s="97">
         <v>-49.7</v>
       </c>
-      <c r="E12" s="99">
+      <c r="E12" s="98">
         <v>38393</v>
       </c>
-      <c r="F12" s="105"/>
+      <c r="F12" s="104"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
         <v>2010</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="129" t="s">
         <v>1947</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D13" s="98">
+      <c r="D13" s="97">
         <v>-50</v>
       </c>
-      <c r="E13" s="99">
+      <c r="E13" s="98">
         <v>40221</v>
       </c>
-      <c r="F13" s="105"/>
+      <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2006</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C14" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D14" s="98">
-        <v>-53.8</v>
-      </c>
-      <c r="E14" s="99">
-        <v>38721</v>
-      </c>
-      <c r="F14" s="105"/>
+        <v>2010</v>
+      </c>
+      <c r="B14" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D14" s="97">
+        <v>-49.9</v>
+      </c>
+      <c r="E14" s="98">
+        <v>40223</v>
+      </c>
+      <c r="F14" s="104"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="95">
         <v>2006</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D15" s="98">
-        <v>-54</v>
-      </c>
-      <c r="E15" s="99">
-        <v>38722</v>
-      </c>
-      <c r="F15" s="105"/>
+      <c r="D15" s="97">
+        <v>-53.8</v>
+      </c>
+      <c r="E15" s="98">
+        <v>38721</v>
+      </c>
+      <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
         <v>2006</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C16" s="97" t="s">
+      <c r="C16" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D16" s="98">
-        <v>-52.1</v>
-      </c>
-      <c r="E16" s="99">
-        <v>38723</v>
-      </c>
-      <c r="F16" s="105"/>
+      <c r="D16" s="97">
+        <v>-54</v>
+      </c>
+      <c r="E16" s="98">
+        <v>38722</v>
+      </c>
+      <c r="F16" s="104"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
-        <v>2008</v>
-      </c>
-      <c r="B17" s="96" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D17" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E17" s="99">
-        <v>39480</v>
-      </c>
-      <c r="F17" s="105"/>
+      <c r="D17" s="97">
+        <v>-52.1</v>
+      </c>
+      <c r="E17" s="98">
+        <v>38723</v>
+      </c>
+      <c r="F17" s="104"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
-        <v>2011</v>
-      </c>
-      <c r="B18" s="96" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B18" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C18" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D18" s="98">
+      <c r="C18" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D18" s="97">
         <v>-50.2</v>
       </c>
-      <c r="E18" s="99">
-        <v>40563</v>
-      </c>
-      <c r="F18" s="105"/>
+      <c r="E18" s="98">
+        <v>39480</v>
+      </c>
+      <c r="F18" s="104"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="95">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="96" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B19" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D19" s="98">
-        <v>-50.3</v>
-      </c>
-      <c r="E19" s="99">
-        <v>42387</v>
-      </c>
-      <c r="F19" s="105"/>
+      <c r="C19" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D19" s="97">
+        <v>-50.2</v>
+      </c>
+      <c r="E19" s="98">
+        <v>40563</v>
+      </c>
+      <c r="F19" s="104"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="95">
         <v>2016</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C20" s="97" t="s">
+      <c r="C20" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D20" s="98">
-        <v>-50.4</v>
-      </c>
-      <c r="E20" s="99">
-        <v>42392</v>
-      </c>
-      <c r="F20" s="105"/>
+      <c r="D20" s="97">
+        <v>-50.3</v>
+      </c>
+      <c r="E20" s="98">
+        <v>42387</v>
+      </c>
+      <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="95">
         <v>2016</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D21" s="98">
-        <v>-53.2</v>
-      </c>
-      <c r="E21" s="99">
-        <v>42394</v>
-      </c>
-      <c r="F21" s="105"/>
+      <c r="D21" s="97">
+        <v>-50.4</v>
+      </c>
+      <c r="E21" s="98">
+        <v>42392</v>
+      </c>
+      <c r="F21" s="104"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="95">
         <v>2016</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C22" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D22" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E22" s="99">
+      <c r="C22" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D22" s="97">
+        <v>-53.2</v>
+      </c>
+      <c r="E22" s="98">
         <v>42394</v>
       </c>
-      <c r="F22" s="105"/>
+      <c r="F22" s="104"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="95">
         <v>2016</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D23" s="98">
-        <v>-53</v>
-      </c>
-      <c r="E23" s="99">
-        <v>42395</v>
-      </c>
-      <c r="F23" s="105"/>
+      <c r="C23" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D23" s="97">
+        <v>-50</v>
+      </c>
+      <c r="E23" s="98">
+        <v>42394</v>
+      </c>
+      <c r="F23" s="104"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="95">
         <v>2016</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D24" s="98">
-        <v>-53.9</v>
-      </c>
-      <c r="E24" s="99">
-        <v>42396</v>
-      </c>
-      <c r="F24" s="105"/>
+      <c r="D24" s="97">
+        <v>-53</v>
+      </c>
+      <c r="E24" s="98">
+        <v>42395</v>
+      </c>
+      <c r="F24" s="104"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="95">
         <v>2016</v>
       </c>
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D25" s="98">
-        <v>-55.3</v>
-      </c>
-      <c r="E25" s="99">
-        <v>42397</v>
-      </c>
-      <c r="F25" s="105"/>
+      <c r="D25" s="97">
+        <v>-53.9</v>
+      </c>
+      <c r="E25" s="98">
+        <v>42396</v>
+      </c>
+      <c r="F25" s="104"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="95">
         <v>2016</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D26" s="98">
-        <v>-54.4</v>
-      </c>
-      <c r="E26" s="99">
-        <v>42398</v>
-      </c>
-      <c r="F26" s="105"/>
+      <c r="D26" s="97">
+        <v>-55.3</v>
+      </c>
+      <c r="E26" s="98">
+        <v>42397</v>
+      </c>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="95">
         <v>2016</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C27" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D27" s="98">
-        <v>-51.9</v>
-      </c>
-      <c r="E27" s="99">
+      <c r="C27" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D27" s="97">
+        <v>-54.4</v>
+      </c>
+      <c r="E27" s="98">
         <v>42398</v>
       </c>
-      <c r="F27" s="105"/>
+      <c r="F27" s="104"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="95">
         <v>2016</v>
       </c>
-      <c r="B28" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C28" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D28" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E28" s="99">
+      <c r="B28" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D28" s="97">
+        <v>-51.9</v>
+      </c>
+      <c r="E28" s="98">
         <v>42398</v>
       </c>
-      <c r="F28" s="105"/>
+      <c r="F28" s="104"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="95">
         <v>2016</v>
       </c>
-      <c r="B29" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C29" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D29" s="98">
-        <v>-55</v>
-      </c>
-      <c r="E29" s="99">
-        <v>42399</v>
-      </c>
-      <c r="F29" s="105"/>
+      <c r="B29" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D29" s="97">
+        <v>-50.2</v>
+      </c>
+      <c r="E29" s="98">
+        <v>42398</v>
+      </c>
+      <c r="F29" s="104"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="95">
         <v>2016</v>
       </c>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C30" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D30" s="98">
-        <v>-52.8</v>
-      </c>
-      <c r="E30" s="99">
+      <c r="C30" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D30" s="97">
+        <v>-55</v>
+      </c>
+      <c r="E30" s="98">
         <v>42399</v>
       </c>
-      <c r="F30" s="105"/>
+      <c r="F30" s="104"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="95">
         <v>2016</v>
       </c>
-      <c r="B31" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C31" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D31" s="98">
-        <v>-50.7</v>
-      </c>
-      <c r="E31" s="99">
+      <c r="B31" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D31" s="97">
+        <v>-52.8</v>
+      </c>
+      <c r="E31" s="98">
         <v>42399</v>
       </c>
-      <c r="F31" s="105"/>
+      <c r="F31" s="104"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="95">
         <v>2016</v>
       </c>
-      <c r="B32" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C32" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D32" s="98">
-        <v>-51.6</v>
-      </c>
-      <c r="E32" s="99">
-        <v>42400</v>
-      </c>
-      <c r="F32" s="105"/>
+      <c r="B32" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D32" s="97">
+        <v>-50.7</v>
+      </c>
+      <c r="E32" s="98">
+        <v>42399</v>
+      </c>
+      <c r="F32" s="104"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="95">
         <v>2016</v>
       </c>
-      <c r="B33" s="96" t="s">
+      <c r="B33" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C33" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D33" s="98">
-        <v>-51.5</v>
-      </c>
-      <c r="E33" s="99">
+      <c r="C33" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D33" s="97">
+        <v>-51.6</v>
+      </c>
+      <c r="E33" s="98">
         <v>42400</v>
       </c>
-      <c r="F33" s="105"/>
+      <c r="F33" s="104"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="95">
         <v>2016</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C34" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D34" s="98">
-        <v>-50.5</v>
-      </c>
-      <c r="E34" s="99">
-        <v>42401</v>
-      </c>
-      <c r="F34" s="105"/>
+      <c r="C34" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D34" s="97">
+        <v>-51.5</v>
+      </c>
+      <c r="E34" s="98">
+        <v>42400</v>
+      </c>
+      <c r="F34" s="104"/>
     </row>
     <row r="35" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="95">
         <v>2016</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D35" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E35" s="99">
-        <v>42403</v>
-      </c>
-      <c r="F35" s="105"/>
+      <c r="D35" s="97">
+        <v>-50.5</v>
+      </c>
+      <c r="E35" s="98">
+        <v>42401</v>
+      </c>
+      <c r="F35" s="104"/>
     </row>
     <row r="36" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="95">
         <v>2016</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C36" s="97" t="s">
+      <c r="C36" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D36" s="98">
-        <v>-53.2</v>
-      </c>
-      <c r="E36" s="99">
-        <v>42404</v>
-      </c>
-      <c r="F36" s="105"/>
+      <c r="D36" s="97">
+        <v>-50.2</v>
+      </c>
+      <c r="E36" s="98">
+        <v>42403</v>
+      </c>
+      <c r="F36" s="104"/>
     </row>
     <row r="37" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="95">
         <v>2016</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C37" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D37" s="98">
-        <v>-51</v>
-      </c>
-      <c r="E37" s="99">
+      <c r="C37" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D37" s="97">
+        <v>-53.2</v>
+      </c>
+      <c r="E37" s="98">
         <v>42404</v>
       </c>
-      <c r="F37" s="105"/>
+      <c r="F37" s="104"/>
     </row>
     <row r="38" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="95">
         <v>2016</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C38" s="96" t="s">
         <v>1868</v>
       </c>
-      <c r="D38" s="98">
-        <v>-52.9</v>
-      </c>
-      <c r="E38" s="99">
-        <v>42405</v>
-      </c>
-      <c r="F38" s="105"/>
+      <c r="D38" s="97">
+        <v>-51</v>
+      </c>
+      <c r="E38" s="98">
+        <v>42404</v>
+      </c>
+      <c r="F38" s="104"/>
     </row>
     <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="95">
         <v>2016</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C39" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D39" s="98">
-        <v>-52.3</v>
-      </c>
-      <c r="E39" s="99">
+      <c r="C39" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D39" s="97">
+        <v>-52.9</v>
+      </c>
+      <c r="E39" s="98">
         <v>42405</v>
       </c>
-      <c r="F39" s="105"/>
+      <c r="F39" s="104"/>
     </row>
     <row r="40" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="95">
         <v>2016</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D40" s="98">
-        <v>-53.3</v>
-      </c>
-      <c r="E40" s="99">
-        <v>42406</v>
-      </c>
-      <c r="F40" s="105"/>
+      <c r="D40" s="97">
+        <v>-52.3</v>
+      </c>
+      <c r="E40" s="98">
+        <v>42405</v>
+      </c>
+      <c r="F40" s="104"/>
     </row>
     <row r="41" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="95">
         <v>2016</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C41" s="97" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D41" s="98">
-        <v>-52</v>
-      </c>
-      <c r="E41" s="99">
+      <c r="C41" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D41" s="97">
+        <v>-53.3</v>
+      </c>
+      <c r="E41" s="98">
         <v>42406</v>
       </c>
-      <c r="F41" s="105"/>
+      <c r="F41" s="104"/>
     </row>
     <row r="42" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="95">
         <v>2016</v>
       </c>
-      <c r="B42" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C42" s="97" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D42" s="98">
-        <v>-54.7</v>
-      </c>
-      <c r="E42" s="99">
-        <v>42412</v>
+      <c r="B42" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D42" s="97">
+        <v>-52</v>
+      </c>
+      <c r="E42" s="98">
+        <v>42406</v>
       </c>
       <c r="F42" s="104"/>
     </row>
@@ -32586,629 +32606,665 @@
       <c r="A43" s="95">
         <v>2016</v>
       </c>
-      <c r="B43" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C43" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D43" s="98">
-        <v>-53</v>
-      </c>
-      <c r="E43" s="99">
-        <v>42413</v>
-      </c>
-      <c r="F43" s="104"/>
+      <c r="B43" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C43" s="96" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D43" s="97">
+        <v>-54.7</v>
+      </c>
+      <c r="E43" s="98">
+        <v>42412</v>
+      </c>
+      <c r="F43" s="103"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
         <v>2016</v>
       </c>
-      <c r="B44" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C44" s="97" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D44" s="98">
-        <v>-50.3</v>
-      </c>
-      <c r="E44" s="99">
-        <v>42437</v>
-      </c>
-      <c r="F44" s="104"/>
+      <c r="B44" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D44" s="97">
+        <v>-53</v>
+      </c>
+      <c r="E44" s="98">
+        <v>42413</v>
+      </c>
+      <c r="F44" s="103"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
         <v>2016</v>
       </c>
-      <c r="B45" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C45" s="97" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D45" s="98">
-        <v>-54</v>
-      </c>
-      <c r="E45" s="99">
-        <v>42438</v>
-      </c>
-      <c r="F45" s="104"/>
+      <c r="B45" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D45" s="97">
+        <v>-54.2</v>
+      </c>
+      <c r="E45" s="98">
+        <v>42414</v>
+      </c>
+      <c r="F45" s="103"/>
     </row>
     <row r="46" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="95">
         <v>2016</v>
       </c>
-      <c r="B46" s="96" t="s">
+      <c r="B46" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="96" t="s">
         <v>1790</v>
       </c>
-      <c r="D46" s="98">
-        <v>-53</v>
-      </c>
-      <c r="E46" s="99">
-        <v>42439</v>
-      </c>
-      <c r="F46" s="104"/>
+      <c r="D46" s="97">
+        <v>-50.3</v>
+      </c>
+      <c r="E46" s="98">
+        <v>42437</v>
+      </c>
+      <c r="F46" s="103"/>
     </row>
     <row r="47" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="95">
-        <v>2017</v>
-      </c>
-      <c r="B47" s="96" t="s">
-        <v>1789</v>
-      </c>
-      <c r="C47" s="97" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D47" s="98">
-        <v>-45.4</v>
-      </c>
-      <c r="E47" s="99">
-        <v>42763</v>
-      </c>
-      <c r="F47" s="104"/>
+        <v>2016</v>
+      </c>
+      <c r="B47" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C47" s="96" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D47" s="97">
+        <v>-54</v>
+      </c>
+      <c r="E47" s="98">
+        <v>42438</v>
+      </c>
+      <c r="F47" s="103"/>
     </row>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="95">
-        <v>2018</v>
-      </c>
-      <c r="B48" s="96" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C48" s="97" t="s">
+      <c r="C48" s="96" t="s">
         <v>1790</v>
       </c>
-      <c r="D48" s="98">
-        <v>-51.6</v>
-      </c>
-      <c r="E48" s="99">
-        <v>43123</v>
-      </c>
-      <c r="F48" s="104"/>
+      <c r="D48" s="97">
+        <v>-53</v>
+      </c>
+      <c r="E48" s="98">
+        <v>42439</v>
+      </c>
+      <c r="F48" s="103"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
-        <v>2018</v>
-      </c>
-      <c r="B49" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C49" s="97" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D49" s="98">
-        <v>-51.3</v>
-      </c>
-      <c r="E49" s="99">
-        <v>43123</v>
-      </c>
-      <c r="F49" s="104"/>
+        <v>2017</v>
+      </c>
+      <c r="B49" s="129" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C49" s="96" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D49" s="97">
+        <v>-45.4</v>
+      </c>
+      <c r="E49" s="98">
+        <v>42763</v>
+      </c>
+      <c r="F49" s="103"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
         <v>2018</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="96" t="s">
         <v>1790</v>
       </c>
-      <c r="D50" s="98">
-        <v>-53.2</v>
-      </c>
-      <c r="E50" s="99">
-        <v>43124</v>
-      </c>
-      <c r="F50" s="104"/>
+      <c r="D50" s="97">
+        <v>-51.6</v>
+      </c>
+      <c r="E50" s="98">
+        <v>43123</v>
+      </c>
+      <c r="F50" s="103"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
         <v>2018</v>
       </c>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="96" t="s">
         <v>1867</v>
       </c>
-      <c r="D51" s="98">
-        <v>-51.7</v>
-      </c>
-      <c r="E51" s="99">
-        <v>43124</v>
-      </c>
-      <c r="F51" s="104"/>
+      <c r="D51" s="97">
+        <v>-51.3</v>
+      </c>
+      <c r="E51" s="98">
+        <v>43123</v>
+      </c>
+      <c r="F51" s="103"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
         <v>2018</v>
       </c>
-      <c r="B52" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C52" s="97" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D52" s="98">
-        <v>-50.7</v>
-      </c>
-      <c r="E52" s="99">
-        <v>43125</v>
-      </c>
-      <c r="F52" s="104"/>
+      <c r="B52" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C52" s="96" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D52" s="97">
+        <v>-53.2</v>
+      </c>
+      <c r="E52" s="98">
+        <v>43124</v>
+      </c>
+      <c r="F52" s="103"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
         <v>2018</v>
       </c>
-      <c r="B53" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C53" s="97" t="s">
-        <v>1790</v>
-      </c>
-      <c r="D53" s="98">
-        <v>-50.1</v>
-      </c>
-      <c r="E53" s="99">
-        <v>43125</v>
-      </c>
-      <c r="F53" s="104"/>
+      <c r="B53" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C53" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D53" s="97">
+        <v>-51.7</v>
+      </c>
+      <c r="E53" s="98">
+        <v>43124</v>
+      </c>
+      <c r="F53" s="103"/>
     </row>
     <row r="54" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="95">
         <v>2018</v>
       </c>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C54" s="97" t="s">
-        <v>1979</v>
-      </c>
-      <c r="D54" s="98">
-        <v>-50.3</v>
-      </c>
-      <c r="E54" s="99">
+      <c r="C54" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D54" s="97">
+        <v>-50.7</v>
+      </c>
+      <c r="E54" s="98">
         <v>43125</v>
       </c>
-      <c r="F54" s="104"/>
+      <c r="F54" s="103"/>
     </row>
     <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="95">
         <v>2018</v>
       </c>
-      <c r="B55" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C55" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D55" s="98">
-        <v>-49.9</v>
-      </c>
-      <c r="E55" s="99">
-        <v>43126</v>
-      </c>
-      <c r="F55" s="104"/>
+      <c r="B55" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C55" s="96" t="s">
+        <v>1790</v>
+      </c>
+      <c r="D55" s="97">
+        <v>-50.1</v>
+      </c>
+      <c r="E55" s="98">
+        <v>43125</v>
+      </c>
+      <c r="F55" s="103"/>
     </row>
     <row r="56" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="95">
         <v>2018</v>
       </c>
-      <c r="B56" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D56" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E56" s="99" t="s">
-        <v>1976</v>
-      </c>
-      <c r="F56" s="104" t="s">
-        <v>1977</v>
-      </c>
+      <c r="B56" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C56" s="96" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D56" s="97">
+        <v>-50.3</v>
+      </c>
+      <c r="E56" s="98">
+        <v>43125</v>
+      </c>
+      <c r="F56" s="103"/>
     </row>
     <row r="57" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="95">
         <v>2018</v>
       </c>
-      <c r="B57" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C57" s="97" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D57" s="98">
-        <v>-50.2</v>
-      </c>
-      <c r="E57" s="99">
+      <c r="B57" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C57" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D57" s="97">
+        <v>-49.9</v>
+      </c>
+      <c r="E57" s="98">
         <v>43126</v>
       </c>
-      <c r="F57" s="104" t="s">
-        <v>1978</v>
-      </c>
+      <c r="F57" s="103"/>
     </row>
     <row r="58" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="95">
         <v>2018</v>
       </c>
-      <c r="B58" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C58" s="97" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D58" s="98">
-        <v>-51.8</v>
-      </c>
-      <c r="E58" s="99">
-        <v>43127</v>
-      </c>
-      <c r="F58" s="104"/>
+      <c r="B58" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C58" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D58" s="97">
+        <v>-50</v>
+      </c>
+      <c r="E58" s="98" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F58" s="103" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
         <v>2018</v>
       </c>
-      <c r="B59" s="96" t="s">
+      <c r="B59" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C59" s="97" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D59" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E59" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F59" s="104" t="s">
-        <v>1983</v>
+      <c r="C59" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D59" s="97">
+        <v>-50.2</v>
+      </c>
+      <c r="E59" s="98">
+        <v>43126</v>
+      </c>
+      <c r="F59" s="103" t="s">
+        <v>1978</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
         <v>2018</v>
       </c>
-      <c r="B60" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D60" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E60" s="99" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F60" s="104" t="s">
-        <v>1983</v>
-      </c>
+      <c r="B60" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C60" s="96" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D60" s="97">
+        <v>-51.8</v>
+      </c>
+      <c r="E60" s="98">
+        <v>43127</v>
+      </c>
+      <c r="F60" s="103"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
         <v>2018</v>
       </c>
-      <c r="B61" s="96" t="s">
+      <c r="B61" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C61" s="97" t="s">
-        <v>1972</v>
-      </c>
-      <c r="D61" s="98">
+      <c r="C61" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D61" s="97">
         <v>-50</v>
       </c>
-      <c r="E61" s="99" t="s">
+      <c r="E61" s="98" t="s">
         <v>1973</v>
       </c>
-      <c r="F61" s="104" t="s">
+      <c r="F61" s="103" t="s">
         <v>1983</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
-        <v>2019</v>
-      </c>
-      <c r="B62" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>1792</v>
-      </c>
-      <c r="D62" s="98">
-        <v>-48.4</v>
-      </c>
-      <c r="E62" s="99">
-        <v>43828</v>
-      </c>
-      <c r="F62" s="104"/>
+        <v>2018</v>
+      </c>
+      <c r="B62" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C62" s="96" t="s">
+        <v>1971</v>
+      </c>
+      <c r="D62" s="97">
+        <v>-50</v>
+      </c>
+      <c r="E62" s="98" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F62" s="103" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
-        <v>2020</v>
-      </c>
-      <c r="B63" s="96" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C63" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D63" s="98">
-        <v>-49.6</v>
-      </c>
-      <c r="E63" s="99">
-        <v>44194</v>
-      </c>
-      <c r="F63" s="104"/>
+        <v>2018</v>
+      </c>
+      <c r="B63" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C63" s="96" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D63" s="97">
+        <v>-50</v>
+      </c>
+      <c r="E63" s="98" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F63" s="103" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
-        <v>2021</v>
-      </c>
-      <c r="B64" s="96" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B64" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C64" s="97" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D64" s="98">
-        <v>-47.2</v>
-      </c>
-      <c r="E64" s="99">
-        <v>44200</v>
-      </c>
-      <c r="F64" s="104"/>
+      <c r="C64" s="96" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D64" s="97">
+        <v>-48.4</v>
+      </c>
+      <c r="E64" s="98">
+        <v>43828</v>
+      </c>
+      <c r="F64" s="103"/>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="95">
-        <v>2022</v>
-      </c>
-      <c r="B65" s="96" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B65" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C65" s="97" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D65" s="98">
-        <v>-46.8</v>
-      </c>
-      <c r="E65" s="99"/>
-      <c r="F65" s="104"/>
+      <c r="C65" s="96" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D65" s="97">
+        <v>-49.6</v>
+      </c>
+      <c r="E65" s="98">
+        <v>44194</v>
+      </c>
+      <c r="F65" s="103"/>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="95">
-        <v>2023</v>
-      </c>
-      <c r="B66" s="96" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C66" s="97" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D66" s="98">
-        <v>-50</v>
-      </c>
-      <c r="E66" s="99">
-        <v>44949</v>
-      </c>
-      <c r="F66" s="104" t="s">
-        <v>1982</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="B66" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C66" s="96" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D66" s="97">
+        <v>-47.2</v>
+      </c>
+      <c r="E66" s="98">
+        <v>44200</v>
+      </c>
+      <c r="F66" s="103"/>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
-        <v>2023</v>
-      </c>
-      <c r="B67" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C67" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D67" s="98">
-        <v>-49.4</v>
-      </c>
-      <c r="E67" s="99">
-        <v>45279</v>
-      </c>
-      <c r="F67" s="104" t="s">
-        <v>1981</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="B67" s="129" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C67" s="96" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D67" s="97">
+        <v>-46.8</v>
+      </c>
+      <c r="E67" s="98"/>
+      <c r="F67" s="103"/>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="95">
         <v>2023</v>
       </c>
-      <c r="B68" s="96" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C68" s="97" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D68" s="100">
+      <c r="B68" s="129" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C68" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D68" s="97">
         <v>-50</v>
       </c>
-      <c r="E68" s="99">
-        <v>45280</v>
-      </c>
-      <c r="F68" s="104" t="s">
+      <c r="E68" s="98">
+        <v>44949</v>
+      </c>
+      <c r="F68" s="103" t="s">
         <v>1982</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B69" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C69" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D69" s="97">
+        <v>-49.4</v>
+      </c>
+      <c r="E69" s="98">
+        <v>45279</v>
+      </c>
+      <c r="F69" s="103" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B70" s="129" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C70" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D70" s="99">
+        <v>-50</v>
+      </c>
+      <c r="E70" s="98">
+        <v>45280</v>
+      </c>
+      <c r="F70" s="103" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="95">
         <v>2024</v>
       </c>
-      <c r="B69" s="96" t="s">
+      <c r="B71" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C69" s="97" t="s">
+      <c r="C71" s="96" t="s">
         <v>1784</v>
       </c>
-      <c r="D69" s="98">
+      <c r="D71" s="97">
         <v>-48.8</v>
       </c>
-      <c r="E69" s="99">
+      <c r="E71" s="98">
         <v>45312</v>
       </c>
-      <c r="F69" s="104"/>
-    </row>
-    <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="101">
+      <c r="F71" s="103"/>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="100">
         <v>2025</v>
       </c>
-      <c r="B70" s="96" t="s">
+      <c r="B72" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C70" s="97" t="s">
+      <c r="C72" s="96" t="s">
         <v>1785</v>
       </c>
-      <c r="D70" s="98">
+      <c r="D72" s="97">
         <v>-45.6</v>
       </c>
-      <c r="E70" s="99">
+      <c r="E72" s="98">
         <v>45659</v>
       </c>
-      <c r="F70" s="104" t="s">
+      <c r="F72" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="101">
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="100">
         <v>2025</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B73" s="129" t="s">
         <v>1788</v>
       </c>
-      <c r="C71" s="97" t="s">
+      <c r="C73" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D71" s="98">
+      <c r="D73" s="97">
         <v>-45.6</v>
       </c>
-      <c r="E71" s="99">
+      <c r="E73" s="98">
         <v>45673</v>
       </c>
-      <c r="F71" s="104" t="s">
+      <c r="F73" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="101">
+    <row r="74" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="100">
         <v>2025</v>
       </c>
-      <c r="B72" s="96" t="s">
+      <c r="B74" s="129" t="s">
         <v>1789</v>
       </c>
-      <c r="C72" s="97" t="s">
+      <c r="C74" s="96" t="s">
         <v>1793</v>
       </c>
-      <c r="D72" s="98">
+      <c r="D74" s="97">
         <v>-44.2</v>
       </c>
-      <c r="E72" s="99">
+      <c r="E74" s="98">
         <v>45673</v>
       </c>
-      <c r="F72" s="128" t="s">
+      <c r="F74" s="106" t="s">
         <v>1974</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="101">
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="100">
         <v>2026</v>
       </c>
-      <c r="B73" s="96" t="s">
+      <c r="B75" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C73" s="97" t="s">
+      <c r="C75" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D73" s="98">
+      <c r="D75" s="97">
         <v>-51.2</v>
       </c>
-      <c r="E73" s="102">
+      <c r="E75" s="101">
         <v>46039</v>
       </c>
-      <c r="F73" s="104" t="s">
+      <c r="F75" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="101">
+    <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="100">
         <v>2026</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B76" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C74" s="97" t="s">
+      <c r="C76" s="96" t="s">
         <v>1794</v>
       </c>
-      <c r="D74" s="98">
+      <c r="D76" s="97">
         <v>-52</v>
       </c>
-      <c r="E74" s="102">
+      <c r="E76" s="101">
         <v>46040</v>
       </c>
-      <c r="F74" s="104" t="s">
+      <c r="F76" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="101">
+    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="100">
         <v>2026</v>
       </c>
-      <c r="B75" s="96" t="s">
+      <c r="B77" s="129" t="s">
         <v>1970</v>
       </c>
-      <c r="C75" s="97" t="s">
+      <c r="C77" s="96" t="s">
         <v>1867</v>
       </c>
-      <c r="D75" s="98">
+      <c r="D77" s="97">
         <v>-51.1</v>
       </c>
-      <c r="E75" s="102">
+      <c r="E77" s="101">
         <v>46040</v>
       </c>
-      <c r="F75" s="104" t="s">
+      <c r="F77" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <autoFilter ref="A2:F77" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D75">
+  <conditionalFormatting sqref="D3:D77">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7C6B67-6B2D-469D-899D-4394806418F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2221FF-5982-454C-97CC-AE85FE5BD41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="寒冷爆发力" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="1987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1989">
   <si>
     <t>undefined</t>
   </si>
@@ -6666,6 +6666,14 @@
   </si>
   <si>
     <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂特冈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7813,6 +7821,18 @@
     <xf numFmtId="0" fontId="60" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7872,18 +7892,6 @@
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8246,15 +8254,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="109"/>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111"/>
+      <c r="A1" s="113"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="15" t="s">
@@ -31835,7 +31843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -31844,7 +31852,7 @@
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.59765625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" style="130" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="110" customWidth="1"/>
     <col min="3" max="3" width="22.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" style="27" customWidth="1"/>
     <col min="5" max="5" width="22.59765625" style="26" customWidth="1"/>
@@ -31853,13 +31861,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="80" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>1984</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="105" t="s">
         <v>1787</v>
       </c>
@@ -31868,10 +31876,10 @@
       <c r="A2" s="94" t="s">
         <v>1783</v>
       </c>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="108" t="s">
         <v>1986</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="107" t="s">
         <v>1985</v>
       </c>
       <c r="D2" s="94" t="s">
@@ -31886,7 +31894,7 @@
       <c r="A3" s="95">
         <v>1966</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C3" s="96" t="s">
@@ -31904,7 +31912,7 @@
       <c r="A4" s="95">
         <v>1969</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C4" s="96" t="s">
@@ -31922,7 +31930,7 @@
       <c r="A5" s="95">
         <v>1976</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C5" s="96" t="s">
@@ -31940,7 +31948,7 @@
       <c r="A6" s="95">
         <v>2000</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="109" t="s">
         <v>1975</v>
       </c>
       <c r="C6" s="96" t="s">
@@ -31958,7 +31966,7 @@
       <c r="A7" s="95">
         <v>2001</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C7" s="96" t="s">
@@ -31976,7 +31984,7 @@
       <c r="A8" s="95">
         <v>2005</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C8" s="96" t="s">
@@ -31994,7 +32002,7 @@
       <c r="A9" s="95">
         <v>2005</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C9" s="96" t="s">
@@ -32012,7 +32020,7 @@
       <c r="A10" s="95">
         <v>2005</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C10" s="96" t="s">
@@ -32030,7 +32038,7 @@
       <c r="A11" s="95">
         <v>2005</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C11" s="96" t="s">
@@ -32048,7 +32056,7 @@
       <c r="A12" s="95">
         <v>2005</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C12" s="96" t="s">
@@ -32064,37 +32072,37 @@
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="129" t="s">
-        <v>1947</v>
+        <v>2006</v>
+      </c>
+      <c r="B13" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D13" s="97">
-        <v>-50</v>
+        <v>-53.8</v>
       </c>
       <c r="E13" s="98">
-        <v>40221</v>
+        <v>38721</v>
       </c>
       <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2010</v>
-      </c>
-      <c r="B14" s="129" t="s">
-        <v>1947</v>
+        <v>2006</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D14" s="97">
-        <v>-49.9</v>
+        <v>-54</v>
       </c>
       <c r="E14" s="98">
-        <v>40223</v>
+        <v>38722</v>
       </c>
       <c r="F14" s="104"/>
     </row>
@@ -32102,71 +32110,71 @@
       <c r="A15" s="95">
         <v>2006</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C15" s="96" t="s">
         <v>1785</v>
       </c>
       <c r="D15" s="97">
-        <v>-53.8</v>
+        <v>-52.1</v>
       </c>
       <c r="E15" s="98">
-        <v>38721</v>
+        <v>38723</v>
       </c>
       <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
-        <v>2006</v>
-      </c>
-      <c r="B16" s="129" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B16" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C16" s="96" t="s">
         <v>1785</v>
       </c>
       <c r="D16" s="97">
-        <v>-54</v>
+        <v>-50.2</v>
       </c>
       <c r="E16" s="98">
-        <v>38722</v>
+        <v>39480</v>
       </c>
       <c r="F16" s="104"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>1970</v>
+        <v>2010</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>1947</v>
       </c>
       <c r="C17" s="96" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D17" s="97">
-        <v>-52.1</v>
+        <v>-50</v>
       </c>
       <c r="E17" s="98">
-        <v>38723</v>
+        <v>40221</v>
       </c>
       <c r="F17" s="104"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
-        <v>2008</v>
-      </c>
-      <c r="B18" s="129" t="s">
-        <v>1970</v>
+        <v>2010</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>1947</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D18" s="97">
-        <v>-50.2</v>
+        <v>-49.9</v>
       </c>
       <c r="E18" s="98">
-        <v>39480</v>
+        <v>40223</v>
       </c>
       <c r="F18" s="104"/>
     </row>
@@ -32174,7 +32182,7 @@
       <c r="A19" s="95">
         <v>2011</v>
       </c>
-      <c r="B19" s="129" t="s">
+      <c r="B19" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C19" s="96" t="s">
@@ -32192,7 +32200,7 @@
       <c r="A20" s="95">
         <v>2016</v>
       </c>
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C20" s="96" t="s">
@@ -32210,7 +32218,7 @@
       <c r="A21" s="95">
         <v>2016</v>
       </c>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C21" s="96" t="s">
@@ -32228,7 +32236,7 @@
       <c r="A22" s="95">
         <v>2016</v>
       </c>
-      <c r="B22" s="129" t="s">
+      <c r="B22" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C22" s="96" t="s">
@@ -32246,7 +32254,7 @@
       <c r="A23" s="95">
         <v>2016</v>
       </c>
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C23" s="96" t="s">
@@ -32264,7 +32272,7 @@
       <c r="A24" s="95">
         <v>2016</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C24" s="96" t="s">
@@ -32282,7 +32290,7 @@
       <c r="A25" s="95">
         <v>2016</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C25" s="96" t="s">
@@ -32300,7 +32308,7 @@
       <c r="A26" s="95">
         <v>2016</v>
       </c>
-      <c r="B26" s="129" t="s">
+      <c r="B26" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C26" s="96" t="s">
@@ -32318,7 +32326,7 @@
       <c r="A27" s="95">
         <v>2016</v>
       </c>
-      <c r="B27" s="129" t="s">
+      <c r="B27" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C27" s="96" t="s">
@@ -32336,7 +32344,7 @@
       <c r="A28" s="95">
         <v>2016</v>
       </c>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -32354,7 +32362,7 @@
       <c r="A29" s="95">
         <v>2016</v>
       </c>
-      <c r="B29" s="129" t="s">
+      <c r="B29" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C29" s="96" t="s">
@@ -32372,7 +32380,7 @@
       <c r="A30" s="95">
         <v>2016</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C30" s="96" t="s">
@@ -32390,7 +32398,7 @@
       <c r="A31" s="95">
         <v>2016</v>
       </c>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C31" s="96" t="s">
@@ -32408,7 +32416,7 @@
       <c r="A32" s="95">
         <v>2016</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C32" s="96" t="s">
@@ -32426,7 +32434,7 @@
       <c r="A33" s="95">
         <v>2016</v>
       </c>
-      <c r="B33" s="129" t="s">
+      <c r="B33" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C33" s="96" t="s">
@@ -32444,7 +32452,7 @@
       <c r="A34" s="95">
         <v>2016</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C34" s="96" t="s">
@@ -32462,7 +32470,7 @@
       <c r="A35" s="95">
         <v>2016</v>
       </c>
-      <c r="B35" s="129" t="s">
+      <c r="B35" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C35" s="96" t="s">
@@ -32480,7 +32488,7 @@
       <c r="A36" s="95">
         <v>2016</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C36" s="96" t="s">
@@ -32498,7 +32506,7 @@
       <c r="A37" s="95">
         <v>2016</v>
       </c>
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C37" s="96" t="s">
@@ -32516,7 +32524,7 @@
       <c r="A38" s="95">
         <v>2016</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C38" s="96" t="s">
@@ -32534,7 +32542,7 @@
       <c r="A39" s="95">
         <v>2016</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C39" s="96" t="s">
@@ -32552,7 +32560,7 @@
       <c r="A40" s="95">
         <v>2016</v>
       </c>
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C40" s="96" t="s">
@@ -32570,7 +32578,7 @@
       <c r="A41" s="95">
         <v>2016</v>
       </c>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C41" s="96" t="s">
@@ -32588,7 +32596,7 @@
       <c r="A42" s="95">
         <v>2016</v>
       </c>
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C42" s="96" t="s">
@@ -32606,7 +32614,7 @@
       <c r="A43" s="95">
         <v>2016</v>
       </c>
-      <c r="B43" s="129" t="s">
+      <c r="B43" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C43" s="96" t="s">
@@ -32624,7 +32632,7 @@
       <c r="A44" s="95">
         <v>2016</v>
       </c>
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C44" s="96" t="s">
@@ -32642,7 +32650,7 @@
       <c r="A45" s="95">
         <v>2016</v>
       </c>
-      <c r="B45" s="129" t="s">
+      <c r="B45" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C45" s="96" t="s">
@@ -32660,17 +32668,17 @@
       <c r="A46" s="95">
         <v>2016</v>
       </c>
-      <c r="B46" s="129" t="s">
-        <v>1788</v>
+      <c r="B46" s="109" t="s">
+        <v>1987</v>
       </c>
       <c r="C46" s="96" t="s">
-        <v>1790</v>
+        <v>1988</v>
       </c>
       <c r="D46" s="97">
-        <v>-50.3</v>
+        <v>-50</v>
       </c>
       <c r="E46" s="98">
-        <v>42437</v>
+        <v>42415</v>
       </c>
       <c r="F46" s="103"/>
     </row>
@@ -32678,17 +32686,17 @@
       <c r="A47" s="95">
         <v>2016</v>
       </c>
-      <c r="B47" s="129" t="s">
+      <c r="B47" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C47" s="96" t="s">
         <v>1790</v>
       </c>
       <c r="D47" s="97">
-        <v>-54</v>
+        <v>-50.3</v>
       </c>
       <c r="E47" s="98">
-        <v>42438</v>
+        <v>42437</v>
       </c>
       <c r="F47" s="103"/>
     </row>
@@ -32696,53 +32704,53 @@
       <c r="A48" s="95">
         <v>2016</v>
       </c>
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C48" s="96" t="s">
         <v>1790</v>
       </c>
       <c r="D48" s="97">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E48" s="98">
-        <v>42439</v>
+        <v>42438</v>
       </c>
       <c r="F48" s="103"/>
     </row>
     <row r="49" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="95">
-        <v>2017</v>
-      </c>
-      <c r="B49" s="129" t="s">
-        <v>1789</v>
+        <v>2016</v>
+      </c>
+      <c r="B49" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C49" s="96" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D49" s="97">
-        <v>-45.4</v>
+        <v>-53</v>
       </c>
       <c r="E49" s="98">
-        <v>42763</v>
+        <v>42439</v>
       </c>
       <c r="F49" s="103"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
-        <v>2018</v>
-      </c>
-      <c r="B50" s="129" t="s">
-        <v>1788</v>
+        <v>2017</v>
+      </c>
+      <c r="B50" s="109" t="s">
+        <v>1789</v>
       </c>
       <c r="C50" s="96" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D50" s="97">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E50" s="98">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F50" s="103"/>
     </row>
@@ -32750,14 +32758,14 @@
       <c r="A51" s="95">
         <v>2018</v>
       </c>
-      <c r="B51" s="129" t="s">
-        <v>1970</v>
+      <c r="B51" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C51" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D51" s="97">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E51" s="98">
         <v>43123</v>
@@ -32768,17 +32776,17 @@
       <c r="A52" s="95">
         <v>2018</v>
       </c>
-      <c r="B52" s="129" t="s">
-        <v>1788</v>
+      <c r="B52" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D52" s="97">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E52" s="98">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F52" s="103"/>
     </row>
@@ -32786,14 +32794,14 @@
       <c r="A53" s="95">
         <v>2018</v>
       </c>
-      <c r="B53" s="129" t="s">
-        <v>1970</v>
+      <c r="B53" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D53" s="97">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E53" s="98">
         <v>43124</v>
@@ -32804,17 +32812,17 @@
       <c r="A54" s="95">
         <v>2018</v>
       </c>
-      <c r="B54" s="129" t="s">
+      <c r="B54" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C54" s="96" t="s">
         <v>1867</v>
       </c>
       <c r="D54" s="97">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E54" s="98">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F54" s="103"/>
     </row>
@@ -32822,14 +32830,14 @@
       <c r="A55" s="95">
         <v>2018</v>
       </c>
-      <c r="B55" s="129" t="s">
-        <v>1788</v>
+      <c r="B55" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C55" s="96" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D55" s="97">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E55" s="98">
         <v>43125</v>
@@ -32840,7 +32848,7 @@
       <c r="A56" s="95">
         <v>2018</v>
       </c>
-      <c r="B56" s="129" t="s">
+      <c r="B56" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C56" s="96" t="s">
@@ -32858,17 +32866,17 @@
       <c r="A57" s="95">
         <v>2018</v>
       </c>
-      <c r="B57" s="129" t="s">
-        <v>1947</v>
+      <c r="B57" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="D57" s="97">
-        <v>-49.9</v>
+        <v>-50.1</v>
       </c>
       <c r="E57" s="98">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="F57" s="103"/>
     </row>
@@ -32876,47 +32884,45 @@
       <c r="A58" s="95">
         <v>2018</v>
       </c>
-      <c r="B58" s="129" t="s">
-        <v>1947</v>
+      <c r="B58" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="D58" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E58" s="98" t="s">
-        <v>1976</v>
+        <v>-50.2</v>
+      </c>
+      <c r="E58" s="98">
+        <v>43126</v>
       </c>
       <c r="F58" s="103" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
         <v>2018</v>
       </c>
-      <c r="B59" s="129" t="s">
-        <v>1970</v>
+      <c r="B59" s="109" t="s">
+        <v>1947</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D59" s="97">
-        <v>-50.2</v>
+        <v>-49.9</v>
       </c>
       <c r="E59" s="98">
         <v>43126</v>
       </c>
-      <c r="F59" s="103" t="s">
-        <v>1978</v>
-      </c>
+      <c r="F59" s="103"/>
     </row>
     <row r="60" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="95">
         <v>2018</v>
       </c>
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C60" s="96" t="s">
@@ -32934,7 +32940,7 @@
       <c r="A61" s="95">
         <v>2018</v>
       </c>
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C61" s="96" t="s">
@@ -32954,7 +32960,7 @@
       <c r="A62" s="95">
         <v>2018</v>
       </c>
-      <c r="B62" s="129" t="s">
+      <c r="B62" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C62" s="96" t="s">
@@ -32974,7 +32980,7 @@
       <c r="A63" s="95">
         <v>2018</v>
       </c>
-      <c r="B63" s="129" t="s">
+      <c r="B63" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C63" s="96" t="s">
@@ -32992,247 +32998,247 @@
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
-        <v>2019</v>
-      </c>
-      <c r="B64" s="129" t="s">
-        <v>1788</v>
+        <v>2018</v>
+      </c>
+      <c r="B64" s="109" t="s">
+        <v>1947</v>
       </c>
       <c r="C64" s="96" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D64" s="97">
-        <v>-48.4</v>
-      </c>
-      <c r="E64" s="98">
-        <v>43828</v>
-      </c>
-      <c r="F64" s="103"/>
+        <v>-50</v>
+      </c>
+      <c r="E64" s="98" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F64" s="103" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="95">
-        <v>2020</v>
-      </c>
-      <c r="B65" s="129" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B65" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D65" s="97">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E65" s="98">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F65" s="103"/>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="95">
-        <v>2021</v>
-      </c>
-      <c r="B66" s="129" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B66" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C66" s="96" t="s">
         <v>1784</v>
       </c>
       <c r="D66" s="97">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E66" s="98">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F66" s="103"/>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
-        <v>2022</v>
-      </c>
-      <c r="B67" s="129" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B67" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D67" s="97">
-        <v>-46.8</v>
-      </c>
-      <c r="E67" s="98"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E67" s="98">
+        <v>44200</v>
+      </c>
       <c r="F67" s="103"/>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="95">
-        <v>2023</v>
-      </c>
-      <c r="B68" s="129" t="s">
-        <v>1970</v>
+        <v>2022</v>
+      </c>
+      <c r="B68" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C68" s="96" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D68" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E68" s="98">
-        <v>44949</v>
-      </c>
-      <c r="F68" s="103" t="s">
-        <v>1982</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E68" s="98"/>
+      <c r="F68" s="103"/>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="95">
         <v>2023</v>
       </c>
-      <c r="B69" s="129" t="s">
-        <v>1947</v>
+      <c r="B69" s="109" t="s">
+        <v>1970</v>
       </c>
       <c r="C69" s="96" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D69" s="97">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E69" s="98">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F69" s="103" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="95">
         <v>2023</v>
       </c>
-      <c r="B70" s="129" t="s">
+      <c r="B70" s="109" t="s">
         <v>1947</v>
       </c>
       <c r="C70" s="96" t="s">
         <v>1948</v>
       </c>
-      <c r="D70" s="99">
-        <v>-50</v>
+      <c r="D70" s="97">
+        <v>-49.4</v>
       </c>
       <c r="E70" s="98">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F70" s="103" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B71" s="109" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C71" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D71" s="99">
+        <v>-50</v>
+      </c>
+      <c r="E71" s="98">
+        <v>45280</v>
+      </c>
+      <c r="F71" s="103" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="95">
         <v>2024</v>
       </c>
-      <c r="B71" s="129" t="s">
+      <c r="B72" s="109" t="s">
         <v>1788</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C72" s="96" t="s">
         <v>1784</v>
       </c>
-      <c r="D71" s="97">
+      <c r="D72" s="97">
         <v>-48.8</v>
       </c>
-      <c r="E71" s="98">
+      <c r="E72" s="98">
         <v>45312</v>
       </c>
-      <c r="F71" s="103"/>
-    </row>
-    <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="100">
-        <v>2025</v>
-      </c>
-      <c r="B72" s="129" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D72" s="97">
-        <v>-45.6</v>
-      </c>
-      <c r="E72" s="98">
-        <v>45659</v>
-      </c>
-      <c r="F72" s="103" t="s">
-        <v>1980</v>
-      </c>
+      <c r="F72" s="103"/>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="100">
         <v>2025</v>
       </c>
-      <c r="B73" s="129" t="s">
+      <c r="B73" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C73" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D73" s="97">
         <v>-45.6</v>
       </c>
       <c r="E73" s="98">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F73" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="100">
         <v>2025</v>
       </c>
-      <c r="B74" s="129" t="s">
-        <v>1789</v>
+      <c r="B74" s="109" t="s">
+        <v>1788</v>
       </c>
       <c r="C74" s="96" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D74" s="97">
-        <v>-44.2</v>
+        <v>-45.6</v>
       </c>
       <c r="E74" s="98">
         <v>45673</v>
       </c>
-      <c r="F74" s="106" t="s">
+      <c r="F74" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="100">
+        <v>2025</v>
+      </c>
+      <c r="B75" s="109" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C75" s="96" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D75" s="97">
+        <v>-44.2</v>
+      </c>
+      <c r="E75" s="98">
+        <v>45673</v>
+      </c>
+      <c r="F75" s="106" t="s">
         <v>1974</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="100">
-        <v>2026</v>
-      </c>
-      <c r="B75" s="129" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C75" s="96" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D75" s="97">
-        <v>-51.2</v>
-      </c>
-      <c r="E75" s="101">
-        <v>46039</v>
-      </c>
-      <c r="F75" s="103" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="100">
         <v>2026</v>
       </c>
-      <c r="B76" s="129" t="s">
+      <c r="B76" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C76" s="96" t="s">
         <v>1794</v>
       </c>
       <c r="D76" s="97">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E76" s="101">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F76" s="103" t="s">
         <v>1980</v>
@@ -33242,14 +33248,14 @@
       <c r="A77" s="100">
         <v>2026</v>
       </c>
-      <c r="B77" s="129" t="s">
+      <c r="B77" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D77" s="97">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E77" s="101">
         <v>46040</v>
@@ -33258,13 +33264,37 @@
         <v>1980</v>
       </c>
     </row>
+    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="100">
+        <v>2026</v>
+      </c>
+      <c r="B78" s="109" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C78" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D78" s="97">
+        <v>-51.1</v>
+      </c>
+      <c r="E78" s="101">
+        <v>46040</v>
+      </c>
+      <c r="F78" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F77" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}"/>
+  <autoFilter ref="A2:F78" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F78">
+      <sortCondition ref="A2:A78"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D77">
+  <conditionalFormatting sqref="D3:D78">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -33298,12 +33328,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="116" t="s">
         <v>1834</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:4" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="51" t="s">
@@ -33604,29 +33634,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="122" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="114" t="s">
+      <c r="B2" s="123"/>
+      <c r="C2" s="118" t="s">
         <v>1853</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116" t="s">
+      <c r="D2" s="119"/>
+      <c r="E2" s="120" t="s">
         <v>1943</v>
       </c>
-      <c r="F2" s="117"/>
+      <c r="F2" s="121"/>
       <c r="G2" s="52" t="s">
         <v>1945</v>
       </c>
@@ -34713,32 +34743,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="1.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="124" t="s">
         <v>1968</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
     </row>
     <row r="2" spans="1:11" s="28" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="126" t="s">
         <v>1775</v>
       </c>
-      <c r="B2" s="122"/>
+      <c r="B2" s="126"/>
       <c r="C2" s="85" t="s">
         <v>1964</v>
       </c>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="127" t="s">
         <v>1969</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125" t="s">
+      <c r="E2" s="128"/>
+      <c r="F2" s="129" t="s">
         <v>1967</v>
       </c>
-      <c r="G2" s="126"/>
+      <c r="G2" s="130"/>
     </row>
     <row r="3" spans="1:11" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="58" t="s">

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2221FF-5982-454C-97CC-AE85FE5BD41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD70453-C15D-4577-8BA5-C5AE69ADB799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="寒冷爆发力" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="1989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1992">
   <si>
     <t>undefined</t>
   </si>
@@ -6674,6 +6674,18 @@
   </si>
   <si>
     <t>鄂特冈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车臣乌拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31843,10 +31855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -32072,37 +32084,37 @@
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B13" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C13" s="96" t="s">
-        <v>1785</v>
+        <v>1989</v>
       </c>
       <c r="D13" s="97">
-        <v>-53.8</v>
+        <v>-50.5</v>
       </c>
       <c r="E13" s="98">
-        <v>38721</v>
+        <v>38401</v>
       </c>
       <c r="F13" s="104"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="95">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="C14" s="96" t="s">
-        <v>1785</v>
+        <v>1991</v>
       </c>
       <c r="D14" s="97">
-        <v>-54</v>
+        <v>-50.4</v>
       </c>
       <c r="E14" s="98">
-        <v>38722</v>
+        <v>38401</v>
       </c>
       <c r="F14" s="104"/>
     </row>
@@ -32117,16 +32129,16 @@
         <v>1785</v>
       </c>
       <c r="D15" s="97">
-        <v>-52.1</v>
+        <v>-53.8</v>
       </c>
       <c r="E15" s="98">
-        <v>38723</v>
+        <v>38721</v>
       </c>
       <c r="F15" s="104"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="95">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="B16" s="109" t="s">
         <v>1970</v>
@@ -32135,100 +32147,100 @@
         <v>1785</v>
       </c>
       <c r="D16" s="97">
-        <v>-50.2</v>
+        <v>-54</v>
       </c>
       <c r="E16" s="98">
-        <v>39480</v>
+        <v>38722</v>
       </c>
       <c r="F16" s="104"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="95">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C17" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D17" s="97">
-        <v>-50</v>
+        <v>-52.1</v>
       </c>
       <c r="E17" s="98">
-        <v>40221</v>
+        <v>38723</v>
       </c>
       <c r="F17" s="104"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="95">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C18" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D18" s="97">
-        <v>-49.9</v>
+        <v>-50.2</v>
       </c>
       <c r="E18" s="98">
-        <v>40223</v>
+        <v>39480</v>
       </c>
       <c r="F18" s="104"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="95">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C19" s="96" t="s">
-        <v>1868</v>
+        <v>1794</v>
       </c>
       <c r="D19" s="97">
-        <v>-50.2</v>
+        <v>-50</v>
       </c>
       <c r="E19" s="98">
-        <v>40563</v>
+        <v>40221</v>
       </c>
       <c r="F19" s="104"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="95">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C20" s="96" t="s">
-        <v>1785</v>
+        <v>1794</v>
       </c>
       <c r="D20" s="97">
-        <v>-50.3</v>
+        <v>-49.9</v>
       </c>
       <c r="E20" s="98">
-        <v>42387</v>
+        <v>40223</v>
       </c>
       <c r="F20" s="104"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="95">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B21" s="109" t="s">
         <v>1970</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D21" s="97">
-        <v>-50.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E21" s="98">
-        <v>42392</v>
+        <v>40563</v>
       </c>
       <c r="F21" s="104"/>
     </row>
@@ -32243,10 +32255,10 @@
         <v>1785</v>
       </c>
       <c r="D22" s="97">
-        <v>-53.2</v>
+        <v>-50.3</v>
       </c>
       <c r="E22" s="98">
-        <v>42394</v>
+        <v>42387</v>
       </c>
       <c r="F22" s="104"/>
     </row>
@@ -32258,13 +32270,13 @@
         <v>1970</v>
       </c>
       <c r="C23" s="96" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D23" s="97">
-        <v>-50</v>
+        <v>-50.4</v>
       </c>
       <c r="E23" s="98">
-        <v>42394</v>
+        <v>42392</v>
       </c>
       <c r="F23" s="104"/>
     </row>
@@ -32279,10 +32291,10 @@
         <v>1785</v>
       </c>
       <c r="D24" s="97">
-        <v>-53</v>
+        <v>-53.2</v>
       </c>
       <c r="E24" s="98">
-        <v>42395</v>
+        <v>42394</v>
       </c>
       <c r="F24" s="104"/>
     </row>
@@ -32294,13 +32306,13 @@
         <v>1970</v>
       </c>
       <c r="C25" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D25" s="97">
-        <v>-53.9</v>
+        <v>-50</v>
       </c>
       <c r="E25" s="98">
-        <v>42396</v>
+        <v>42394</v>
       </c>
       <c r="F25" s="104"/>
     </row>
@@ -32315,10 +32327,10 @@
         <v>1785</v>
       </c>
       <c r="D26" s="97">
-        <v>-55.3</v>
+        <v>-53</v>
       </c>
       <c r="E26" s="98">
-        <v>42397</v>
+        <v>42395</v>
       </c>
       <c r="F26" s="104"/>
     </row>
@@ -32333,10 +32345,10 @@
         <v>1785</v>
       </c>
       <c r="D27" s="97">
-        <v>-54.4</v>
+        <v>-53.9</v>
       </c>
       <c r="E27" s="98">
-        <v>42398</v>
+        <v>42396</v>
       </c>
       <c r="F27" s="104"/>
     </row>
@@ -32348,13 +32360,13 @@
         <v>1970</v>
       </c>
       <c r="C28" s="96" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D28" s="97">
-        <v>-51.9</v>
+        <v>-55.3</v>
       </c>
       <c r="E28" s="98">
-        <v>42398</v>
+        <v>42397</v>
       </c>
       <c r="F28" s="104"/>
     </row>
@@ -32363,13 +32375,13 @@
         <v>2016</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D29" s="97">
-        <v>-50.2</v>
+        <v>-54.4</v>
       </c>
       <c r="E29" s="98">
         <v>42398</v>
@@ -32384,13 +32396,13 @@
         <v>1970</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D30" s="97">
-        <v>-55</v>
+        <v>-51.9</v>
       </c>
       <c r="E30" s="98">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F30" s="104"/>
     </row>
@@ -32399,16 +32411,16 @@
         <v>2016</v>
       </c>
       <c r="B31" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>1868</v>
+        <v>1794</v>
       </c>
       <c r="D31" s="97">
-        <v>-52.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E31" s="98">
-        <v>42399</v>
+        <v>42398</v>
       </c>
       <c r="F31" s="104"/>
     </row>
@@ -32417,13 +32429,13 @@
         <v>2016</v>
       </c>
       <c r="B32" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C32" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D32" s="97">
-        <v>-50.7</v>
+        <v>-55</v>
       </c>
       <c r="E32" s="98">
         <v>42399</v>
@@ -32438,13 +32450,13 @@
         <v>1970</v>
       </c>
       <c r="C33" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D33" s="97">
-        <v>-51.6</v>
+        <v>-52.8</v>
       </c>
       <c r="E33" s="98">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F33" s="104"/>
     </row>
@@ -32453,16 +32465,16 @@
         <v>2016</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C34" s="96" t="s">
-        <v>1868</v>
+        <v>1794</v>
       </c>
       <c r="D34" s="97">
-        <v>-51.5</v>
+        <v>-50.7</v>
       </c>
       <c r="E34" s="98">
-        <v>42400</v>
+        <v>42399</v>
       </c>
       <c r="F34" s="104"/>
     </row>
@@ -32477,10 +32489,10 @@
         <v>1785</v>
       </c>
       <c r="D35" s="97">
-        <v>-50.5</v>
+        <v>-51.6</v>
       </c>
       <c r="E35" s="98">
-        <v>42401</v>
+        <v>42400</v>
       </c>
       <c r="F35" s="104"/>
     </row>
@@ -32492,13 +32504,13 @@
         <v>1970</v>
       </c>
       <c r="C36" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D36" s="97">
-        <v>-50.2</v>
+        <v>-51.5</v>
       </c>
       <c r="E36" s="98">
-        <v>42403</v>
+        <v>42400</v>
       </c>
       <c r="F36" s="104"/>
     </row>
@@ -32513,10 +32525,10 @@
         <v>1785</v>
       </c>
       <c r="D37" s="97">
-        <v>-53.2</v>
+        <v>-50.5</v>
       </c>
       <c r="E37" s="98">
-        <v>42404</v>
+        <v>42401</v>
       </c>
       <c r="F37" s="104"/>
     </row>
@@ -32528,13 +32540,13 @@
         <v>1970</v>
       </c>
       <c r="C38" s="96" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D38" s="97">
-        <v>-51</v>
+        <v>-50.2</v>
       </c>
       <c r="E38" s="98">
-        <v>42404</v>
+        <v>42403</v>
       </c>
       <c r="F38" s="104"/>
     </row>
@@ -32546,13 +32558,13 @@
         <v>1970</v>
       </c>
       <c r="C39" s="96" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D39" s="97">
-        <v>-52.9</v>
+        <v>-53.2</v>
       </c>
       <c r="E39" s="98">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F39" s="104"/>
     </row>
@@ -32564,13 +32576,13 @@
         <v>1970</v>
       </c>
       <c r="C40" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D40" s="97">
-        <v>-52.3</v>
+        <v>-51</v>
       </c>
       <c r="E40" s="98">
-        <v>42405</v>
+        <v>42404</v>
       </c>
       <c r="F40" s="104"/>
     </row>
@@ -32582,13 +32594,13 @@
         <v>1970</v>
       </c>
       <c r="C41" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D41" s="97">
-        <v>-53.3</v>
+        <v>-52.9</v>
       </c>
       <c r="E41" s="98">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F41" s="104"/>
     </row>
@@ -32600,13 +32612,13 @@
         <v>1970</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>1868</v>
+        <v>1785</v>
       </c>
       <c r="D42" s="97">
-        <v>-52</v>
+        <v>-52.3</v>
       </c>
       <c r="E42" s="98">
-        <v>42406</v>
+        <v>42405</v>
       </c>
       <c r="F42" s="104"/>
     </row>
@@ -32615,18 +32627,18 @@
         <v>2016</v>
       </c>
       <c r="B43" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C43" s="96" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D43" s="97">
-        <v>-54.7</v>
+        <v>-53.3</v>
       </c>
       <c r="E43" s="98">
-        <v>42412</v>
-      </c>
-      <c r="F43" s="103"/>
+        <v>42406</v>
+      </c>
+      <c r="F43" s="104"/>
     </row>
     <row r="44" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="95">
@@ -32636,31 +32648,31 @@
         <v>1970</v>
       </c>
       <c r="C44" s="96" t="s">
-        <v>1785</v>
+        <v>1868</v>
       </c>
       <c r="D44" s="97">
-        <v>-53</v>
+        <v>-52</v>
       </c>
       <c r="E44" s="98">
-        <v>42413</v>
-      </c>
-      <c r="F44" s="103"/>
+        <v>42406</v>
+      </c>
+      <c r="F44" s="104"/>
     </row>
     <row r="45" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="95">
         <v>2016</v>
       </c>
       <c r="B45" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C45" s="96" t="s">
-        <v>1785</v>
+        <v>1790</v>
       </c>
       <c r="D45" s="97">
-        <v>-54.2</v>
+        <v>-54.7</v>
       </c>
       <c r="E45" s="98">
-        <v>42414</v>
+        <v>42412</v>
       </c>
       <c r="F45" s="103"/>
     </row>
@@ -32669,16 +32681,16 @@
         <v>2016</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>1987</v>
+        <v>1970</v>
       </c>
       <c r="C46" s="96" t="s">
-        <v>1988</v>
+        <v>1785</v>
       </c>
       <c r="D46" s="97">
-        <v>-50</v>
+        <v>-53</v>
       </c>
       <c r="E46" s="98">
-        <v>42415</v>
+        <v>42413</v>
       </c>
       <c r="F46" s="103"/>
     </row>
@@ -32687,16 +32699,16 @@
         <v>2016</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C47" s="96" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="D47" s="97">
-        <v>-50.3</v>
+        <v>-54.2</v>
       </c>
       <c r="E47" s="98">
-        <v>42437</v>
+        <v>42414</v>
       </c>
       <c r="F47" s="103"/>
     </row>
@@ -32705,16 +32717,16 @@
         <v>2016</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>1788</v>
+        <v>1987</v>
       </c>
       <c r="C48" s="96" t="s">
-        <v>1790</v>
+        <v>1988</v>
       </c>
       <c r="D48" s="97">
-        <v>-54</v>
+        <v>-50</v>
       </c>
       <c r="E48" s="98">
-        <v>42438</v>
+        <v>42415</v>
       </c>
       <c r="F48" s="103"/>
     </row>
@@ -32729,34 +32741,34 @@
         <v>1790</v>
       </c>
       <c r="D49" s="97">
-        <v>-53</v>
+        <v>-50.3</v>
       </c>
       <c r="E49" s="98">
-        <v>42439</v>
+        <v>42437</v>
       </c>
       <c r="F49" s="103"/>
     </row>
     <row r="50" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B50" s="109" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C50" s="96" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D50" s="97">
-        <v>-45.4</v>
+        <v>-54</v>
       </c>
       <c r="E50" s="98">
-        <v>42763</v>
+        <v>42438</v>
       </c>
       <c r="F50" s="103"/>
     </row>
     <row r="51" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="95">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B51" s="109" t="s">
         <v>1788</v>
@@ -32765,28 +32777,28 @@
         <v>1790</v>
       </c>
       <c r="D51" s="97">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="E51" s="98">
-        <v>43123</v>
+        <v>42439</v>
       </c>
       <c r="F51" s="103"/>
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>1867</v>
+        <v>1791</v>
       </c>
       <c r="D52" s="97">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="E52" s="98">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F52" s="103"/>
     </row>
@@ -32801,10 +32813,10 @@
         <v>1790</v>
       </c>
       <c r="D53" s="97">
-        <v>-53.2</v>
+        <v>-51.6</v>
       </c>
       <c r="E53" s="98">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F53" s="103"/>
     </row>
@@ -32819,10 +32831,10 @@
         <v>1867</v>
       </c>
       <c r="D54" s="97">
-        <v>-51.7</v>
+        <v>-51.3</v>
       </c>
       <c r="E54" s="98">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F54" s="103"/>
     </row>
@@ -32831,16 +32843,16 @@
         <v>2018</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C55" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D55" s="97">
-        <v>-50.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E55" s="98">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F55" s="103"/>
     </row>
@@ -32852,13 +32864,13 @@
         <v>1970</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>1979</v>
+        <v>1867</v>
       </c>
       <c r="D56" s="97">
-        <v>-50.3</v>
+        <v>-51.7</v>
       </c>
       <c r="E56" s="98">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F56" s="103"/>
     </row>
@@ -32867,13 +32879,13 @@
         <v>2018</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C57" s="96" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D57" s="97">
-        <v>-50.1</v>
+        <v>-50.7</v>
       </c>
       <c r="E57" s="98">
         <v>43125</v>
@@ -32888,33 +32900,31 @@
         <v>1970</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>1867</v>
+        <v>1979</v>
       </c>
       <c r="D58" s="97">
-        <v>-50.2</v>
+        <v>-50.3</v>
       </c>
       <c r="E58" s="98">
-        <v>43126</v>
-      </c>
-      <c r="F58" s="103" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F58" s="103"/>
     </row>
     <row r="59" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="95">
         <v>2018</v>
       </c>
       <c r="B59" s="109" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="D59" s="97">
-        <v>-49.9</v>
+        <v>-50.1</v>
       </c>
       <c r="E59" s="98">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="F59" s="103"/>
     </row>
@@ -32923,58 +32933,56 @@
         <v>2018</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C60" s="96" t="s">
-        <v>1792</v>
+        <v>1867</v>
       </c>
       <c r="D60" s="97">
-        <v>-51.8</v>
+        <v>-50.2</v>
       </c>
       <c r="E60" s="98">
-        <v>43127</v>
-      </c>
-      <c r="F60" s="103"/>
+        <v>43126</v>
+      </c>
+      <c r="F60" s="103" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
         <v>2018</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>1970</v>
+        <v>1947</v>
       </c>
       <c r="C61" s="96" t="s">
         <v>1794</v>
       </c>
       <c r="D61" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E61" s="98" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F61" s="103" t="s">
-        <v>1983</v>
-      </c>
+        <v>-49.9</v>
+      </c>
+      <c r="E61" s="98">
+        <v>43126</v>
+      </c>
+      <c r="F61" s="103"/>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
         <v>2018</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C62" s="96" t="s">
-        <v>1971</v>
+        <v>1792</v>
       </c>
       <c r="D62" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E62" s="98" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F62" s="103" t="s">
-        <v>1983</v>
-      </c>
+        <v>-51.8</v>
+      </c>
+      <c r="E62" s="98">
+        <v>43127</v>
+      </c>
+      <c r="F62" s="103"/>
     </row>
     <row r="63" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="95">
@@ -32984,7 +32992,7 @@
         <v>1970</v>
       </c>
       <c r="C63" s="96" t="s">
-        <v>1972</v>
+        <v>1794</v>
       </c>
       <c r="D63" s="97">
         <v>-50</v>
@@ -33001,146 +33009,146 @@
         <v>2018</v>
       </c>
       <c r="B64" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C64" s="96" t="s">
-        <v>1794</v>
+        <v>1971</v>
       </c>
       <c r="D64" s="97">
         <v>-50</v>
       </c>
       <c r="E64" s="98" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="F64" s="103" t="s">
-        <v>1977</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>1792</v>
+        <v>1972</v>
       </c>
       <c r="D65" s="97">
-        <v>-48.4</v>
-      </c>
-      <c r="E65" s="98">
-        <v>43828</v>
-      </c>
-      <c r="F65" s="103"/>
+        <v>-50</v>
+      </c>
+      <c r="E65" s="98" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F65" s="103" t="s">
+        <v>1983</v>
+      </c>
     </row>
     <row r="66" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="95">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>1788</v>
+        <v>1947</v>
       </c>
       <c r="C66" s="96" t="s">
-        <v>1784</v>
+        <v>1794</v>
       </c>
       <c r="D66" s="97">
-        <v>-49.6</v>
-      </c>
-      <c r="E66" s="98">
-        <v>44194</v>
-      </c>
-      <c r="F66" s="103"/>
+        <v>-50</v>
+      </c>
+      <c r="E66" s="98" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F66" s="103" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B67" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D67" s="97">
-        <v>-47.2</v>
+        <v>-48.4</v>
       </c>
       <c r="E67" s="98">
-        <v>44200</v>
+        <v>43828</v>
       </c>
       <c r="F67" s="103"/>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="95">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B68" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C68" s="96" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D68" s="97">
-        <v>-46.8</v>
-      </c>
-      <c r="E68" s="98"/>
+        <v>-49.6</v>
+      </c>
+      <c r="E68" s="98">
+        <v>44194</v>
+      </c>
       <c r="F68" s="103"/>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="95">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B69" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C69" s="96" t="s">
-        <v>1867</v>
+        <v>1784</v>
       </c>
       <c r="D69" s="97">
-        <v>-50</v>
+        <v>-47.2</v>
       </c>
       <c r="E69" s="98">
-        <v>44949</v>
-      </c>
-      <c r="F69" s="103" t="s">
-        <v>1982</v>
-      </c>
+        <v>44200</v>
+      </c>
+      <c r="F69" s="103"/>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B70" s="109" t="s">
-        <v>1947</v>
+        <v>1788</v>
       </c>
       <c r="C70" s="96" t="s">
-        <v>1948</v>
+        <v>1785</v>
       </c>
       <c r="D70" s="97">
-        <v>-49.4</v>
-      </c>
-      <c r="E70" s="98">
-        <v>45279</v>
-      </c>
-      <c r="F70" s="103" t="s">
-        <v>1981</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E70" s="98"/>
+      <c r="F70" s="103"/>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="95">
         <v>2023</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D71" s="99">
+        <v>1867</v>
+      </c>
+      <c r="D71" s="97">
         <v>-50</v>
       </c>
       <c r="E71" s="98">
-        <v>45280</v>
+        <v>44949</v>
       </c>
       <c r="F71" s="103" t="s">
         <v>1982</v>
@@ -33148,120 +33156,120 @@
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B72" s="109" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C72" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D72" s="97">
+        <v>-49.4</v>
+      </c>
+      <c r="E72" s="98">
+        <v>45279</v>
+      </c>
+      <c r="F72" s="103" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B73" s="109" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C73" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D73" s="99">
+        <v>-50</v>
+      </c>
+      <c r="E73" s="98">
+        <v>45280</v>
+      </c>
+      <c r="F73" s="103" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="95">
         <v>2024</v>
-      </c>
-      <c r="B72" s="109" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C72" s="96" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D72" s="97">
-        <v>-48.8</v>
-      </c>
-      <c r="E72" s="98">
-        <v>45312</v>
-      </c>
-      <c r="F72" s="103"/>
-    </row>
-    <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="100">
-        <v>2025</v>
-      </c>
-      <c r="B73" s="109" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C73" s="96" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D73" s="97">
-        <v>-45.6</v>
-      </c>
-      <c r="E73" s="98">
-        <v>45659</v>
-      </c>
-      <c r="F73" s="103" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="100">
-        <v>2025</v>
       </c>
       <c r="B74" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C74" s="96" t="s">
-        <v>1794</v>
+        <v>1784</v>
       </c>
       <c r="D74" s="97">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E74" s="98">
-        <v>45673</v>
-      </c>
-      <c r="F74" s="103" t="s">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+        <v>45312</v>
+      </c>
+      <c r="F74" s="103"/>
+    </row>
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="100">
         <v>2025</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C75" s="96" t="s">
-        <v>1793</v>
+        <v>1785</v>
       </c>
       <c r="D75" s="97">
-        <v>-44.2</v>
+        <v>-45.6</v>
       </c>
       <c r="E75" s="98">
-        <v>45673</v>
-      </c>
-      <c r="F75" s="106" t="s">
-        <v>1974</v>
+        <v>45659</v>
+      </c>
+      <c r="F75" s="103" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="100">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C76" s="96" t="s">
         <v>1794</v>
       </c>
       <c r="D76" s="97">
-        <v>-51.2</v>
-      </c>
-      <c r="E76" s="101">
-        <v>46039</v>
+        <v>-45.6</v>
+      </c>
+      <c r="E76" s="98">
+        <v>45673</v>
       </c>
       <c r="F76" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="100">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>1970</v>
+        <v>1789</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="D77" s="97">
-        <v>-52</v>
-      </c>
-      <c r="E77" s="101">
-        <v>46040</v>
-      </c>
-      <c r="F77" s="103" t="s">
-        <v>1980</v>
+        <v>-44.2</v>
+      </c>
+      <c r="E77" s="98">
+        <v>45673</v>
+      </c>
+      <c r="F77" s="106" t="s">
+        <v>1974</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -33272,29 +33280,69 @@
         <v>1970</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D78" s="97">
-        <v>-51.1</v>
+        <v>-51.2</v>
       </c>
       <c r="E78" s="101">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F78" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
+    <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="100">
+        <v>2026</v>
+      </c>
+      <c r="B79" s="109" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C79" s="96" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D79" s="97">
+        <v>-52</v>
+      </c>
+      <c r="E79" s="101">
+        <v>46040</v>
+      </c>
+      <c r="F79" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="100">
+        <v>2026</v>
+      </c>
+      <c r="B80" s="109" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D80" s="97">
+        <v>-51.1</v>
+      </c>
+      <c r="E80" s="101">
+        <v>46040</v>
+      </c>
+      <c r="F80" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F78" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F78">
-      <sortCondition ref="A2:A78"/>
+  <autoFilter ref="A2:F80" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F80">
+      <sortCondition ref="A2:A80"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D78">
+  <conditionalFormatting sqref="D3:D80">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>

--- a/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
+++ b/气象/蒙古气象/蒙古-50记录 & 东亚极端冷月均温排名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\蒙古气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD70453-C15D-4577-8BA5-C5AE69ADB799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95210826-F7B2-4926-888F-9B0A721C6B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{237916A9-0E72-4A8C-88B8-0F539FC0B012}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="寒冷爆发力" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">蒙古冷站!$A$2:$F$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1994">
   <si>
     <t>undefined</t>
   </si>
@@ -6686,6 +6686,14 @@
   </si>
   <si>
     <t>车臣乌拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扎布汗省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄂特冈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31855,10 +31863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" x14ac:dyDescent="0.4"/>
@@ -32786,37 +32794,37 @@
     </row>
     <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="95">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B52" s="109" t="s">
-        <v>1789</v>
+        <v>1992</v>
       </c>
       <c r="C52" s="96" t="s">
-        <v>1791</v>
+        <v>1993</v>
       </c>
       <c r="D52" s="97">
-        <v>-45.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E52" s="98">
-        <v>42763</v>
+        <v>42422</v>
       </c>
       <c r="F52" s="103"/>
     </row>
     <row r="53" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="95">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B53" s="109" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C53" s="96" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="D53" s="97">
-        <v>-51.6</v>
+        <v>-45.4</v>
       </c>
       <c r="E53" s="98">
-        <v>43123</v>
+        <v>42763</v>
       </c>
       <c r="F53" s="103"/>
     </row>
@@ -32825,13 +32833,13 @@
         <v>2018</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C54" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D54" s="97">
-        <v>-51.3</v>
+        <v>-51.6</v>
       </c>
       <c r="E54" s="98">
         <v>43123</v>
@@ -32843,16 +32851,16 @@
         <v>2018</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C55" s="96" t="s">
-        <v>1790</v>
+        <v>1867</v>
       </c>
       <c r="D55" s="97">
-        <v>-53.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E55" s="98">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F55" s="103"/>
     </row>
@@ -32861,13 +32869,13 @@
         <v>2018</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C56" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D56" s="97">
-        <v>-51.7</v>
+        <v>-53.2</v>
       </c>
       <c r="E56" s="98">
         <v>43124</v>
@@ -32885,10 +32893,10 @@
         <v>1867</v>
       </c>
       <c r="D57" s="97">
-        <v>-50.7</v>
+        <v>-51.7</v>
       </c>
       <c r="E57" s="98">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F57" s="103"/>
     </row>
@@ -32900,10 +32908,10 @@
         <v>1970</v>
       </c>
       <c r="C58" s="96" t="s">
-        <v>1979</v>
+        <v>1867</v>
       </c>
       <c r="D58" s="97">
-        <v>-50.3</v>
+        <v>-50.7</v>
       </c>
       <c r="E58" s="98">
         <v>43125</v>
@@ -32915,13 +32923,13 @@
         <v>2018</v>
       </c>
       <c r="B59" s="109" t="s">
-        <v>1788</v>
+        <v>1970</v>
       </c>
       <c r="C59" s="96" t="s">
-        <v>1790</v>
+        <v>1979</v>
       </c>
       <c r="D59" s="97">
-        <v>-50.1</v>
+        <v>-50.3</v>
       </c>
       <c r="E59" s="98">
         <v>43125</v>
@@ -32933,54 +32941,54 @@
         <v>2018</v>
       </c>
       <c r="B60" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C60" s="96" t="s">
-        <v>1867</v>
+        <v>1790</v>
       </c>
       <c r="D60" s="97">
-        <v>-50.2</v>
+        <v>-50.1</v>
       </c>
       <c r="E60" s="98">
-        <v>43126</v>
-      </c>
-      <c r="F60" s="103" t="s">
-        <v>1978</v>
-      </c>
+        <v>43125</v>
+      </c>
+      <c r="F60" s="103"/>
     </row>
     <row r="61" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="95">
         <v>2018</v>
       </c>
       <c r="B61" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C61" s="96" t="s">
-        <v>1794</v>
+        <v>1867</v>
       </c>
       <c r="D61" s="97">
-        <v>-49.9</v>
+        <v>-50.2</v>
       </c>
       <c r="E61" s="98">
         <v>43126</v>
       </c>
-      <c r="F61" s="103"/>
+      <c r="F61" s="103" t="s">
+        <v>1978</v>
+      </c>
     </row>
     <row r="62" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="95">
         <v>2018</v>
       </c>
       <c r="B62" s="109" t="s">
-        <v>1788</v>
+        <v>1947</v>
       </c>
       <c r="C62" s="96" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D62" s="97">
-        <v>-51.8</v>
+        <v>-49.9</v>
       </c>
       <c r="E62" s="98">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="F62" s="103"/>
     </row>
@@ -32989,20 +32997,18 @@
         <v>2018</v>
       </c>
       <c r="B63" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C63" s="96" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D63" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E63" s="98" t="s">
-        <v>1973</v>
-      </c>
-      <c r="F63" s="103" t="s">
-        <v>1983</v>
-      </c>
+        <v>-51.8</v>
+      </c>
+      <c r="E63" s="98">
+        <v>43127</v>
+      </c>
+      <c r="F63" s="103"/>
     </row>
     <row r="64" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="95">
@@ -33012,7 +33018,7 @@
         <v>1970</v>
       </c>
       <c r="C64" s="96" t="s">
-        <v>1971</v>
+        <v>1794</v>
       </c>
       <c r="D64" s="97">
         <v>-50</v>
@@ -33032,7 +33038,7 @@
         <v>1970</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="D65" s="97">
         <v>-50</v>
@@ -33049,60 +33055,62 @@
         <v>2018</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C66" s="96" t="s">
-        <v>1794</v>
+        <v>1972</v>
       </c>
       <c r="D66" s="97">
         <v>-50</v>
       </c>
       <c r="E66" s="98" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="F66" s="103" t="s">
-        <v>1977</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="95">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>1788</v>
+        <v>1947</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>1792</v>
+        <v>1794</v>
       </c>
       <c r="D67" s="97">
-        <v>-48.4</v>
-      </c>
-      <c r="E67" s="98">
-        <v>43828</v>
-      </c>
-      <c r="F67" s="103"/>
+        <v>-50</v>
+      </c>
+      <c r="E67" s="98" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F67" s="103" t="s">
+        <v>1977</v>
+      </c>
     </row>
     <row r="68" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="95">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B68" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C68" s="96" t="s">
-        <v>1784</v>
+        <v>1792</v>
       </c>
       <c r="D68" s="97">
-        <v>-49.6</v>
+        <v>-48.4</v>
       </c>
       <c r="E68" s="98">
-        <v>44194</v>
+        <v>43828</v>
       </c>
       <c r="F68" s="103"/>
     </row>
     <row r="69" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="95">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B69" s="109" t="s">
         <v>1788</v>
@@ -33111,67 +33119,65 @@
         <v>1784</v>
       </c>
       <c r="D69" s="97">
-        <v>-47.2</v>
+        <v>-49.6</v>
       </c>
       <c r="E69" s="98">
-        <v>44200</v>
+        <v>44194</v>
       </c>
       <c r="F69" s="103"/>
     </row>
     <row r="70" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B70" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C70" s="96" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D70" s="97">
-        <v>-46.8</v>
-      </c>
-      <c r="E70" s="98"/>
+        <v>-47.2</v>
+      </c>
+      <c r="E70" s="98">
+        <v>44200</v>
+      </c>
       <c r="F70" s="103"/>
     </row>
     <row r="71" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B71" s="109" t="s">
-        <v>1970</v>
+        <v>1788</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>1867</v>
+        <v>1785</v>
       </c>
       <c r="D71" s="97">
-        <v>-50</v>
-      </c>
-      <c r="E71" s="98">
-        <v>44949</v>
-      </c>
-      <c r="F71" s="103" t="s">
-        <v>1982</v>
-      </c>
+        <v>-46.8</v>
+      </c>
+      <c r="E71" s="98"/>
+      <c r="F71" s="103"/>
     </row>
     <row r="72" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="95">
         <v>2023</v>
       </c>
       <c r="B72" s="109" t="s">
-        <v>1947</v>
+        <v>1970</v>
       </c>
       <c r="C72" s="96" t="s">
-        <v>1948</v>
+        <v>1867</v>
       </c>
       <c r="D72" s="97">
-        <v>-49.4</v>
+        <v>-50</v>
       </c>
       <c r="E72" s="98">
-        <v>45279</v>
+        <v>44949</v>
       </c>
       <c r="F72" s="103" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -33184,53 +33190,53 @@
       <c r="C73" s="96" t="s">
         <v>1948</v>
       </c>
-      <c r="D73" s="99">
-        <v>-50</v>
+      <c r="D73" s="97">
+        <v>-49.4</v>
       </c>
       <c r="E73" s="98">
-        <v>45280</v>
+        <v>45279</v>
       </c>
       <c r="F73" s="103" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="95">
+        <v>2023</v>
+      </c>
+      <c r="B74" s="109" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C74" s="96" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D74" s="99">
+        <v>-50</v>
+      </c>
+      <c r="E74" s="98">
+        <v>45280</v>
+      </c>
+      <c r="F74" s="103" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="95">
         <v>2024</v>
-      </c>
-      <c r="B74" s="109" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C74" s="96" t="s">
-        <v>1784</v>
-      </c>
-      <c r="D74" s="97">
-        <v>-48.8</v>
-      </c>
-      <c r="E74" s="98">
-        <v>45312</v>
-      </c>
-      <c r="F74" s="103"/>
-    </row>
-    <row r="75" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="100">
-        <v>2025</v>
       </c>
       <c r="B75" s="109" t="s">
         <v>1788</v>
       </c>
       <c r="C75" s="96" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D75" s="97">
-        <v>-45.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E75" s="98">
-        <v>45659</v>
-      </c>
-      <c r="F75" s="103" t="s">
-        <v>1980</v>
-      </c>
+        <v>45312</v>
+      </c>
+      <c r="F75" s="103"/>
     </row>
     <row r="76" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="100">
@@ -33240,56 +33246,56 @@
         <v>1788</v>
       </c>
       <c r="C76" s="96" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="D76" s="97">
         <v>-45.6</v>
       </c>
       <c r="E76" s="98">
-        <v>45673</v>
+        <v>45659</v>
       </c>
       <c r="F76" s="103" t="s">
         <v>1980</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="100">
         <v>2025</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="D77" s="97">
-        <v>-44.2</v>
+        <v>-45.6</v>
       </c>
       <c r="E77" s="98">
         <v>45673</v>
       </c>
-      <c r="F77" s="106" t="s">
+      <c r="F77" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="100">
+        <v>2025</v>
+      </c>
+      <c r="B78" s="109" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C78" s="96" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D78" s="97">
+        <v>-44.2</v>
+      </c>
+      <c r="E78" s="98">
+        <v>45673</v>
+      </c>
+      <c r="F78" s="106" t="s">
         <v>1974</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="100">
-        <v>2026</v>
-      </c>
-      <c r="B78" s="109" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C78" s="96" t="s">
-        <v>1794</v>
-      </c>
-      <c r="D78" s="97">
-        <v>-51.2</v>
-      </c>
-      <c r="E78" s="101">
-        <v>46039</v>
-      </c>
-      <c r="F78" s="103" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -33303,10 +33309,10 @@
         <v>1794</v>
       </c>
       <c r="D79" s="97">
-        <v>-52</v>
+        <v>-51.2</v>
       </c>
       <c r="E79" s="101">
-        <v>46040</v>
+        <v>46039</v>
       </c>
       <c r="F79" s="103" t="s">
         <v>1980</v>
@@ -33320,10 +33326,10 @@
         <v>1970</v>
       </c>
       <c r="C80" s="96" t="s">
-        <v>1867</v>
+        <v>1794</v>
       </c>
       <c r="D80" s="97">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="E80" s="101">
         <v>46040</v>
@@ -33332,17 +33338,37 @@
         <v>1980</v>
       </c>
     </row>
+    <row r="81" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="100">
+        <v>2026</v>
+      </c>
+      <c r="B81" s="109" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C81" s="96" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D81" s="97">
+        <v>-51.1</v>
+      </c>
+      <c r="E81" s="101">
+        <v>46040</v>
+      </c>
+      <c r="F81" s="103" t="s">
+        <v>1980</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F80" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F80">
-      <sortCondition ref="A2:A80"/>
+  <autoFilter ref="A2:F81" xr:uid="{94ABDC8A-163A-480F-B2C9-0CD0B852C7D7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F81">
+      <sortCondition ref="A2:A81"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D3:D80">
+  <conditionalFormatting sqref="D3:D81">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
